--- a/wiki/CronogramaKlass.xlsx
+++ b/wiki/CronogramaKlass.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABFFA744-D4A4-4F7B-A793-5CB113126995}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA0E162-96B9-4BD8-AC2E-3A3B5CD45CDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="94">
   <si>
     <t>ACTIVITY</t>
   </si>
@@ -418,6 +418,9 @@
   </si>
   <si>
     <t>Tela de calendário, escola</t>
+  </si>
+  <si>
+    <t>Terceira etapa do projeto, responsável pela programação do projeto além da finalização de alguns diagramas.</t>
   </si>
 </sst>
 </file>
@@ -807,7 +810,7 @@
     <cellStyle name="Project Headers" xfId="4" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Título 1" xfId="1" builtinId="16" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="428">
+  <dxfs count="444">
     <dxf>
       <fill>
         <patternFill>
@@ -1150,6 +1153,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -1161,10 +1192,75 @@
           <color theme="9" tint="-0.24994659260841701"/>
         </right>
         <bottom style="thin">
-          <color theme="7"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1509,34 +1605,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -1548,75 +1616,10 @@
           <color theme="9" tint="-0.24994659260841701"/>
         </right>
         <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
+          <color theme="7"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -6368,6 +6371,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -6379,10 +6410,208 @@
           <color theme="9" tint="-0.24994659260841701"/>
         </right>
         <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
           <color theme="7"/>
         </bottom>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -7748,33 +7977,33 @@
     <mergeCell ref="H6:H7"/>
   </mergeCells>
   <conditionalFormatting sqref="J9:AD14">
-    <cfRule type="expression" dxfId="427" priority="25">
+    <cfRule type="expression" dxfId="443" priority="25">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="426" priority="27">
+    <cfRule type="expression" dxfId="442" priority="27">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="425" priority="28">
+    <cfRule type="expression" dxfId="441" priority="28">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="424" priority="29">
+    <cfRule type="expression" dxfId="440" priority="29">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="423" priority="30">
+    <cfRule type="expression" dxfId="439" priority="30">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="422" priority="31">
+    <cfRule type="expression" dxfId="438" priority="31">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="421" priority="35">
+    <cfRule type="expression" dxfId="437" priority="35">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="420" priority="36">
+    <cfRule type="expression" dxfId="436" priority="36">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:AD8">
-    <cfRule type="expression" dxfId="419" priority="32">
+    <cfRule type="expression" dxfId="435" priority="32">
       <formula>J$8=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7863,10 +8092,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:BQ28"/>
+  <dimension ref="B2:BQ29"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="B27" sqref="B27:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.35"/>
@@ -8927,18 +9156,41 @@
       <c r="BP24"/>
       <c r="BQ24"/>
     </row>
-    <row r="26" spans="2:69" x14ac:dyDescent="0.35">
-      <c r="B26" s="2" t="s">
-        <v>44</v>
+    <row r="25" spans="2:69" x14ac:dyDescent="0.35">
+      <c r="B25" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="13">
+        <v>35</v>
+      </c>
+      <c r="E25" s="13">
+        <v>7</v>
+      </c>
+      <c r="F25" s="13">
+        <v>35</v>
+      </c>
+      <c r="G25" s="13">
+        <v>7</v>
+      </c>
+      <c r="H25" s="14">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="2:69" x14ac:dyDescent="0.35">
-      <c r="B27" s="28" t="s">
-        <v>56</v>
+      <c r="B27" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="2:69" x14ac:dyDescent="0.35">
       <c r="B28" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="2:69" x14ac:dyDescent="0.35">
+      <c r="B29" s="28" t="s">
         <v>57</v>
       </c>
     </row>
@@ -8954,59 +9206,85 @@
     <mergeCell ref="C6:C7"/>
   </mergeCells>
   <conditionalFormatting sqref="J9:BQ24">
-    <cfRule type="expression" dxfId="418" priority="50">
+    <cfRule type="expression" dxfId="434" priority="58">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="417" priority="51">
+    <cfRule type="expression" dxfId="433" priority="59">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="416" priority="52">
+    <cfRule type="expression" dxfId="432" priority="60">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="415" priority="53">
+    <cfRule type="expression" dxfId="431" priority="61">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="414" priority="54">
+    <cfRule type="expression" dxfId="430" priority="62">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="413" priority="55">
+    <cfRule type="expression" dxfId="429" priority="63">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="412" priority="57">
+    <cfRule type="expression" dxfId="428" priority="65">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="411" priority="58">
+    <cfRule type="expression" dxfId="427" priority="66">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:BQ8">
-    <cfRule type="expression" dxfId="410" priority="56">
+    <cfRule type="expression" dxfId="426" priority="64">
       <formula>J$8=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J24:BQ24">
-    <cfRule type="expression" dxfId="409" priority="18">
+    <cfRule type="expression" dxfId="425" priority="26">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="408" priority="19">
+    <cfRule type="expression" dxfId="424" priority="27">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="407" priority="20">
+    <cfRule type="expression" dxfId="423" priority="28">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="406" priority="21">
+    <cfRule type="expression" dxfId="422" priority="29">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="405" priority="22">
+    <cfRule type="expression" dxfId="421" priority="30">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="404" priority="23">
+    <cfRule type="expression" dxfId="420" priority="31">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="403" priority="24">
+    <cfRule type="expression" dxfId="419" priority="32">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="402" priority="25">
+    <cfRule type="expression" dxfId="418" priority="33">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J25:BQ25">
+    <cfRule type="expression" dxfId="417" priority="1">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="416" priority="2">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="415" priority="3">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="414" priority="4">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="413" priority="5">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="412" priority="6">
+      <formula>J$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="411" priority="7">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="410" priority="8">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9049,7 +9327,7 @@
           <x14:formula1>
             <xm:f>Integrantes!$A$2:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>C9:C22 C23:C24</xm:sqref>
+          <xm:sqref>C9:C25</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -9062,10 +9340,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:BR44"/>
+  <dimension ref="B2:BR42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.35"/>
@@ -9110,7 +9388,7 @@
       <c r="M3" s="6"/>
       <c r="N3" s="35">
         <f ca="1">TODAY()-DATE(2020, 7, 5)-7</f>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O3" s="35"/>
       <c r="P3" s="6"/>
@@ -9554,25 +9832,25 @@
     </row>
     <row r="12" spans="2:70" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="12" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D12" s="13">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E12" s="13">
+        <v>14</v>
+      </c>
+      <c r="F12" s="13">
         <v>7</v>
       </c>
-      <c r="F12" s="13">
-        <v>35</v>
-      </c>
       <c r="G12" s="13">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H12" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD12"/>
       <c r="AE12"/>
@@ -9618,22 +9896,22 @@
     </row>
     <row r="13" spans="2:70" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="12" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D13" s="13">
+        <v>28</v>
+      </c>
+      <c r="E13" s="13">
         <v>7</v>
       </c>
-      <c r="E13" s="13">
-        <v>14</v>
-      </c>
       <c r="F13" s="13">
+        <v>28</v>
+      </c>
+      <c r="G13" s="13">
         <v>7</v>
-      </c>
-      <c r="G13" s="13">
-        <v>14</v>
       </c>
       <c r="H13" s="14">
         <v>1</v>
@@ -9682,19 +9960,19 @@
     </row>
     <row r="14" spans="2:70" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="12" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="C14" s="29" t="s">
         <v>55</v>
       </c>
       <c r="D14" s="13">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E14" s="13">
         <v>7</v>
       </c>
       <c r="F14" s="13">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G14" s="13">
         <v>7</v>
@@ -9746,19 +10024,19 @@
     </row>
     <row r="15" spans="2:70" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="12" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D15" s="13">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E15" s="13">
         <v>7</v>
       </c>
       <c r="F15" s="13">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="G15" s="13">
         <v>7</v>
@@ -9768,43 +10046,104 @@
       </c>
     </row>
     <row r="16" spans="2:70" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="13">
-        <v>21</v>
-      </c>
-      <c r="E16" s="13">
+      <c r="B16" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="22">
+        <v>28</v>
+      </c>
+      <c r="E16" s="22">
         <v>7</v>
       </c>
-      <c r="F16" s="13">
-        <v>21</v>
-      </c>
-      <c r="G16" s="13">
+      <c r="F16" s="22">
+        <v>28</v>
+      </c>
+      <c r="G16" s="22">
         <v>7</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="23">
         <v>1</v>
       </c>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="24"/>
+      <c r="U16" s="24"/>
+      <c r="V16" s="24"/>
+      <c r="W16" s="24"/>
+      <c r="X16" s="24"/>
+      <c r="Y16" s="24"/>
+      <c r="Z16" s="24"/>
+      <c r="AA16" s="24"/>
+      <c r="AB16" s="24"/>
+      <c r="AC16" s="24"/>
+      <c r="AD16" s="25"/>
+      <c r="AE16" s="25"/>
+      <c r="AF16" s="25"/>
+      <c r="AG16" s="25"/>
+      <c r="AH16" s="25"/>
+      <c r="AI16" s="25"/>
+      <c r="AJ16" s="25"/>
+      <c r="AK16" s="25"/>
+      <c r="AL16" s="25"/>
+      <c r="AM16" s="25"/>
+      <c r="AN16" s="25"/>
+      <c r="AO16" s="25"/>
+      <c r="AP16" s="25"/>
+      <c r="AQ16" s="25"/>
+      <c r="AR16" s="25"/>
+      <c r="AS16" s="25"/>
+      <c r="AT16" s="25"/>
+      <c r="AU16" s="25"/>
+      <c r="AV16" s="25"/>
+      <c r="AW16" s="25"/>
+      <c r="AX16" s="25"/>
+      <c r="AY16" s="25"/>
+      <c r="AZ16" s="25"/>
+      <c r="BA16" s="25"/>
+      <c r="BB16" s="25"/>
+      <c r="BC16" s="25"/>
+      <c r="BD16" s="25"/>
+      <c r="BE16" s="25"/>
+      <c r="BF16" s="25"/>
+      <c r="BG16" s="25"/>
+      <c r="BH16" s="25"/>
+      <c r="BI16" s="25"/>
+      <c r="BJ16" s="25"/>
+      <c r="BK16" s="25"/>
+      <c r="BL16" s="25"/>
+      <c r="BM16" s="25"/>
+      <c r="BN16" s="25"/>
+      <c r="BO16" s="25"/>
+      <c r="BP16" s="25"/>
+      <c r="BQ16" s="25"/>
     </row>
     <row r="17" spans="2:69" x14ac:dyDescent="0.35">
       <c r="B17" s="21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D17" s="22">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E17" s="22">
         <v>7</v>
       </c>
       <c r="F17" s="22">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G17" s="22">
         <v>7</v>
@@ -9876,10 +10215,10 @@
     </row>
     <row r="18" spans="2:69" x14ac:dyDescent="0.35">
       <c r="B18" s="21" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="22">
         <v>35</v>
@@ -9960,19 +10299,19 @@
     </row>
     <row r="19" spans="2:69" x14ac:dyDescent="0.35">
       <c r="B19" s="21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C19" s="32" t="s">
         <v>54</v>
       </c>
       <c r="D19" s="22">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E19" s="22">
         <v>7</v>
       </c>
       <c r="F19" s="22">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G19" s="22">
         <v>7</v>
@@ -10044,10 +10383,10 @@
     </row>
     <row r="20" spans="2:69" x14ac:dyDescent="0.35">
       <c r="B20" s="21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D20" s="22">
         <v>42</v>
@@ -10059,7 +10398,7 @@
         <v>42</v>
       </c>
       <c r="G20" s="22">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H20" s="23">
         <v>1</v>
@@ -10128,22 +10467,22 @@
     </row>
     <row r="21" spans="2:69" x14ac:dyDescent="0.35">
       <c r="B21" s="21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D21" s="22">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E21" s="22">
         <v>7</v>
       </c>
       <c r="F21" s="22">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G21" s="22">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H21" s="23">
         <v>1</v>
@@ -10211,92 +10550,31 @@
       <c r="BQ21" s="25"/>
     </row>
     <row r="22" spans="2:69" x14ac:dyDescent="0.35">
-      <c r="B22" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" s="32" t="s">
+      <c r="B22" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D22" s="13">
         <v>49</v>
       </c>
-      <c r="E22" s="22">
+      <c r="E22" s="13">
         <v>7</v>
       </c>
-      <c r="F22" s="22">
+      <c r="F22" s="13">
         <v>49</v>
       </c>
-      <c r="G22" s="22">
+      <c r="G22" s="13">
         <v>7</v>
       </c>
-      <c r="H22" s="23">
+      <c r="H22" s="14">
         <v>1</v>
       </c>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="24"/>
-      <c r="U22" s="24"/>
-      <c r="V22" s="24"/>
-      <c r="W22" s="24"/>
-      <c r="X22" s="24"/>
-      <c r="Y22" s="24"/>
-      <c r="Z22" s="24"/>
-      <c r="AA22" s="24"/>
-      <c r="AB22" s="24"/>
-      <c r="AC22" s="24"/>
-      <c r="AD22" s="25"/>
-      <c r="AE22" s="25"/>
-      <c r="AF22" s="25"/>
-      <c r="AG22" s="25"/>
-      <c r="AH22" s="25"/>
-      <c r="AI22" s="25"/>
-      <c r="AJ22" s="25"/>
-      <c r="AK22" s="25"/>
-      <c r="AL22" s="25"/>
-      <c r="AM22" s="25"/>
-      <c r="AN22" s="25"/>
-      <c r="AO22" s="25"/>
-      <c r="AP22" s="25"/>
-      <c r="AQ22" s="25"/>
-      <c r="AR22" s="25"/>
-      <c r="AS22" s="25"/>
-      <c r="AT22" s="25"/>
-      <c r="AU22" s="25"/>
-      <c r="AV22" s="25"/>
-      <c r="AW22" s="25"/>
-      <c r="AX22" s="25"/>
-      <c r="AY22" s="25"/>
-      <c r="AZ22" s="25"/>
-      <c r="BA22" s="25"/>
-      <c r="BB22" s="25"/>
-      <c r="BC22" s="25"/>
-      <c r="BD22" s="25"/>
-      <c r="BE22" s="25"/>
-      <c r="BF22" s="25"/>
-      <c r="BG22" s="25"/>
-      <c r="BH22" s="25"/>
-      <c r="BI22" s="25"/>
-      <c r="BJ22" s="25"/>
-      <c r="BK22" s="25"/>
-      <c r="BL22" s="25"/>
-      <c r="BM22" s="25"/>
-      <c r="BN22" s="25"/>
-      <c r="BO22" s="25"/>
-      <c r="BP22" s="25"/>
-      <c r="BQ22" s="25"/>
     </row>
     <row r="23" spans="2:69" x14ac:dyDescent="0.35">
       <c r="B23" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C23" s="29" t="s">
         <v>54</v>
@@ -10318,211 +10596,150 @@
       </c>
     </row>
     <row r="24" spans="2:69" x14ac:dyDescent="0.35">
-      <c r="B24" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="13">
-        <v>49</v>
-      </c>
-      <c r="E24" s="13">
+      <c r="B24" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="22">
+        <v>21</v>
+      </c>
+      <c r="E24" s="22">
         <v>7</v>
       </c>
-      <c r="F24" s="13">
-        <v>49</v>
-      </c>
-      <c r="G24" s="13">
+      <c r="F24" s="22">
+        <v>21</v>
+      </c>
+      <c r="G24" s="22">
         <v>7</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H24" s="23">
         <v>1</v>
       </c>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="24"/>
+      <c r="T24" s="24"/>
+      <c r="U24" s="24"/>
+      <c r="V24" s="24"/>
+      <c r="W24" s="24"/>
+      <c r="X24" s="24"/>
+      <c r="Y24" s="24"/>
+      <c r="Z24" s="24"/>
+      <c r="AA24" s="24"/>
+      <c r="AB24" s="24"/>
+      <c r="AC24" s="24"/>
+      <c r="AD24" s="25"/>
+      <c r="AE24" s="25"/>
+      <c r="AF24" s="25"/>
+      <c r="AG24" s="25"/>
+      <c r="AH24" s="25"/>
+      <c r="AI24" s="25"/>
+      <c r="AJ24" s="25"/>
+      <c r="AK24" s="25"/>
+      <c r="AL24" s="25"/>
+      <c r="AM24" s="25"/>
+      <c r="AN24" s="25"/>
+      <c r="AO24" s="25"/>
+      <c r="AP24" s="25"/>
+      <c r="AQ24" s="25"/>
+      <c r="AR24" s="25"/>
+      <c r="AS24" s="25"/>
+      <c r="AT24" s="25"/>
+      <c r="AU24" s="25"/>
+      <c r="AV24" s="25"/>
+      <c r="AW24" s="25"/>
+      <c r="AX24" s="25"/>
+      <c r="AY24" s="25"/>
+      <c r="AZ24" s="25"/>
+      <c r="BA24" s="25"/>
+      <c r="BB24" s="25"/>
+      <c r="BC24" s="25"/>
+      <c r="BD24" s="25"/>
+      <c r="BE24" s="25"/>
+      <c r="BF24" s="25"/>
+      <c r="BG24" s="25"/>
+      <c r="BH24" s="25"/>
+      <c r="BI24" s="25"/>
+      <c r="BJ24" s="25"/>
+      <c r="BK24" s="25"/>
+      <c r="BL24" s="25"/>
+      <c r="BM24" s="25"/>
+      <c r="BN24" s="25"/>
+      <c r="BO24" s="25"/>
+      <c r="BP24" s="25"/>
+      <c r="BQ24" s="25"/>
     </row>
     <row r="25" spans="2:69" x14ac:dyDescent="0.35">
-      <c r="B25" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="C25" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" s="22">
-        <v>56</v>
-      </c>
-      <c r="E25" s="22">
+      <c r="B25" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="13">
+        <v>21</v>
+      </c>
+      <c r="E25" s="13">
         <v>7</v>
       </c>
-      <c r="F25" s="22">
-        <v>56</v>
-      </c>
-      <c r="G25" s="22">
+      <c r="F25" s="13">
+        <v>21</v>
+      </c>
+      <c r="G25" s="13">
         <v>7</v>
       </c>
-      <c r="H25" s="23">
-        <v>0</v>
-      </c>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
-      <c r="S25" s="24"/>
-      <c r="T25" s="24"/>
-      <c r="U25" s="24"/>
-      <c r="V25" s="24"/>
-      <c r="W25" s="24"/>
-      <c r="X25" s="24"/>
-      <c r="Y25" s="24"/>
-      <c r="Z25" s="24"/>
-      <c r="AA25" s="24"/>
-      <c r="AB25" s="24"/>
-      <c r="AC25" s="24"/>
-      <c r="AD25" s="25"/>
-      <c r="AE25" s="25"/>
-      <c r="AF25" s="25"/>
-      <c r="AG25" s="25"/>
-      <c r="AH25" s="25"/>
-      <c r="AI25" s="25"/>
-      <c r="AJ25" s="25"/>
-      <c r="AK25" s="25"/>
-      <c r="AL25" s="25"/>
-      <c r="AM25" s="25"/>
-      <c r="AN25" s="25"/>
-      <c r="AO25" s="25"/>
-      <c r="AP25" s="25"/>
-      <c r="AQ25" s="25"/>
-      <c r="AR25" s="25"/>
-      <c r="AS25" s="25"/>
-      <c r="AT25" s="25"/>
-      <c r="AU25" s="25"/>
-      <c r="AV25" s="25"/>
-      <c r="AW25" s="25"/>
-      <c r="AX25" s="25"/>
-      <c r="AY25" s="25"/>
-      <c r="AZ25" s="25"/>
-      <c r="BA25" s="25"/>
-      <c r="BB25" s="25"/>
-      <c r="BC25" s="25"/>
-      <c r="BD25" s="25"/>
-      <c r="BE25" s="25"/>
-      <c r="BF25" s="25"/>
-      <c r="BG25" s="25"/>
-      <c r="BH25" s="25"/>
-      <c r="BI25" s="25"/>
-      <c r="BJ25" s="25"/>
-      <c r="BK25" s="25"/>
-      <c r="BL25" s="25"/>
-      <c r="BM25" s="25"/>
-      <c r="BN25" s="25"/>
-      <c r="BO25" s="25"/>
-      <c r="BP25" s="25"/>
-      <c r="BQ25" s="25"/>
+      <c r="H25" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="2:69" x14ac:dyDescent="0.35">
-      <c r="B26" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C26" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="22">
-        <v>56</v>
-      </c>
-      <c r="E26" s="22">
+      <c r="B26" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="13">
+        <v>28</v>
+      </c>
+      <c r="E26" s="13">
         <v>7</v>
       </c>
-      <c r="F26" s="22">
-        <v>56</v>
-      </c>
-      <c r="G26" s="22">
+      <c r="F26" s="13">
+        <v>28</v>
+      </c>
+      <c r="G26" s="13">
         <v>7</v>
       </c>
-      <c r="H26" s="23">
-        <v>0</v>
-      </c>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="24"/>
-      <c r="R26" s="24"/>
-      <c r="S26" s="24"/>
-      <c r="T26" s="24"/>
-      <c r="U26" s="24"/>
-      <c r="V26" s="24"/>
-      <c r="W26" s="24"/>
-      <c r="X26" s="24"/>
-      <c r="Y26" s="24"/>
-      <c r="Z26" s="24"/>
-      <c r="AA26" s="24"/>
-      <c r="AB26" s="24"/>
-      <c r="AC26" s="24"/>
-      <c r="AD26" s="25"/>
-      <c r="AE26" s="25"/>
-      <c r="AF26" s="25"/>
-      <c r="AG26" s="25"/>
-      <c r="AH26" s="25"/>
-      <c r="AI26" s="25"/>
-      <c r="AJ26" s="25"/>
-      <c r="AK26" s="25"/>
-      <c r="AL26" s="25"/>
-      <c r="AM26" s="25"/>
-      <c r="AN26" s="25"/>
-      <c r="AO26" s="25"/>
-      <c r="AP26" s="25"/>
-      <c r="AQ26" s="25"/>
-      <c r="AR26" s="25"/>
-      <c r="AS26" s="25"/>
-      <c r="AT26" s="25"/>
-      <c r="AU26" s="25"/>
-      <c r="AV26" s="25"/>
-      <c r="AW26" s="25"/>
-      <c r="AX26" s="25"/>
-      <c r="AY26" s="25"/>
-      <c r="AZ26" s="25"/>
-      <c r="BA26" s="25"/>
-      <c r="BB26" s="25"/>
-      <c r="BC26" s="25"/>
-      <c r="BD26" s="25"/>
-      <c r="BE26" s="25"/>
-      <c r="BF26" s="25"/>
-      <c r="BG26" s="25"/>
-      <c r="BH26" s="25"/>
-      <c r="BI26" s="25"/>
-      <c r="BJ26" s="25"/>
-      <c r="BK26" s="25"/>
-      <c r="BL26" s="25"/>
-      <c r="BM26" s="25"/>
-      <c r="BN26" s="25"/>
-      <c r="BO26" s="25"/>
-      <c r="BP26" s="25"/>
-      <c r="BQ26" s="25"/>
+      <c r="H26" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="2:69" x14ac:dyDescent="0.35">
       <c r="B27" s="21" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D27" s="22">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E27" s="22">
         <v>7</v>
       </c>
       <c r="F27" s="22">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="G27" s="22">
         <v>7</v>
@@ -10593,43 +10810,104 @@
       <c r="BQ27" s="25"/>
     </row>
     <row r="28" spans="2:69" x14ac:dyDescent="0.35">
-      <c r="B28" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="C28" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="13">
-        <v>21</v>
-      </c>
-      <c r="E28" s="13">
+      <c r="B28" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="22">
+        <v>42</v>
+      </c>
+      <c r="E28" s="22">
         <v>7</v>
       </c>
-      <c r="F28" s="13">
-        <v>21</v>
-      </c>
-      <c r="G28" s="13">
+      <c r="F28" s="22">
+        <v>42</v>
+      </c>
+      <c r="G28" s="22">
         <v>7</v>
       </c>
-      <c r="H28" s="14">
+      <c r="H28" s="23">
         <v>1</v>
       </c>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="24"/>
+      <c r="R28" s="24"/>
+      <c r="S28" s="24"/>
+      <c r="T28" s="24"/>
+      <c r="U28" s="24"/>
+      <c r="V28" s="24"/>
+      <c r="W28" s="24"/>
+      <c r="X28" s="24"/>
+      <c r="Y28" s="24"/>
+      <c r="Z28" s="24"/>
+      <c r="AA28" s="24"/>
+      <c r="AB28" s="24"/>
+      <c r="AC28" s="24"/>
+      <c r="AD28" s="25"/>
+      <c r="AE28" s="25"/>
+      <c r="AF28" s="25"/>
+      <c r="AG28" s="25"/>
+      <c r="AH28" s="25"/>
+      <c r="AI28" s="25"/>
+      <c r="AJ28" s="25"/>
+      <c r="AK28" s="25"/>
+      <c r="AL28" s="25"/>
+      <c r="AM28" s="25"/>
+      <c r="AN28" s="25"/>
+      <c r="AO28" s="25"/>
+      <c r="AP28" s="25"/>
+      <c r="AQ28" s="25"/>
+      <c r="AR28" s="25"/>
+      <c r="AS28" s="25"/>
+      <c r="AT28" s="25"/>
+      <c r="AU28" s="25"/>
+      <c r="AV28" s="25"/>
+      <c r="AW28" s="25"/>
+      <c r="AX28" s="25"/>
+      <c r="AY28" s="25"/>
+      <c r="AZ28" s="25"/>
+      <c r="BA28" s="25"/>
+      <c r="BB28" s="25"/>
+      <c r="BC28" s="25"/>
+      <c r="BD28" s="25"/>
+      <c r="BE28" s="25"/>
+      <c r="BF28" s="25"/>
+      <c r="BG28" s="25"/>
+      <c r="BH28" s="25"/>
+      <c r="BI28" s="25"/>
+      <c r="BJ28" s="25"/>
+      <c r="BK28" s="25"/>
+      <c r="BL28" s="25"/>
+      <c r="BM28" s="25"/>
+      <c r="BN28" s="25"/>
+      <c r="BO28" s="25"/>
+      <c r="BP28" s="25"/>
+      <c r="BQ28" s="25"/>
     </row>
     <row r="29" spans="2:69" x14ac:dyDescent="0.35">
       <c r="B29" s="12" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C29" s="29" t="s">
         <v>51</v>
       </c>
       <c r="D29" s="13">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="E29" s="13">
         <v>7</v>
       </c>
       <c r="F29" s="13">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="G29" s="13">
         <v>7</v>
@@ -10639,104 +10917,43 @@
       </c>
     </row>
     <row r="30" spans="2:69" x14ac:dyDescent="0.35">
-      <c r="B30" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="C30" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="D30" s="22">
-        <v>35</v>
-      </c>
-      <c r="E30" s="22">
-        <v>7</v>
-      </c>
-      <c r="F30" s="22">
-        <v>35</v>
-      </c>
-      <c r="G30" s="22">
-        <v>7</v>
-      </c>
-      <c r="H30" s="23">
+      <c r="B30" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="13">
+        <v>47</v>
+      </c>
+      <c r="E30" s="13">
+        <v>14</v>
+      </c>
+      <c r="F30" s="13">
+        <v>47</v>
+      </c>
+      <c r="G30" s="13">
+        <v>14</v>
+      </c>
+      <c r="H30" s="14">
         <v>1</v>
       </c>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="24"/>
-      <c r="O30" s="24"/>
-      <c r="P30" s="24"/>
-      <c r="Q30" s="24"/>
-      <c r="R30" s="24"/>
-      <c r="S30" s="24"/>
-      <c r="T30" s="24"/>
-      <c r="U30" s="24"/>
-      <c r="V30" s="24"/>
-      <c r="W30" s="24"/>
-      <c r="X30" s="24"/>
-      <c r="Y30" s="24"/>
-      <c r="Z30" s="24"/>
-      <c r="AA30" s="24"/>
-      <c r="AB30" s="24"/>
-      <c r="AC30" s="24"/>
-      <c r="AD30" s="25"/>
-      <c r="AE30" s="25"/>
-      <c r="AF30" s="25"/>
-      <c r="AG30" s="25"/>
-      <c r="AH30" s="25"/>
-      <c r="AI30" s="25"/>
-      <c r="AJ30" s="25"/>
-      <c r="AK30" s="25"/>
-      <c r="AL30" s="25"/>
-      <c r="AM30" s="25"/>
-      <c r="AN30" s="25"/>
-      <c r="AO30" s="25"/>
-      <c r="AP30" s="25"/>
-      <c r="AQ30" s="25"/>
-      <c r="AR30" s="25"/>
-      <c r="AS30" s="25"/>
-      <c r="AT30" s="25"/>
-      <c r="AU30" s="25"/>
-      <c r="AV30" s="25"/>
-      <c r="AW30" s="25"/>
-      <c r="AX30" s="25"/>
-      <c r="AY30" s="25"/>
-      <c r="AZ30" s="25"/>
-      <c r="BA30" s="25"/>
-      <c r="BB30" s="25"/>
-      <c r="BC30" s="25"/>
-      <c r="BD30" s="25"/>
-      <c r="BE30" s="25"/>
-      <c r="BF30" s="25"/>
-      <c r="BG30" s="25"/>
-      <c r="BH30" s="25"/>
-      <c r="BI30" s="25"/>
-      <c r="BJ30" s="25"/>
-      <c r="BK30" s="25"/>
-      <c r="BL30" s="25"/>
-      <c r="BM30" s="25"/>
-      <c r="BN30" s="25"/>
-      <c r="BO30" s="25"/>
-      <c r="BP30" s="25"/>
-      <c r="BQ30" s="25"/>
     </row>
     <row r="31" spans="2:69" x14ac:dyDescent="0.35">
       <c r="B31" s="21" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D31" s="22">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="E31" s="22">
         <v>7</v>
       </c>
       <c r="F31" s="22">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="G31" s="22">
         <v>7</v>
@@ -10807,72 +11024,194 @@
       <c r="BQ31" s="25"/>
     </row>
     <row r="32" spans="2:69" x14ac:dyDescent="0.35">
-      <c r="B32" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="C32" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="D32" s="13">
-        <v>49</v>
-      </c>
-      <c r="E32" s="13">
-        <v>7</v>
-      </c>
-      <c r="F32" s="13">
-        <v>49</v>
-      </c>
-      <c r="G32" s="13">
-        <v>7</v>
-      </c>
-      <c r="H32" s="14">
-        <v>0</v>
-      </c>
+      <c r="B32" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="22">
+        <v>28</v>
+      </c>
+      <c r="E32" s="22">
+        <v>14</v>
+      </c>
+      <c r="F32" s="22">
+        <v>28</v>
+      </c>
+      <c r="G32" s="22">
+        <v>14</v>
+      </c>
+      <c r="H32" s="23">
+        <v>1</v>
+      </c>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="24"/>
+      <c r="O32" s="24"/>
+      <c r="P32" s="24"/>
+      <c r="Q32" s="24"/>
+      <c r="R32" s="24"/>
+      <c r="S32" s="24"/>
+      <c r="T32" s="24"/>
+      <c r="U32" s="24"/>
+      <c r="V32" s="24"/>
+      <c r="W32" s="24"/>
+      <c r="X32" s="24"/>
+      <c r="Y32" s="24"/>
+      <c r="Z32" s="24"/>
+      <c r="AA32" s="24"/>
+      <c r="AB32" s="24"/>
+      <c r="AC32" s="24"/>
+      <c r="AD32" s="25"/>
+      <c r="AE32" s="25"/>
+      <c r="AF32" s="25"/>
+      <c r="AG32" s="25"/>
+      <c r="AH32" s="25"/>
+      <c r="AI32" s="25"/>
+      <c r="AJ32" s="25"/>
+      <c r="AK32" s="25"/>
+      <c r="AL32" s="25"/>
+      <c r="AM32" s="25"/>
+      <c r="AN32" s="25"/>
+      <c r="AO32" s="25"/>
+      <c r="AP32" s="25"/>
+      <c r="AQ32" s="25"/>
+      <c r="AR32" s="25"/>
+      <c r="AS32" s="25"/>
+      <c r="AT32" s="25"/>
+      <c r="AU32" s="25"/>
+      <c r="AV32" s="25"/>
+      <c r="AW32" s="25"/>
+      <c r="AX32" s="25"/>
+      <c r="AY32" s="25"/>
+      <c r="AZ32" s="25"/>
+      <c r="BA32" s="25"/>
+      <c r="BB32" s="25"/>
+      <c r="BC32" s="25"/>
+      <c r="BD32" s="25"/>
+      <c r="BE32" s="25"/>
+      <c r="BF32" s="25"/>
+      <c r="BG32" s="25"/>
+      <c r="BH32" s="25"/>
+      <c r="BI32" s="25"/>
+      <c r="BJ32" s="25"/>
+      <c r="BK32" s="25"/>
+      <c r="BL32" s="25"/>
+      <c r="BM32" s="25"/>
+      <c r="BN32" s="25"/>
+      <c r="BO32" s="25"/>
+      <c r="BP32" s="25"/>
+      <c r="BQ32" s="25"/>
     </row>
     <row r="33" spans="2:69" x14ac:dyDescent="0.35">
-      <c r="B33" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="C33" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="D33" s="13">
-        <v>47</v>
-      </c>
-      <c r="E33" s="13">
-        <v>14</v>
-      </c>
-      <c r="F33" s="13">
-        <v>47</v>
-      </c>
-      <c r="G33" s="13">
-        <v>14</v>
-      </c>
-      <c r="H33" s="14">
-        <v>0</v>
-      </c>
+      <c r="B33" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="22">
+        <v>1</v>
+      </c>
+      <c r="E33" s="22">
+        <v>7</v>
+      </c>
+      <c r="F33" s="22">
+        <v>1</v>
+      </c>
+      <c r="G33" s="22">
+        <v>7</v>
+      </c>
+      <c r="H33" s="23">
+        <v>1</v>
+      </c>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="24"/>
+      <c r="O33" s="24"/>
+      <c r="P33" s="24"/>
+      <c r="Q33" s="24"/>
+      <c r="R33" s="24"/>
+      <c r="S33" s="24"/>
+      <c r="T33" s="24"/>
+      <c r="U33" s="24"/>
+      <c r="V33" s="24"/>
+      <c r="W33" s="24"/>
+      <c r="X33" s="24"/>
+      <c r="Y33" s="24"/>
+      <c r="Z33" s="24"/>
+      <c r="AA33" s="24"/>
+      <c r="AB33" s="24"/>
+      <c r="AC33" s="24"/>
+      <c r="AD33" s="25"/>
+      <c r="AE33" s="25"/>
+      <c r="AF33" s="25"/>
+      <c r="AG33" s="25"/>
+      <c r="AH33" s="25"/>
+      <c r="AI33" s="25"/>
+      <c r="AJ33" s="25"/>
+      <c r="AK33" s="25"/>
+      <c r="AL33" s="25"/>
+      <c r="AM33" s="25"/>
+      <c r="AN33" s="25"/>
+      <c r="AO33" s="25"/>
+      <c r="AP33" s="25"/>
+      <c r="AQ33" s="25"/>
+      <c r="AR33" s="25"/>
+      <c r="AS33" s="25"/>
+      <c r="AT33" s="25"/>
+      <c r="AU33" s="25"/>
+      <c r="AV33" s="25"/>
+      <c r="AW33" s="25"/>
+      <c r="AX33" s="25"/>
+      <c r="AY33" s="25"/>
+      <c r="AZ33" s="25"/>
+      <c r="BA33" s="25"/>
+      <c r="BB33" s="25"/>
+      <c r="BC33" s="25"/>
+      <c r="BD33" s="25"/>
+      <c r="BE33" s="25"/>
+      <c r="BF33" s="25"/>
+      <c r="BG33" s="25"/>
+      <c r="BH33" s="25"/>
+      <c r="BI33" s="25"/>
+      <c r="BJ33" s="25"/>
+      <c r="BK33" s="25"/>
+      <c r="BL33" s="25"/>
+      <c r="BM33" s="25"/>
+      <c r="BN33" s="25"/>
+      <c r="BO33" s="25"/>
+      <c r="BP33" s="25"/>
+      <c r="BQ33" s="25"/>
     </row>
     <row r="34" spans="2:69" x14ac:dyDescent="0.35">
-      <c r="B34" s="21" t="s">
-        <v>88</v>
+      <c r="B34" s="34" t="s">
+        <v>68</v>
       </c>
       <c r="C34" s="32" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D34" s="22">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="E34" s="22">
+        <v>14</v>
+      </c>
+      <c r="F34" s="22">
         <v>7</v>
       </c>
-      <c r="F34" s="22">
-        <v>54</v>
-      </c>
       <c r="G34" s="22">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H34" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" s="24"/>
       <c r="J34" s="24"/>
@@ -10937,23 +11276,23 @@
       <c r="BQ34" s="25"/>
     </row>
     <row r="35" spans="2:69" x14ac:dyDescent="0.35">
-      <c r="B35" s="21" t="s">
-        <v>89</v>
+      <c r="B35" s="34" t="s">
+        <v>69</v>
       </c>
       <c r="C35" s="32" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D35" s="22">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E35" s="22">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F35" s="22">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G35" s="22">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="H35" s="23">
         <v>1</v>
@@ -11022,16 +11361,16 @@
     </row>
     <row r="36" spans="2:69" x14ac:dyDescent="0.35">
       <c r="B36" s="34" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C36" s="32" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D36" s="22">
         <v>1</v>
       </c>
       <c r="E36" s="22">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F36" s="22">
         <v>1</v>
@@ -11106,22 +11445,22 @@
     </row>
     <row r="37" spans="2:69" x14ac:dyDescent="0.35">
       <c r="B37" s="34" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C37" s="32" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D37" s="22">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E37" s="22">
         <v>14</v>
       </c>
       <c r="F37" s="22">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G37" s="22">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="H37" s="23">
         <v>1</v>
@@ -11190,22 +11529,22 @@
     </row>
     <row r="38" spans="2:69" x14ac:dyDescent="0.35">
       <c r="B38" s="34" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="C38" s="32" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D38" s="22">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="E38" s="22">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F38" s="22">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="G38" s="22">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H38" s="23">
         <v>1</v>
@@ -11272,260 +11611,18 @@
       <c r="BP38" s="25"/>
       <c r="BQ38" s="25"/>
     </row>
-    <row r="39" spans="2:69" x14ac:dyDescent="0.35">
-      <c r="B39" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="C39" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="D39" s="22">
-        <v>1</v>
-      </c>
-      <c r="E39" s="22">
-        <v>14</v>
-      </c>
-      <c r="F39" s="22">
-        <v>1</v>
-      </c>
-      <c r="G39" s="22">
-        <v>7</v>
-      </c>
-      <c r="H39" s="23">
-        <v>1</v>
-      </c>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
-      <c r="M39" s="24"/>
-      <c r="N39" s="24"/>
-      <c r="O39" s="24"/>
-      <c r="P39" s="24"/>
-      <c r="Q39" s="24"/>
-      <c r="R39" s="24"/>
-      <c r="S39" s="24"/>
-      <c r="T39" s="24"/>
-      <c r="U39" s="24"/>
-      <c r="V39" s="24"/>
-      <c r="W39" s="24"/>
-      <c r="X39" s="24"/>
-      <c r="Y39" s="24"/>
-      <c r="Z39" s="24"/>
-      <c r="AA39" s="24"/>
-      <c r="AB39" s="24"/>
-      <c r="AC39" s="24"/>
-      <c r="AD39" s="25"/>
-      <c r="AE39" s="25"/>
-      <c r="AF39" s="25"/>
-      <c r="AG39" s="25"/>
-      <c r="AH39" s="25"/>
-      <c r="AI39" s="25"/>
-      <c r="AJ39" s="25"/>
-      <c r="AK39" s="25"/>
-      <c r="AL39" s="25"/>
-      <c r="AM39" s="25"/>
-      <c r="AN39" s="25"/>
-      <c r="AO39" s="25"/>
-      <c r="AP39" s="25"/>
-      <c r="AQ39" s="25"/>
-      <c r="AR39" s="25"/>
-      <c r="AS39" s="25"/>
-      <c r="AT39" s="25"/>
-      <c r="AU39" s="25"/>
-      <c r="AV39" s="25"/>
-      <c r="AW39" s="25"/>
-      <c r="AX39" s="25"/>
-      <c r="AY39" s="25"/>
-      <c r="AZ39" s="25"/>
-      <c r="BA39" s="25"/>
-      <c r="BB39" s="25"/>
-      <c r="BC39" s="25"/>
-      <c r="BD39" s="25"/>
-      <c r="BE39" s="25"/>
-      <c r="BF39" s="25"/>
-      <c r="BG39" s="25"/>
-      <c r="BH39" s="25"/>
-      <c r="BI39" s="25"/>
-      <c r="BJ39" s="25"/>
-      <c r="BK39" s="25"/>
-      <c r="BL39" s="25"/>
-      <c r="BM39" s="25"/>
-      <c r="BN39" s="25"/>
-      <c r="BO39" s="25"/>
-      <c r="BP39" s="25"/>
-      <c r="BQ39" s="25"/>
-    </row>
     <row r="40" spans="2:69" x14ac:dyDescent="0.35">
-      <c r="B40" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="C40" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="D40" s="22">
-        <v>14</v>
-      </c>
-      <c r="E40" s="22">
-        <v>14</v>
-      </c>
-      <c r="F40" s="22">
-        <v>12</v>
-      </c>
-      <c r="G40" s="22">
-        <v>4</v>
-      </c>
-      <c r="H40" s="23">
-        <v>1</v>
-      </c>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="24"/>
-      <c r="M40" s="24"/>
-      <c r="N40" s="24"/>
-      <c r="O40" s="24"/>
-      <c r="P40" s="24"/>
-      <c r="Q40" s="24"/>
-      <c r="R40" s="24"/>
-      <c r="S40" s="24"/>
-      <c r="T40" s="24"/>
-      <c r="U40" s="24"/>
-      <c r="V40" s="24"/>
-      <c r="W40" s="24"/>
-      <c r="X40" s="24"/>
-      <c r="Y40" s="24"/>
-      <c r="Z40" s="24"/>
-      <c r="AA40" s="24"/>
-      <c r="AB40" s="24"/>
-      <c r="AC40" s="24"/>
-      <c r="AD40" s="25"/>
-      <c r="AE40" s="25"/>
-      <c r="AF40" s="25"/>
-      <c r="AG40" s="25"/>
-      <c r="AH40" s="25"/>
-      <c r="AI40" s="25"/>
-      <c r="AJ40" s="25"/>
-      <c r="AK40" s="25"/>
-      <c r="AL40" s="25"/>
-      <c r="AM40" s="25"/>
-      <c r="AN40" s="25"/>
-      <c r="AO40" s="25"/>
-      <c r="AP40" s="25"/>
-      <c r="AQ40" s="25"/>
-      <c r="AR40" s="25"/>
-      <c r="AS40" s="25"/>
-      <c r="AT40" s="25"/>
-      <c r="AU40" s="25"/>
-      <c r="AV40" s="25"/>
-      <c r="AW40" s="25"/>
-      <c r="AX40" s="25"/>
-      <c r="AY40" s="25"/>
-      <c r="AZ40" s="25"/>
-      <c r="BA40" s="25"/>
-      <c r="BB40" s="25"/>
-      <c r="BC40" s="25"/>
-      <c r="BD40" s="25"/>
-      <c r="BE40" s="25"/>
-      <c r="BF40" s="25"/>
-      <c r="BG40" s="25"/>
-      <c r="BH40" s="25"/>
-      <c r="BI40" s="25"/>
-      <c r="BJ40" s="25"/>
-      <c r="BK40" s="25"/>
-      <c r="BL40" s="25"/>
-      <c r="BM40" s="25"/>
-      <c r="BN40" s="25"/>
-      <c r="BO40" s="25"/>
-      <c r="BP40" s="25"/>
-      <c r="BQ40" s="25"/>
+      <c r="B40" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="41" spans="2:69" x14ac:dyDescent="0.35">
-      <c r="B41" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="C41" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="D41" s="22">
-        <v>42</v>
-      </c>
-      <c r="E41" s="22">
-        <v>14</v>
-      </c>
-      <c r="F41" s="22">
-        <v>42</v>
-      </c>
-      <c r="G41" s="22">
-        <v>14</v>
-      </c>
-      <c r="H41" s="23">
-        <v>0</v>
-      </c>
-      <c r="I41" s="24"/>
-      <c r="J41" s="24"/>
-      <c r="K41" s="24"/>
-      <c r="L41" s="24"/>
-      <c r="M41" s="24"/>
-      <c r="N41" s="24"/>
-      <c r="O41" s="24"/>
-      <c r="P41" s="24"/>
-      <c r="Q41" s="24"/>
-      <c r="R41" s="24"/>
-      <c r="S41" s="24"/>
-      <c r="T41" s="24"/>
-      <c r="U41" s="24"/>
-      <c r="V41" s="24"/>
-      <c r="W41" s="24"/>
-      <c r="X41" s="24"/>
-      <c r="Y41" s="24"/>
-      <c r="Z41" s="24"/>
-      <c r="AA41" s="24"/>
-      <c r="AB41" s="24"/>
-      <c r="AC41" s="24"/>
-      <c r="AD41" s="25"/>
-      <c r="AE41" s="25"/>
-      <c r="AF41" s="25"/>
-      <c r="AG41" s="25"/>
-      <c r="AH41" s="25"/>
-      <c r="AI41" s="25"/>
-      <c r="AJ41" s="25"/>
-      <c r="AK41" s="25"/>
-      <c r="AL41" s="25"/>
-      <c r="AM41" s="25"/>
-      <c r="AN41" s="25"/>
-      <c r="AO41" s="25"/>
-      <c r="AP41" s="25"/>
-      <c r="AQ41" s="25"/>
-      <c r="AR41" s="25"/>
-      <c r="AS41" s="25"/>
-      <c r="AT41" s="25"/>
-      <c r="AU41" s="25"/>
-      <c r="AV41" s="25"/>
-      <c r="AW41" s="25"/>
-      <c r="AX41" s="25"/>
-      <c r="AY41" s="25"/>
-      <c r="AZ41" s="25"/>
-      <c r="BA41" s="25"/>
-      <c r="BB41" s="25"/>
-      <c r="BC41" s="25"/>
-      <c r="BD41" s="25"/>
-      <c r="BE41" s="25"/>
-      <c r="BF41" s="25"/>
-      <c r="BG41" s="25"/>
-      <c r="BH41" s="25"/>
-      <c r="BI41" s="25"/>
-      <c r="BJ41" s="25"/>
-      <c r="BK41" s="25"/>
-      <c r="BL41" s="25"/>
-      <c r="BM41" s="25"/>
-      <c r="BN41" s="25"/>
-      <c r="BO41" s="25"/>
-      <c r="BP41" s="25"/>
-      <c r="BQ41" s="25"/>
+      <c r="B41" s="28" t="s">
+        <v>93</v>
+      </c>
     </row>
-    <row r="44" spans="2:69" x14ac:dyDescent="0.35">
-      <c r="B44" s="28" t="s">
+    <row r="42" spans="2:69" x14ac:dyDescent="0.35">
+      <c r="B42" s="28" t="s">
         <v>73</v>
       </c>
     </row>
@@ -11541,1230 +11638,1152 @@
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="B6:B7"/>
   </mergeCells>
-  <conditionalFormatting sqref="J10:BQ12 J14:BQ17">
-    <cfRule type="expression" dxfId="401" priority="417">
+  <conditionalFormatting sqref="J10:BQ11 J13:BQ16">
+    <cfRule type="expression" dxfId="409" priority="417">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="400" priority="418">
+    <cfRule type="expression" dxfId="408" priority="418">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="399" priority="419">
+    <cfRule type="expression" dxfId="407" priority="419">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="398" priority="420">
+    <cfRule type="expression" dxfId="406" priority="420">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="397" priority="421">
+    <cfRule type="expression" dxfId="405" priority="421">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="396" priority="422">
+    <cfRule type="expression" dxfId="404" priority="422">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="395" priority="424">
+    <cfRule type="expression" dxfId="403" priority="424">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="394" priority="425">
+    <cfRule type="expression" dxfId="402" priority="425">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:BQ9">
-    <cfRule type="expression" dxfId="393" priority="423">
+    <cfRule type="expression" dxfId="401" priority="423">
       <formula>J$8=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9:BQ9">
-    <cfRule type="expression" dxfId="392" priority="385">
+    <cfRule type="expression" dxfId="400" priority="385">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="391" priority="386">
+    <cfRule type="expression" dxfId="399" priority="386">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="390" priority="387">
+    <cfRule type="expression" dxfId="398" priority="387">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="389" priority="388">
+    <cfRule type="expression" dxfId="397" priority="388">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="388" priority="389">
+    <cfRule type="expression" dxfId="396" priority="389">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="387" priority="390">
+    <cfRule type="expression" dxfId="395" priority="390">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="386" priority="391">
+    <cfRule type="expression" dxfId="394" priority="391">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="385" priority="392">
+    <cfRule type="expression" dxfId="393" priority="392">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J13:BQ13">
-    <cfRule type="expression" dxfId="384" priority="377">
+  <conditionalFormatting sqref="J12:BQ12">
+    <cfRule type="expression" dxfId="392" priority="377">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="383" priority="378">
+    <cfRule type="expression" dxfId="391" priority="378">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="382" priority="379">
+    <cfRule type="expression" dxfId="390" priority="379">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="381" priority="380">
+    <cfRule type="expression" dxfId="389" priority="380">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="380" priority="381">
+    <cfRule type="expression" dxfId="388" priority="381">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="379" priority="382">
+    <cfRule type="expression" dxfId="387" priority="382">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="378" priority="383">
+    <cfRule type="expression" dxfId="386" priority="383">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="377" priority="384">
+    <cfRule type="expression" dxfId="385" priority="384">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J27:BQ30">
-    <cfRule type="expression" dxfId="376" priority="369">
+  <conditionalFormatting sqref="J24:BQ27">
+    <cfRule type="expression" dxfId="384" priority="369">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="375" priority="370">
+    <cfRule type="expression" dxfId="383" priority="370">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="374" priority="371">
+    <cfRule type="expression" dxfId="382" priority="371">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="373" priority="372">
+    <cfRule type="expression" dxfId="381" priority="372">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="372" priority="373">
+    <cfRule type="expression" dxfId="380" priority="373">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="371" priority="374">
+    <cfRule type="expression" dxfId="379" priority="374">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="370" priority="375">
+    <cfRule type="expression" dxfId="378" priority="375">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="369" priority="376">
+    <cfRule type="expression" dxfId="377" priority="376">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16:BQ16">
+    <cfRule type="expression" dxfId="376" priority="361">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="375" priority="362">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="374" priority="363">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="373" priority="364">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="372" priority="365">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="371" priority="366">
+      <formula>J$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="370" priority="367">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="369" priority="368">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18:BQ18">
+    <cfRule type="expression" dxfId="368" priority="353">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="367" priority="354">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="366" priority="355">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="365" priority="356">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="364" priority="357">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="363" priority="358">
+      <formula>J$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="362" priority="359">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="361" priority="360">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17:BQ17">
-    <cfRule type="expression" dxfId="368" priority="361">
+    <cfRule type="expression" dxfId="360" priority="345">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="367" priority="362">
+    <cfRule type="expression" dxfId="359" priority="346">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="366" priority="363">
+    <cfRule type="expression" dxfId="358" priority="347">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="365" priority="364">
+    <cfRule type="expression" dxfId="357" priority="348">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="364" priority="365">
+    <cfRule type="expression" dxfId="356" priority="349">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="363" priority="366">
+    <cfRule type="expression" dxfId="355" priority="350">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="362" priority="367">
+    <cfRule type="expression" dxfId="354" priority="351">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="361" priority="368">
+    <cfRule type="expression" dxfId="353" priority="352">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27:BQ27">
+    <cfRule type="expression" dxfId="352" priority="321">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="351" priority="322">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="350" priority="323">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="349" priority="324">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="348" priority="325">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="347" priority="326">
+      <formula>J$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="346" priority="327">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="345" priority="328">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J28:BQ28">
+    <cfRule type="expression" dxfId="344" priority="313">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="343" priority="314">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="342" priority="315">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="341" priority="316">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="340" priority="317">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="339" priority="318">
+      <formula>J$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="338" priority="319">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="337" priority="320">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J29:BQ29">
+    <cfRule type="expression" dxfId="336" priority="305">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="335" priority="306">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="334" priority="307">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="333" priority="308">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="332" priority="309">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="331" priority="310">
+      <formula>J$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="330" priority="311">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="329" priority="312">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30:BQ30">
+    <cfRule type="expression" dxfId="328" priority="297">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="327" priority="298">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="326" priority="299">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="325" priority="300">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="324" priority="301">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="323" priority="302">
+      <formula>J$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="322" priority="303">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="321" priority="304">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J31:BQ31">
+    <cfRule type="expression" dxfId="320" priority="289">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="319" priority="290">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="318" priority="291">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="317" priority="292">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="316" priority="293">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="315" priority="294">
+      <formula>J$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="314" priority="295">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="313" priority="296">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J32:BQ32">
+    <cfRule type="expression" dxfId="312" priority="281">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="311" priority="282">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="310" priority="283">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="309" priority="284">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="308" priority="285">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="307" priority="286">
+      <formula>J$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="306" priority="287">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="305" priority="288">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J21:BQ23">
+    <cfRule type="expression" dxfId="304" priority="257">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="303" priority="258">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="302" priority="259">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="301" priority="260">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="300" priority="261">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="299" priority="262">
+      <formula>J$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="298" priority="263">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="297" priority="264">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20:BQ20">
+    <cfRule type="expression" dxfId="296" priority="249">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="295" priority="250">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="294" priority="251">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="293" priority="252">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="292" priority="253">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="291" priority="254">
+      <formula>J$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="290" priority="255">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="289" priority="256">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19:BQ19">
-    <cfRule type="expression" dxfId="360" priority="353">
+    <cfRule type="expression" dxfId="288" priority="233">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="359" priority="354">
+    <cfRule type="expression" dxfId="287" priority="234">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="358" priority="355">
+    <cfRule type="expression" dxfId="286" priority="235">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="357" priority="356">
+    <cfRule type="expression" dxfId="285" priority="236">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="356" priority="357">
+    <cfRule type="expression" dxfId="284" priority="237">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="355" priority="358">
+    <cfRule type="expression" dxfId="283" priority="238">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="354" priority="359">
+    <cfRule type="expression" dxfId="282" priority="239">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="353" priority="360">
+    <cfRule type="expression" dxfId="281" priority="240">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J28:BQ31">
+    <cfRule type="expression" dxfId="280" priority="225">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="279" priority="226">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="278" priority="227">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="277" priority="228">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="276" priority="229">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="275" priority="230">
+      <formula>J$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="274" priority="231">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="273" priority="232">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27:BQ27">
+    <cfRule type="expression" dxfId="272" priority="217">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="271" priority="218">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="270" priority="219">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="269" priority="220">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="268" priority="221">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="267" priority="222">
+      <formula>J$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="266" priority="223">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="265" priority="224">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J31:BQ31">
+    <cfRule type="expression" dxfId="264" priority="209">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="263" priority="210">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="262" priority="211">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="261" priority="212">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="260" priority="213">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="259" priority="214">
+      <formula>J$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="258" priority="215">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="257" priority="216">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J32:BQ32">
+    <cfRule type="expression" dxfId="256" priority="201">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="255" priority="202">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="254" priority="203">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="253" priority="204">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="252" priority="205">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="251" priority="206">
+      <formula>J$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="250" priority="207">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="249" priority="208">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J33:BQ33">
+    <cfRule type="expression" dxfId="248" priority="193">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="247" priority="194">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="246" priority="195">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="245" priority="196">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="244" priority="197">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="243" priority="198">
+      <formula>J$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="242" priority="199">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="241" priority="200">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J34:BQ34">
+    <cfRule type="expression" dxfId="240" priority="185">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="239" priority="186">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="238" priority="187">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="237" priority="188">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="236" priority="189">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="235" priority="190">
+      <formula>J$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="234" priority="191">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="233" priority="192">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J35:BQ35">
+    <cfRule type="expression" dxfId="232" priority="177">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="231" priority="178">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="230" priority="179">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="229" priority="180">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="228" priority="181">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="227" priority="182">
+      <formula>J$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="226" priority="183">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="225" priority="184">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J36:BQ36">
+    <cfRule type="expression" dxfId="224" priority="169">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="223" priority="170">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="222" priority="171">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="221" priority="172">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="220" priority="173">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="219" priority="174">
+      <formula>J$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="218" priority="175">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="217" priority="176">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17:BQ17">
+    <cfRule type="expression" dxfId="216" priority="161">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="215" priority="162">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="214" priority="163">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="213" priority="164">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="212" priority="165">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="211" priority="166">
+      <formula>J$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="210" priority="167">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="209" priority="168">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19:BQ19">
+    <cfRule type="expression" dxfId="208" priority="153">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="207" priority="154">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="206" priority="155">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="205" priority="156">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="204" priority="157">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="203" priority="158">
+      <formula>J$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="202" priority="159">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="201" priority="160">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18:BQ18">
-    <cfRule type="expression" dxfId="352" priority="345">
+    <cfRule type="expression" dxfId="200" priority="145">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="351" priority="346">
+    <cfRule type="expression" dxfId="199" priority="146">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="350" priority="347">
+    <cfRule type="expression" dxfId="198" priority="147">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="349" priority="348">
+    <cfRule type="expression" dxfId="197" priority="148">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="348" priority="349">
+    <cfRule type="expression" dxfId="196" priority="149">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="347" priority="350">
+    <cfRule type="expression" dxfId="195" priority="150">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="346" priority="351">
+    <cfRule type="expression" dxfId="194" priority="151">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="345" priority="352">
+    <cfRule type="expression" dxfId="193" priority="152">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J25:BQ25">
-    <cfRule type="expression" dxfId="344" priority="337">
+  <conditionalFormatting sqref="J24:BQ24">
+    <cfRule type="expression" dxfId="192" priority="129">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="343" priority="338">
+    <cfRule type="expression" dxfId="191" priority="130">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="342" priority="339">
+    <cfRule type="expression" dxfId="190" priority="131">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="341" priority="340">
+    <cfRule type="expression" dxfId="189" priority="132">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="340" priority="341">
+    <cfRule type="expression" dxfId="188" priority="133">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="339" priority="342">
+    <cfRule type="expression" dxfId="187" priority="134">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="338" priority="343">
+    <cfRule type="expression" dxfId="186" priority="135">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="337" priority="344">
+    <cfRule type="expression" dxfId="185" priority="136">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J26:BQ26">
-    <cfRule type="expression" dxfId="336" priority="329">
+  <conditionalFormatting sqref="J28:BQ28">
+    <cfRule type="expression" dxfId="184" priority="121">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="335" priority="330">
+    <cfRule type="expression" dxfId="183" priority="122">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="334" priority="331">
+    <cfRule type="expression" dxfId="182" priority="123">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="333" priority="332">
+    <cfRule type="expression" dxfId="181" priority="124">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="332" priority="333">
+    <cfRule type="expression" dxfId="180" priority="125">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="331" priority="334">
+    <cfRule type="expression" dxfId="179" priority="126">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="330" priority="335">
+    <cfRule type="expression" dxfId="178" priority="127">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="329" priority="336">
+    <cfRule type="expression" dxfId="177" priority="128">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J29:BQ29">
+    <cfRule type="expression" dxfId="176" priority="113">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="175" priority="114">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="174" priority="115">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="173" priority="116">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="172" priority="117">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="171" priority="118">
+      <formula>J$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="170" priority="119">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="169" priority="120">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30:BQ30">
-    <cfRule type="expression" dxfId="328" priority="321">
+    <cfRule type="expression" dxfId="168" priority="105">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="327" priority="322">
+    <cfRule type="expression" dxfId="167" priority="106">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="326" priority="323">
+    <cfRule type="expression" dxfId="166" priority="107">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="325" priority="324">
+    <cfRule type="expression" dxfId="165" priority="108">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="324" priority="325">
+    <cfRule type="expression" dxfId="164" priority="109">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="323" priority="326">
+    <cfRule type="expression" dxfId="163" priority="110">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="322" priority="327">
+    <cfRule type="expression" dxfId="162" priority="111">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="321" priority="328">
+    <cfRule type="expression" dxfId="161" priority="112">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J31:BQ31">
-    <cfRule type="expression" dxfId="320" priority="313">
+    <cfRule type="expression" dxfId="160" priority="97">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="319" priority="314">
+    <cfRule type="expression" dxfId="159" priority="98">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="318" priority="315">
+    <cfRule type="expression" dxfId="158" priority="99">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="317" priority="316">
+    <cfRule type="expression" dxfId="157" priority="100">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="316" priority="317">
+    <cfRule type="expression" dxfId="156" priority="101">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="315" priority="318">
+    <cfRule type="expression" dxfId="155" priority="102">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="314" priority="319">
+    <cfRule type="expression" dxfId="154" priority="103">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="313" priority="320">
+    <cfRule type="expression" dxfId="153" priority="104">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32:BQ32">
-    <cfRule type="expression" dxfId="312" priority="305">
+    <cfRule type="expression" dxfId="152" priority="89">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="311" priority="306">
+    <cfRule type="expression" dxfId="151" priority="90">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="310" priority="307">
+    <cfRule type="expression" dxfId="150" priority="91">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="309" priority="308">
+    <cfRule type="expression" dxfId="149" priority="92">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="308" priority="309">
+    <cfRule type="expression" dxfId="148" priority="93">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="307" priority="310">
+    <cfRule type="expression" dxfId="147" priority="94">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="306" priority="311">
+    <cfRule type="expression" dxfId="146" priority="95">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="305" priority="312">
+    <cfRule type="expression" dxfId="145" priority="96">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:BQ33">
-    <cfRule type="expression" dxfId="304" priority="297">
+    <cfRule type="expression" dxfId="144" priority="81">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="303" priority="298">
+    <cfRule type="expression" dxfId="143" priority="82">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="302" priority="299">
+    <cfRule type="expression" dxfId="142" priority="83">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="301" priority="300">
+    <cfRule type="expression" dxfId="141" priority="84">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="300" priority="301">
+    <cfRule type="expression" dxfId="140" priority="85">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="299" priority="302">
+    <cfRule type="expression" dxfId="139" priority="86">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="298" priority="303">
+    <cfRule type="expression" dxfId="138" priority="87">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="297" priority="304">
+    <cfRule type="expression" dxfId="137" priority="88">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J21:BQ21">
+    <cfRule type="expression" dxfId="136" priority="73">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="135" priority="74">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="134" priority="75">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="133" priority="76">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="132" priority="77">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="131" priority="78">
+      <formula>J$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="130" priority="79">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="129" priority="80">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20:BQ20">
+    <cfRule type="expression" dxfId="128" priority="65">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="127" priority="66">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="126" priority="67">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="125" priority="68">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="124" priority="69">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="123" priority="70">
+      <formula>J$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="122" priority="71">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="121" priority="72">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J28:BQ28">
+    <cfRule type="expression" dxfId="120" priority="57">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="119" priority="58">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="118" priority="59">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="117" priority="60">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="116" priority="61">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="115" priority="62">
+      <formula>J$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="114" priority="63">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="113" priority="64">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J32:BQ32">
+    <cfRule type="expression" dxfId="112" priority="49">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="111" priority="50">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="110" priority="51">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="109" priority="52">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="108" priority="53">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="107" priority="54">
+      <formula>J$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="106" priority="55">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="105" priority="56">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J33:BQ33">
+    <cfRule type="expression" dxfId="104" priority="41">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="103" priority="42">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="102" priority="43">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="101" priority="44">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="100" priority="45">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="99" priority="46">
+      <formula>J$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="98" priority="47">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="97" priority="48">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34:BQ34">
-    <cfRule type="expression" dxfId="296" priority="289">
+    <cfRule type="expression" dxfId="96" priority="33">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="295" priority="290">
+    <cfRule type="expression" dxfId="95" priority="34">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="294" priority="291">
+    <cfRule type="expression" dxfId="94" priority="35">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="293" priority="292">
+    <cfRule type="expression" dxfId="93" priority="36">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="292" priority="293">
+    <cfRule type="expression" dxfId="92" priority="37">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="291" priority="294">
+    <cfRule type="expression" dxfId="91" priority="38">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="290" priority="295">
+    <cfRule type="expression" dxfId="90" priority="39">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="289" priority="296">
+    <cfRule type="expression" dxfId="89" priority="40">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J35:BQ35">
-    <cfRule type="expression" dxfId="288" priority="281">
+    <cfRule type="expression" dxfId="88" priority="25">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="287" priority="282">
+    <cfRule type="expression" dxfId="87" priority="26">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="286" priority="283">
+    <cfRule type="expression" dxfId="86" priority="27">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="285" priority="284">
+    <cfRule type="expression" dxfId="85" priority="28">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="284" priority="285">
+    <cfRule type="expression" dxfId="84" priority="29">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="283" priority="286">
+    <cfRule type="expression" dxfId="83" priority="30">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="282" priority="287">
+    <cfRule type="expression" dxfId="82" priority="31">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="281" priority="288">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J22:BQ25">
-    <cfRule type="expression" dxfId="280" priority="257">
-      <formula>PercentComplete</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="279" priority="258">
-      <formula>PercentCompleteBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="278" priority="259">
-      <formula>Actual</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="277" priority="260">
-      <formula>ActualBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="276" priority="261">
-      <formula>Plan</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="275" priority="262">
-      <formula>J$8=period_selected</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="274" priority="263">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="273" priority="264">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J21:BQ21">
-    <cfRule type="expression" dxfId="272" priority="249">
-      <formula>PercentComplete</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="271" priority="250">
-      <formula>PercentCompleteBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="270" priority="251">
-      <formula>Actual</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="269" priority="252">
-      <formula>ActualBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="268" priority="253">
-      <formula>Plan</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="267" priority="254">
-      <formula>J$8=period_selected</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="266" priority="255">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="265" priority="256">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J20:BQ20">
-    <cfRule type="expression" dxfId="264" priority="233">
-      <formula>PercentComplete</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="263" priority="234">
-      <formula>PercentCompleteBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="262" priority="235">
-      <formula>Actual</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="261" priority="236">
-      <formula>ActualBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="260" priority="237">
-      <formula>Plan</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="259" priority="238">
-      <formula>J$8=period_selected</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="258" priority="239">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="257" priority="240">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J31:BQ34">
-    <cfRule type="expression" dxfId="256" priority="225">
-      <formula>PercentComplete</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="255" priority="226">
-      <formula>PercentCompleteBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="254" priority="227">
-      <formula>Actual</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="253" priority="228">
-      <formula>ActualBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="252" priority="229">
-      <formula>Plan</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="251" priority="230">
-      <formula>J$8=period_selected</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="250" priority="231">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="249" priority="232">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J30:BQ30">
-    <cfRule type="expression" dxfId="248" priority="217">
-      <formula>PercentComplete</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="247" priority="218">
-      <formula>PercentCompleteBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="246" priority="219">
-      <formula>Actual</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="245" priority="220">
-      <formula>ActualBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="244" priority="221">
-      <formula>Plan</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="243" priority="222">
-      <formula>J$8=period_selected</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="242" priority="223">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="241" priority="224">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J34:BQ34">
-    <cfRule type="expression" dxfId="240" priority="209">
-      <formula>PercentComplete</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="239" priority="210">
-      <formula>PercentCompleteBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="238" priority="211">
-      <formula>Actual</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="237" priority="212">
-      <formula>ActualBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="236" priority="213">
-      <formula>Plan</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="235" priority="214">
-      <formula>J$8=period_selected</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="234" priority="215">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="233" priority="216">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J35:BQ35">
-    <cfRule type="expression" dxfId="232" priority="201">
-      <formula>PercentComplete</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="231" priority="202">
-      <formula>PercentCompleteBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="230" priority="203">
-      <formula>Actual</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="229" priority="204">
-      <formula>ActualBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="228" priority="205">
-      <formula>Plan</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="227" priority="206">
-      <formula>J$8=period_selected</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="226" priority="207">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="225" priority="208">
+    <cfRule type="expression" dxfId="81" priority="32">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J36:BQ36">
-    <cfRule type="expression" dxfId="224" priority="193">
+    <cfRule type="expression" dxfId="80" priority="17">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="223" priority="194">
+    <cfRule type="expression" dxfId="79" priority="18">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="222" priority="195">
+    <cfRule type="expression" dxfId="78" priority="19">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="221" priority="196">
+    <cfRule type="expression" dxfId="77" priority="20">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="220" priority="197">
+    <cfRule type="expression" dxfId="76" priority="21">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="219" priority="198">
+    <cfRule type="expression" dxfId="75" priority="22">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="218" priority="199">
+    <cfRule type="expression" dxfId="74" priority="23">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="217" priority="200">
+    <cfRule type="expression" dxfId="73" priority="24">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37:BQ37">
-    <cfRule type="expression" dxfId="216" priority="185">
+    <cfRule type="expression" dxfId="72" priority="9">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="215" priority="186">
+    <cfRule type="expression" dxfId="71" priority="10">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="214" priority="187">
+    <cfRule type="expression" dxfId="70" priority="11">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="213" priority="188">
+    <cfRule type="expression" dxfId="69" priority="12">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="212" priority="189">
+    <cfRule type="expression" dxfId="68" priority="13">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="211" priority="190">
+    <cfRule type="expression" dxfId="67" priority="14">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="210" priority="191">
+    <cfRule type="expression" dxfId="66" priority="15">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="209" priority="192">
+    <cfRule type="expression" dxfId="65" priority="16">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J38:BQ38">
-    <cfRule type="expression" dxfId="208" priority="177">
+    <cfRule type="expression" dxfId="64" priority="1">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="207" priority="178">
+    <cfRule type="expression" dxfId="63" priority="2">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="206" priority="179">
+    <cfRule type="expression" dxfId="62" priority="3">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="205" priority="180">
+    <cfRule type="expression" dxfId="61" priority="4">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="204" priority="181">
+    <cfRule type="expression" dxfId="60" priority="5">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="203" priority="182">
+    <cfRule type="expression" dxfId="59" priority="6">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="202" priority="183">
+    <cfRule type="expression" dxfId="58" priority="7">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="201" priority="184">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J39:BQ39">
-    <cfRule type="expression" dxfId="200" priority="169">
-      <formula>PercentComplete</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="199" priority="170">
-      <formula>PercentCompleteBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="198" priority="171">
-      <formula>Actual</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="197" priority="172">
-      <formula>ActualBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="196" priority="173">
-      <formula>Plan</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="195" priority="174">
-      <formula>J$8=period_selected</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="194" priority="175">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="193" priority="176">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18:BQ18">
-    <cfRule type="expression" dxfId="192" priority="161">
-      <formula>PercentComplete</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="191" priority="162">
-      <formula>PercentCompleteBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="190" priority="163">
-      <formula>Actual</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="189" priority="164">
-      <formula>ActualBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="188" priority="165">
-      <formula>Plan</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="187" priority="166">
-      <formula>J$8=period_selected</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="186" priority="167">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="185" priority="168">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J20:BQ20">
-    <cfRule type="expression" dxfId="184" priority="153">
-      <formula>PercentComplete</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="183" priority="154">
-      <formula>PercentCompleteBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="182" priority="155">
-      <formula>Actual</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="181" priority="156">
-      <formula>ActualBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="180" priority="157">
-      <formula>Plan</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="179" priority="158">
-      <formula>J$8=period_selected</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="178" priority="159">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="177" priority="160">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J19:BQ19">
-    <cfRule type="expression" dxfId="176" priority="145">
-      <formula>PercentComplete</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="175" priority="146">
-      <formula>PercentCompleteBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="174" priority="147">
-      <formula>Actual</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="173" priority="148">
-      <formula>ActualBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="172" priority="149">
-      <formula>Plan</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="171" priority="150">
-      <formula>J$8=period_selected</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="170" priority="151">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="169" priority="152">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J26:BQ26">
-    <cfRule type="expression" dxfId="168" priority="137">
-      <formula>PercentComplete</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="167" priority="138">
-      <formula>PercentCompleteBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="166" priority="139">
-      <formula>Actual</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="165" priority="140">
-      <formula>ActualBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="164" priority="141">
-      <formula>Plan</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="163" priority="142">
-      <formula>J$8=period_selected</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="162" priority="143">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="161" priority="144">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J27:BQ27">
-    <cfRule type="expression" dxfId="160" priority="129">
-      <formula>PercentComplete</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="159" priority="130">
-      <formula>PercentCompleteBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="158" priority="131">
-      <formula>Actual</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="157" priority="132">
-      <formula>ActualBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="156" priority="133">
-      <formula>Plan</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="155" priority="134">
-      <formula>J$8=period_selected</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="154" priority="135">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="153" priority="136">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J31:BQ31">
-    <cfRule type="expression" dxfId="152" priority="121">
-      <formula>PercentComplete</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="151" priority="122">
-      <formula>PercentCompleteBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="150" priority="123">
-      <formula>Actual</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="149" priority="124">
-      <formula>ActualBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="148" priority="125">
-      <formula>Plan</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="147" priority="126">
-      <formula>J$8=period_selected</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="146" priority="127">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="145" priority="128">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J32:BQ32">
-    <cfRule type="expression" dxfId="144" priority="113">
-      <formula>PercentComplete</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="143" priority="114">
-      <formula>PercentCompleteBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="142" priority="115">
-      <formula>Actual</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="141" priority="116">
-      <formula>ActualBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="140" priority="117">
-      <formula>Plan</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="139" priority="118">
-      <formula>J$8=period_selected</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="138" priority="119">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="137" priority="120">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J33:BQ33">
-    <cfRule type="expression" dxfId="136" priority="105">
-      <formula>PercentComplete</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="135" priority="106">
-      <formula>PercentCompleteBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="134" priority="107">
-      <formula>Actual</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="133" priority="108">
-      <formula>ActualBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="132" priority="109">
-      <formula>Plan</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="131" priority="110">
-      <formula>J$8=period_selected</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="130" priority="111">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="129" priority="112">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J34:BQ34">
-    <cfRule type="expression" dxfId="128" priority="97">
-      <formula>PercentComplete</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="127" priority="98">
-      <formula>PercentCompleteBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="126" priority="99">
-      <formula>Actual</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="125" priority="100">
-      <formula>ActualBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="124" priority="101">
-      <formula>Plan</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="123" priority="102">
-      <formula>J$8=period_selected</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="122" priority="103">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="121" priority="104">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J35:BQ35">
-    <cfRule type="expression" dxfId="120" priority="89">
-      <formula>PercentComplete</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="119" priority="90">
-      <formula>PercentCompleteBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="118" priority="91">
-      <formula>Actual</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="117" priority="92">
-      <formula>ActualBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="116" priority="93">
-      <formula>Plan</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="115" priority="94">
-      <formula>J$8=period_selected</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="114" priority="95">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="113" priority="96">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J36:BQ36">
-    <cfRule type="expression" dxfId="112" priority="81">
-      <formula>PercentComplete</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="111" priority="82">
-      <formula>PercentCompleteBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="110" priority="83">
-      <formula>Actual</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="109" priority="84">
-      <formula>ActualBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="108" priority="85">
-      <formula>Plan</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="107" priority="86">
-      <formula>J$8=period_selected</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="106" priority="87">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="105" priority="88">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J22:BQ22">
-    <cfRule type="expression" dxfId="104" priority="73">
-      <formula>PercentComplete</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="103" priority="74">
-      <formula>PercentCompleteBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="102" priority="75">
-      <formula>Actual</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="101" priority="76">
-      <formula>ActualBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="100" priority="77">
-      <formula>Plan</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="99" priority="78">
-      <formula>J$8=period_selected</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="98" priority="79">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="97" priority="80">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J21:BQ21">
-    <cfRule type="expression" dxfId="96" priority="65">
-      <formula>PercentComplete</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="95" priority="66">
-      <formula>PercentCompleteBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="94" priority="67">
-      <formula>Actual</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="93" priority="68">
-      <formula>ActualBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="92" priority="69">
-      <formula>Plan</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="91" priority="70">
-      <formula>J$8=period_selected</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="90" priority="71">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="89" priority="72">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J31:BQ31">
-    <cfRule type="expression" dxfId="88" priority="57">
-      <formula>PercentComplete</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="87" priority="58">
-      <formula>PercentCompleteBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="86" priority="59">
-      <formula>Actual</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="85" priority="60">
-      <formula>ActualBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="84" priority="61">
-      <formula>Plan</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="83" priority="62">
-      <formula>J$8=period_selected</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="82" priority="63">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="81" priority="64">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J35:BQ35">
-    <cfRule type="expression" dxfId="80" priority="49">
-      <formula>PercentComplete</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="79" priority="50">
-      <formula>PercentCompleteBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="78" priority="51">
-      <formula>Actual</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="77" priority="52">
-      <formula>ActualBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="76" priority="53">
-      <formula>Plan</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="75" priority="54">
-      <formula>J$8=period_selected</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="74" priority="55">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="73" priority="56">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J36:BQ36">
-    <cfRule type="expression" dxfId="72" priority="41">
-      <formula>PercentComplete</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="71" priority="42">
-      <formula>PercentCompleteBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="70" priority="43">
-      <formula>Actual</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="69" priority="44">
-      <formula>ActualBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="68" priority="45">
-      <formula>Plan</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="67" priority="46">
-      <formula>J$8=period_selected</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="66" priority="47">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="65" priority="48">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J37:BQ37">
-    <cfRule type="expression" dxfId="64" priority="33">
-      <formula>PercentComplete</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="63" priority="34">
-      <formula>PercentCompleteBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="62" priority="35">
-      <formula>Actual</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="61" priority="36">
-      <formula>ActualBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="60" priority="37">
-      <formula>Plan</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="59" priority="38">
-      <formula>J$8=period_selected</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="58" priority="39">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="57" priority="40">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J38:BQ38">
-    <cfRule type="expression" dxfId="56" priority="25">
-      <formula>PercentComplete</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="55" priority="26">
-      <formula>PercentCompleteBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="54" priority="27">
-      <formula>Actual</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="53" priority="28">
-      <formula>ActualBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="52" priority="29">
-      <formula>Plan</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="51" priority="30">
-      <formula>J$8=period_selected</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="50" priority="31">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="49" priority="32">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J39:BQ39">
-    <cfRule type="expression" dxfId="48" priority="17">
-      <formula>PercentComplete</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="47" priority="18">
-      <formula>PercentCompleteBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="46" priority="19">
-      <formula>Actual</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="45" priority="20">
-      <formula>ActualBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="44" priority="21">
-      <formula>Plan</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="43" priority="22">
-      <formula>J$8=period_selected</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="23">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="41" priority="24">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J40:BQ40">
-    <cfRule type="expression" dxfId="40" priority="9">
-      <formula>PercentComplete</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="39" priority="10">
-      <formula>PercentCompleteBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="38" priority="11">
-      <formula>Actual</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="37" priority="12">
-      <formula>ActualBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="13">
-      <formula>Plan</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="35" priority="14">
-      <formula>J$8=period_selected</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="15">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="16">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J41:BQ41">
-    <cfRule type="expression" dxfId="32" priority="1">
-      <formula>PercentComplete</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="31" priority="2">
-      <formula>PercentCompleteBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="3">
-      <formula>Actual</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="29" priority="4">
-      <formula>ActualBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="5">
-      <formula>Plan</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="27" priority="6">
-      <formula>J$8=period_selected</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="7">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="8">
+    <cfRule type="expression" dxfId="57" priority="8">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12807,7 +12826,7 @@
           <x14:formula1>
             <xm:f>Integrantes!$A$2:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>C9:C41</xm:sqref>
+          <xm:sqref>C9:C38</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -12822,8 +12841,8 @@
   </sheetPr>
   <dimension ref="B2:BQ20"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AK14" sqref="AK14"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.35"/>
@@ -13390,6 +13409,174 @@
       <c r="BN11" s="25"/>
       <c r="BO11" s="25"/>
     </row>
+    <row r="12" spans="2:69" x14ac:dyDescent="0.35">
+      <c r="B12" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="22">
+        <v>56</v>
+      </c>
+      <c r="E12" s="22">
+        <v>7</v>
+      </c>
+      <c r="F12" s="22">
+        <v>56</v>
+      </c>
+      <c r="G12" s="22">
+        <v>7</v>
+      </c>
+      <c r="H12" s="23">
+        <v>0</v>
+      </c>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="24"/>
+      <c r="V12" s="24"/>
+      <c r="W12" s="24"/>
+      <c r="X12" s="24"/>
+      <c r="Y12" s="24"/>
+      <c r="Z12" s="24"/>
+      <c r="AA12" s="24"/>
+      <c r="AB12" s="24"/>
+      <c r="AC12" s="24"/>
+      <c r="AD12" s="25"/>
+      <c r="AE12" s="25"/>
+      <c r="AF12" s="25"/>
+      <c r="AG12" s="25"/>
+      <c r="AH12" s="25"/>
+      <c r="AI12" s="25"/>
+      <c r="AJ12" s="25"/>
+      <c r="AK12" s="25"/>
+      <c r="AL12" s="25"/>
+      <c r="AM12" s="25"/>
+      <c r="AN12" s="25"/>
+      <c r="AO12" s="25"/>
+      <c r="AP12" s="25"/>
+      <c r="AQ12" s="25"/>
+      <c r="AR12" s="25"/>
+      <c r="AS12" s="25"/>
+      <c r="AT12" s="25"/>
+      <c r="AU12" s="25"/>
+      <c r="AV12" s="25"/>
+      <c r="AW12" s="25"/>
+      <c r="AX12" s="25"/>
+      <c r="AY12" s="25"/>
+      <c r="AZ12" s="25"/>
+      <c r="BA12" s="25"/>
+      <c r="BB12" s="25"/>
+      <c r="BC12" s="25"/>
+      <c r="BD12" s="25"/>
+      <c r="BE12" s="25"/>
+      <c r="BF12" s="25"/>
+      <c r="BG12" s="25"/>
+      <c r="BH12" s="25"/>
+      <c r="BI12" s="25"/>
+      <c r="BJ12" s="25"/>
+      <c r="BK12" s="25"/>
+      <c r="BL12" s="25"/>
+      <c r="BM12" s="25"/>
+      <c r="BN12" s="25"/>
+      <c r="BO12" s="25"/>
+      <c r="BP12" s="25"/>
+      <c r="BQ12" s="25"/>
+    </row>
+    <row r="13" spans="2:69" x14ac:dyDescent="0.35">
+      <c r="B13" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="22">
+        <v>56</v>
+      </c>
+      <c r="E13" s="22">
+        <v>7</v>
+      </c>
+      <c r="F13" s="22">
+        <v>56</v>
+      </c>
+      <c r="G13" s="22">
+        <v>7</v>
+      </c>
+      <c r="H13" s="23">
+        <v>0</v>
+      </c>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="24"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="24"/>
+      <c r="W13" s="24"/>
+      <c r="X13" s="24"/>
+      <c r="Y13" s="24"/>
+      <c r="Z13" s="24"/>
+      <c r="AA13" s="24"/>
+      <c r="AB13" s="24"/>
+      <c r="AC13" s="24"/>
+      <c r="AD13" s="25"/>
+      <c r="AE13" s="25"/>
+      <c r="AF13" s="25"/>
+      <c r="AG13" s="25"/>
+      <c r="AH13" s="25"/>
+      <c r="AI13" s="25"/>
+      <c r="AJ13" s="25"/>
+      <c r="AK13" s="25"/>
+      <c r="AL13" s="25"/>
+      <c r="AM13" s="25"/>
+      <c r="AN13" s="25"/>
+      <c r="AO13" s="25"/>
+      <c r="AP13" s="25"/>
+      <c r="AQ13" s="25"/>
+      <c r="AR13" s="25"/>
+      <c r="AS13" s="25"/>
+      <c r="AT13" s="25"/>
+      <c r="AU13" s="25"/>
+      <c r="AV13" s="25"/>
+      <c r="AW13" s="25"/>
+      <c r="AX13" s="25"/>
+      <c r="AY13" s="25"/>
+      <c r="AZ13" s="25"/>
+      <c r="BA13" s="25"/>
+      <c r="BB13" s="25"/>
+      <c r="BC13" s="25"/>
+      <c r="BD13" s="25"/>
+      <c r="BE13" s="25"/>
+      <c r="BF13" s="25"/>
+      <c r="BG13" s="25"/>
+      <c r="BH13" s="25"/>
+      <c r="BI13" s="25"/>
+      <c r="BJ13" s="25"/>
+      <c r="BK13" s="25"/>
+      <c r="BL13" s="25"/>
+      <c r="BM13" s="25"/>
+      <c r="BN13" s="25"/>
+      <c r="BO13" s="25"/>
+      <c r="BP13" s="25"/>
+      <c r="BQ13" s="25"/>
+    </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B18" s="2" t="s">
         <v>44</v>
@@ -13417,85 +13604,189 @@
     <mergeCell ref="G6:G7"/>
   </mergeCells>
   <conditionalFormatting sqref="I8:BP8">
-    <cfRule type="expression" dxfId="24" priority="31">
+    <cfRule type="expression" dxfId="56" priority="63">
       <formula>I$8=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:BP9">
-    <cfRule type="expression" dxfId="23" priority="17">
+    <cfRule type="expression" dxfId="55" priority="49">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="18">
+    <cfRule type="expression" dxfId="54" priority="50">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="19">
+    <cfRule type="expression" dxfId="53" priority="51">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="20">
+    <cfRule type="expression" dxfId="52" priority="52">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="21">
+    <cfRule type="expression" dxfId="51" priority="53">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="22">
+    <cfRule type="expression" dxfId="50" priority="54">
       <formula>I$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="23">
+    <cfRule type="expression" dxfId="49" priority="55">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="24">
+    <cfRule type="expression" dxfId="48" priority="56">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:BO10">
-    <cfRule type="expression" dxfId="15" priority="9">
+    <cfRule type="expression" dxfId="47" priority="41">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="10">
+    <cfRule type="expression" dxfId="46" priority="42">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="11">
+    <cfRule type="expression" dxfId="45" priority="43">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="12">
+    <cfRule type="expression" dxfId="44" priority="44">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="13">
+    <cfRule type="expression" dxfId="43" priority="45">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="14">
+    <cfRule type="expression" dxfId="42" priority="46">
       <formula>I$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="15">
+    <cfRule type="expression" dxfId="41" priority="47">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="16">
+    <cfRule type="expression" dxfId="40" priority="48">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:BO11">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="39" priority="33">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="38" priority="34">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="37" priority="35">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="36" priority="36">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="5">
+    <cfRule type="expression" dxfId="35" priority="37">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="6">
+    <cfRule type="expression" dxfId="34" priority="38">
       <formula>I$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="7">
+    <cfRule type="expression" dxfId="33" priority="39">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="8">
+    <cfRule type="expression" dxfId="32" priority="40">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13:BQ13">
+    <cfRule type="expression" dxfId="31" priority="1">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="2">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="29" priority="3">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="4">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="5">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="6">
+      <formula>J$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="7">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="8">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12:BQ12">
+    <cfRule type="expression" dxfId="23" priority="25">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="26">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="27">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="28">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="29">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="30">
+      <formula>J$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="31">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="32">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13:BQ13">
+    <cfRule type="expression" dxfId="15" priority="17">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="18">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="19">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="20">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="21">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="22">
+      <formula>J$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="23">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="24">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12:BQ12">
+    <cfRule type="expression" dxfId="7" priority="9">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="10">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="11">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="12">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="13">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="14">
+      <formula>J$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="15">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="16">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13531,6 +13822,18 @@
       </controls>
     </mc:Choice>
   </mc:AlternateContent>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{43E150ED-EEE9-4DDC-8B42-86DD0828ADB0}">
+          <x14:formula1>
+            <xm:f>Integrantes!$A$2:$A$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>C12:C13</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 

--- a/wiki/CronogramaKlass.xlsx
+++ b/wiki/CronogramaKlass.xlsx
@@ -3,25 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA0E162-96B9-4BD8-AC2E-3A3B5CD45CDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B1613A7-A94F-492C-896A-657B37148A23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Etapa 1" sheetId="1" r:id="rId1"/>
     <sheet name="Etapa 2" sheetId="2" r:id="rId2"/>
     <sheet name="Etapa 3" sheetId="3" r:id="rId3"/>
-    <sheet name="Etapa 4" sheetId="4" r:id="rId4"/>
+    <sheet name="Etapa 4" sheetId="6" r:id="rId4"/>
     <sheet name="Integrantes" sheetId="5" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="Actual" localSheetId="1">('Etapa 2'!PeriodInActual*('Etapa 2'!$F1&gt;0))*'Etapa 2'!PeriodInPlan</definedName>
     <definedName name="Actual" localSheetId="2">('Etapa 3'!PeriodInActual*('Etapa 3'!$F1&gt;0))*'Etapa 3'!PeriodInPlan</definedName>
-    <definedName name="Actual" localSheetId="3">('Etapa 4'!PeriodInActual*('Etapa 4'!$E1&gt;0))*'Etapa 4'!PeriodInPlan</definedName>
+    <definedName name="Actual" localSheetId="3">('Etapa 4'!PeriodInActual*('Etapa 4'!$F1&gt;0))*'Etapa 4'!PeriodInPlan</definedName>
     <definedName name="Actual">(PeriodInActual*('Etapa 1'!$F1&gt;0))*PeriodInPlan</definedName>
     <definedName name="ActualBeyond" localSheetId="1">'Etapa 2'!PeriodInActual*('Etapa 2'!$F1&gt;0)</definedName>
     <definedName name="ActualBeyond" localSheetId="2">'Etapa 3'!PeriodInActual*('Etapa 3'!$F1&gt;0)</definedName>
-    <definedName name="ActualBeyond" localSheetId="3">'Etapa 4'!PeriodInActual*('Etapa 4'!$E1&gt;0)</definedName>
+    <definedName name="ActualBeyond" localSheetId="3">'Etapa 4'!PeriodInActual*('Etapa 4'!$F1&gt;0)</definedName>
     <definedName name="ActualBeyond">PeriodInActual*('Etapa 1'!$F1&gt;0)</definedName>
     <definedName name="PercentComplete" localSheetId="1">'Etapa 2'!PercentCompleteBeyond*'Etapa 2'!PeriodInPlan</definedName>
     <definedName name="PercentComplete" localSheetId="2">'Etapa 3'!PercentCompleteBeyond*'Etapa 3'!PeriodInPlan</definedName>
@@ -29,23 +29,23 @@
     <definedName name="PercentComplete">PercentCompleteBeyond*PeriodInPlan</definedName>
     <definedName name="PercentCompleteBeyond" localSheetId="1">('Etapa 2'!A$8=MEDIAN('Etapa 2'!A$8,'Etapa 2'!$F1,'Etapa 2'!$F1+'Etapa 2'!$G1)*('Etapa 2'!$F1&gt;0))*(('Etapa 2'!A$8&lt;(INT('Etapa 2'!$F1+'Etapa 2'!$G1*'Etapa 2'!$H1)))+('Etapa 2'!A$8='Etapa 2'!$F1))*('Etapa 2'!$H1&gt;0)</definedName>
     <definedName name="PercentCompleteBeyond" localSheetId="2">('Etapa 3'!A$8=MEDIAN('Etapa 3'!A$8,'Etapa 3'!$F1,'Etapa 3'!$F1+'Etapa 3'!$G1)*('Etapa 3'!$F1&gt;0))*(('Etapa 3'!A$8&lt;(INT('Etapa 3'!$F1+'Etapa 3'!$G1*'Etapa 3'!$H1)))+('Etapa 3'!A$8='Etapa 3'!$F1))*('Etapa 3'!$H1&gt;0)</definedName>
-    <definedName name="PercentCompleteBeyond" localSheetId="3">('Etapa 4'!A$8=MEDIAN('Etapa 4'!A$8,'Etapa 4'!$E1,'Etapa 4'!$E1+'Etapa 4'!$F1)*('Etapa 4'!$E1&gt;0))*(('Etapa 4'!A$8&lt;(INT('Etapa 4'!$E1+'Etapa 4'!$F1*'Etapa 4'!$G1)))+('Etapa 4'!A$8='Etapa 4'!$E1))*('Etapa 4'!$G1&gt;0)</definedName>
+    <definedName name="PercentCompleteBeyond" localSheetId="3">('Etapa 4'!A$8=MEDIAN('Etapa 4'!A$8,'Etapa 4'!$F1,'Etapa 4'!$F1+'Etapa 4'!$G1)*('Etapa 4'!$F1&gt;0))*(('Etapa 4'!A$8&lt;(INT('Etapa 4'!$F1+'Etapa 4'!$G1*'Etapa 4'!$H1)))+('Etapa 4'!A$8='Etapa 4'!$F1))*('Etapa 4'!$H1&gt;0)</definedName>
     <definedName name="PercentCompleteBeyond">('Etapa 1'!A$8=MEDIAN('Etapa 1'!A$8,'Etapa 1'!$F1,'Etapa 1'!$F1+'Etapa 1'!$G1)*('Etapa 1'!$F1&gt;0))*(('Etapa 1'!A$8&lt;(INT('Etapa 1'!$F1+'Etapa 1'!$G1*'Etapa 1'!$H1)))+('Etapa 1'!A$8='Etapa 1'!$F1))*('Etapa 1'!$H1&gt;0)</definedName>
     <definedName name="period_selected" localSheetId="1">'Etapa 2'!$N$3</definedName>
     <definedName name="period_selected" localSheetId="2">'Etapa 3'!$N$3</definedName>
-    <definedName name="period_selected" localSheetId="3">'Etapa 4'!$M$3</definedName>
+    <definedName name="period_selected" localSheetId="3">'Etapa 4'!$N$3</definedName>
     <definedName name="period_selected">'Etapa 1'!$N$3</definedName>
     <definedName name="PeriodInActual" localSheetId="1">'Etapa 2'!A$8=MEDIAN('Etapa 2'!A$8,'Etapa 2'!$F1,'Etapa 2'!$F1+'Etapa 2'!$G1-1)</definedName>
     <definedName name="PeriodInActual" localSheetId="2">'Etapa 3'!A$8=MEDIAN('Etapa 3'!A$8,'Etapa 3'!$F1,'Etapa 3'!$F1+'Etapa 3'!$G1-1)</definedName>
-    <definedName name="PeriodInActual" localSheetId="3">'Etapa 4'!A$8=MEDIAN('Etapa 4'!A$8,'Etapa 4'!$E1,'Etapa 4'!$E1+'Etapa 4'!$F1-1)</definedName>
+    <definedName name="PeriodInActual" localSheetId="3">'Etapa 4'!A$8=MEDIAN('Etapa 4'!A$8,'Etapa 4'!$F1,'Etapa 4'!$F1+'Etapa 4'!$G1-1)</definedName>
     <definedName name="PeriodInActual">'Etapa 1'!A$8=MEDIAN('Etapa 1'!A$8,'Etapa 1'!$F1,'Etapa 1'!$F1+'Etapa 1'!$G1-1)</definedName>
     <definedName name="PeriodInPlan" localSheetId="1">'Etapa 2'!A$8=MEDIAN('Etapa 2'!A$8,'Etapa 2'!$D1,'Etapa 2'!$D1+'Etapa 2'!$E1-1)</definedName>
     <definedName name="PeriodInPlan" localSheetId="2">'Etapa 3'!A$8=MEDIAN('Etapa 3'!A$8,'Etapa 3'!$D1,'Etapa 3'!$D1+'Etapa 3'!$E1-1)</definedName>
-    <definedName name="PeriodInPlan" localSheetId="3">'Etapa 4'!A$8=MEDIAN('Etapa 4'!A$8,'Etapa 4'!$C1,'Etapa 4'!$C1+'Etapa 4'!$D1-1)</definedName>
+    <definedName name="PeriodInPlan" localSheetId="3">'Etapa 4'!A$8=MEDIAN('Etapa 4'!A$8,'Etapa 4'!$D1,'Etapa 4'!$D1+'Etapa 4'!$E1-1)</definedName>
     <definedName name="PeriodInPlan">'Etapa 1'!A$8=MEDIAN('Etapa 1'!A$8,'Etapa 1'!$D1,'Etapa 1'!$D1+'Etapa 1'!$E1-1)</definedName>
     <definedName name="Plan" localSheetId="1">'Etapa 2'!PeriodInPlan*('Etapa 2'!$D1&gt;0)</definedName>
     <definedName name="Plan" localSheetId="2">'Etapa 3'!PeriodInPlan*('Etapa 3'!$D1&gt;0)</definedName>
-    <definedName name="Plan" localSheetId="3">'Etapa 4'!PeriodInPlan*('Etapa 4'!$C1&gt;0)</definedName>
+    <definedName name="Plan" localSheetId="3">'Etapa 4'!PeriodInPlan*('Etapa 4'!$D1&gt;0)</definedName>
     <definedName name="Plan">PeriodInPlan*('Etapa 1'!$D1&gt;0)</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
@@ -66,10 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="94">
-  <si>
-    <t>ACTIVITY</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="104">
   <si>
     <t>PLANO DE INÍCIO</t>
   </si>
@@ -234,12 +231,6 @@
     <t>Diagrama de Classes</t>
   </si>
   <si>
-    <t>Hospedagem</t>
-  </si>
-  <si>
-    <t>Testes API Web</t>
-  </si>
-  <si>
     <t>Testes Frontend</t>
   </si>
   <si>
@@ -250,9 +241,6 @@
   </si>
   <si>
     <t>KLASS - etapa 3</t>
-  </si>
-  <si>
-    <t>KLASS - etapa 4</t>
   </si>
   <si>
     <t>Definir os Integrantes do projeto</t>
@@ -313,12 +301,6 @@
   </si>
   <si>
     <t>Iniciou-se no dia 01/05/2020 e finalizou-se no dia 29/06/2020.</t>
-  </si>
-  <si>
-    <t>Iniciou-se no dia 29/08/2020 e finalizou-se no dia 29/10/2020.</t>
-  </si>
-  <si>
-    <t>Quarta etapa do projeto, responsável pelos testes e hospedagem.</t>
   </si>
   <si>
     <t>Video de apresentação</t>
@@ -421,6 +403,54 @@
   </si>
   <si>
     <t>Terceira etapa do projeto, responsável pela programação do projeto além da finalização de alguns diagramas.</t>
+  </si>
+  <si>
+    <t>Quarta etapa do projeto, responsável pela finalização programação do projeto além da finalização da monografia e testes específicos.</t>
+  </si>
+  <si>
+    <t>Iniciou-se no dia 13/09/2020 e finalizou-se no dia 12/11/2020.</t>
+  </si>
+  <si>
+    <t>Seeds do banco de dados</t>
+  </si>
+  <si>
+    <t>Testes da API Web</t>
+  </si>
+  <si>
+    <t>Hospedagem do banco e API</t>
+  </si>
+  <si>
+    <t>Icones para a criação da escola</t>
+  </si>
+  <si>
+    <t>Responsividade da aplicação WEB</t>
+  </si>
+  <si>
+    <t>Animações da aplicação WEB</t>
+  </si>
+  <si>
+    <t>Conexão da aplicação WEB com o Backend</t>
+  </si>
+  <si>
+    <t>Hospedagem do frontend</t>
+  </si>
+  <si>
+    <t>Finalização do diário de Bordo</t>
+  </si>
+  <si>
+    <t>Finalização da documentação no GIT</t>
+  </si>
+  <si>
+    <t>Finalização da monografia</t>
+  </si>
+  <si>
+    <t>Realização do 2° vídeo</t>
+  </si>
+  <si>
+    <t>Preparação para apresentação final</t>
+  </si>
+  <si>
+    <t>Teste do funcionamento total em escolas</t>
   </si>
 </sst>
 </file>
@@ -810,7 +840,7 @@
     <cellStyle name="Project Headers" xfId="4" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Título 1" xfId="1" builtinId="16" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="444">
+  <dxfs count="748">
     <dxf>
       <fill>
         <patternFill>
@@ -1605,6 +1635,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -1616,10 +1674,4276 @@
           <color theme="9" tint="-0.24994659260841701"/>
         </right>
         <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
           <color theme="7"/>
         </bottom>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -7315,26 +11639,26 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>14</xdr:col>
+          <xdr:col>15</xdr:col>
           <xdr:colOff>68580</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>14</xdr:col>
+          <xdr:col>15</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>259080</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="4097" name="Spinner 1" descr="Period Highlight Spin Control" hidden="1">
+            <xdr:cNvPr id="5121" name="Spinner 1" descr="Period Highlight Spin Control" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s4097"/>
+                  <a14:compatExt spid="_x0000_s5121"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000001100000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FC15CD7-AE0D-4A90-A11E-AAE1A951A281}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7614,7 +11938,7 @@
   <sheetData>
     <row r="2" spans="2:50" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B2" s="38" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C2" s="38"/>
       <c r="D2" s="38"/>
@@ -7632,7 +11956,7 @@
       <c r="G3" s="38"/>
       <c r="H3" s="38"/>
       <c r="I3" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
@@ -7645,15 +11969,15 @@
       <c r="P3" s="6"/>
       <c r="R3" s="7"/>
       <c r="S3" s="16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U3" s="9"/>
       <c r="V3" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AB3" s="11"/>
       <c r="AC3" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH3" s="1"/>
       <c r="AI3" s="1"/>
@@ -7668,11 +11992,11 @@
       <c r="H4" s="38"/>
       <c r="R4" s="8"/>
       <c r="S4" s="16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U4" s="10"/>
       <c r="V4" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT4" s="1"/>
       <c r="AU4" s="1"/>
@@ -7688,26 +12012,26 @@
     <row r="6" spans="2:50" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B6" s="17"/>
       <c r="C6" s="36" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D6" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="F6" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="36" t="s">
+      <c r="G6" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="36" t="s">
+      <c r="H6" s="36" t="s">
         <v>4</v>
-      </c>
-      <c r="H6" s="36" t="s">
-        <v>5</v>
       </c>
       <c r="I6" s="17"/>
       <c r="J6" s="37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K6" s="37"/>
       <c r="L6" s="37"/>
@@ -7719,7 +12043,7 @@
     </row>
     <row r="7" spans="2:50" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="19" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C7" s="36"/>
       <c r="D7" s="36"/>
@@ -7811,10 +12135,10 @@
     </row>
     <row r="9" spans="2:50" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="20" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D9" s="13">
         <v>1</v>
@@ -7834,10 +12158,10 @@
     </row>
     <row r="10" spans="2:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="20" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D10" s="13">
         <v>1</v>
@@ -7857,10 +12181,10 @@
     </row>
     <row r="11" spans="2:50" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D11" s="13">
         <v>1</v>
@@ -7880,10 +12204,10 @@
     </row>
     <row r="12" spans="2:50" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="20" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D12" s="13">
         <v>4</v>
@@ -7903,10 +12227,10 @@
     </row>
     <row r="13" spans="2:50" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="20" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D13" s="13">
         <v>1</v>
@@ -7926,10 +12250,10 @@
     </row>
     <row r="14" spans="2:50" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D14" s="13">
         <v>4</v>
@@ -7949,18 +12273,18 @@
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B17" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B18" s="28" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C18" s="27"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B19" s="28" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C19" s="27"/>
     </row>
@@ -7977,33 +12301,33 @@
     <mergeCell ref="H6:H7"/>
   </mergeCells>
   <conditionalFormatting sqref="J9:AD14">
-    <cfRule type="expression" dxfId="443" priority="25">
+    <cfRule type="expression" dxfId="747" priority="25">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="442" priority="27">
+    <cfRule type="expression" dxfId="746" priority="27">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="441" priority="28">
+    <cfRule type="expression" dxfId="745" priority="28">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="440" priority="29">
+    <cfRule type="expression" dxfId="744" priority="29">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="439" priority="30">
+    <cfRule type="expression" dxfId="743" priority="30">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="438" priority="31">
+    <cfRule type="expression" dxfId="742" priority="31">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="437" priority="35">
+    <cfRule type="expression" dxfId="741" priority="35">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="436" priority="36">
+    <cfRule type="expression" dxfId="740" priority="36">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:AD8">
-    <cfRule type="expression" dxfId="435" priority="32">
+    <cfRule type="expression" dxfId="739" priority="32">
       <formula>J$8=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8095,7 +12419,7 @@
   <dimension ref="B2:BQ29"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:B28"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.35"/>
@@ -8114,7 +12438,7 @@
   <sheetData>
     <row r="2" spans="2:69" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B2" s="38" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C2" s="38"/>
       <c r="D2" s="38"/>
@@ -8132,7 +12456,7 @@
       <c r="G3" s="38"/>
       <c r="H3" s="38"/>
       <c r="I3" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
@@ -8145,15 +12469,15 @@
       <c r="P3" s="6"/>
       <c r="R3" s="7"/>
       <c r="S3" s="16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V3" s="9"/>
       <c r="W3" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AD3" s="11"/>
       <c r="AE3" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI3" s="1"/>
       <c r="AJ3" s="1"/>
@@ -8170,11 +12494,11 @@
       <c r="H4" s="38"/>
       <c r="R4" s="8"/>
       <c r="S4" s="16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V4" s="10"/>
       <c r="W4" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU4" s="1"/>
       <c r="AV4" s="1"/>
@@ -8190,26 +12514,26 @@
     <row r="6" spans="2:69" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B6" s="17"/>
       <c r="C6" s="39" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D6" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="39" t="s">
+      <c r="F6" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="39" t="s">
+      <c r="G6" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="39" t="s">
+      <c r="H6" s="39" t="s">
         <v>4</v>
-      </c>
-      <c r="H6" s="39" t="s">
-        <v>5</v>
       </c>
       <c r="I6" s="17"/>
       <c r="J6" s="33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K6" s="33"/>
       <c r="L6" s="33"/>
@@ -8221,7 +12545,7 @@
     </row>
     <row r="7" spans="2:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="19" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C7" s="39"/>
       <c r="D7" s="39"/>
@@ -8430,10 +12754,10 @@
     </row>
     <row r="9" spans="2:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D9" s="13">
         <v>1</v>
@@ -8453,10 +12777,10 @@
     </row>
     <row r="10" spans="2:69" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D10" s="13">
         <v>7</v>
@@ -8476,10 +12800,10 @@
     </row>
     <row r="11" spans="2:69" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D11" s="13">
         <v>7</v>
@@ -8499,10 +12823,10 @@
     </row>
     <row r="12" spans="2:69" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D12" s="13">
         <v>14</v>
@@ -8522,10 +12846,10 @@
     </row>
     <row r="13" spans="2:69" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D13" s="13">
         <v>21</v>
@@ -8545,10 +12869,10 @@
     </row>
     <row r="14" spans="2:69" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D14" s="13">
         <v>14</v>
@@ -8568,10 +12892,10 @@
     </row>
     <row r="15" spans="2:69" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D15" s="13">
         <v>28</v>
@@ -8591,10 +12915,10 @@
     </row>
     <row r="16" spans="2:69" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D16" s="13">
         <v>32</v>
@@ -8654,10 +12978,10 @@
     </row>
     <row r="17" spans="2:69" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D17" s="13">
         <v>24</v>
@@ -8717,10 +13041,10 @@
     </row>
     <row r="18" spans="2:69" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D18" s="15">
         <v>28</v>
@@ -8780,10 +13104,10 @@
     </row>
     <row r="19" spans="2:69" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D19" s="13">
         <v>9</v>
@@ -8843,10 +13167,10 @@
     </row>
     <row r="20" spans="2:69" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D20" s="13">
         <v>14</v>
@@ -8906,10 +13230,10 @@
     </row>
     <row r="21" spans="2:69" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D21" s="13">
         <v>32</v>
@@ -8969,10 +13293,10 @@
     </row>
     <row r="22" spans="2:69" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D22" s="13">
         <v>45</v>
@@ -9032,10 +13356,10 @@
     </row>
     <row r="23" spans="2:69" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="12" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D23" s="13">
         <v>40</v>
@@ -9095,10 +13419,10 @@
     </row>
     <row r="24" spans="2:69" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="20" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D24" s="13">
         <v>50</v>
@@ -9158,19 +13482,19 @@
     </row>
     <row r="25" spans="2:69" x14ac:dyDescent="0.35">
       <c r="B25" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D25" s="13">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="E25" s="13">
         <v>7</v>
       </c>
       <c r="F25" s="13">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="G25" s="13">
         <v>7</v>
@@ -9181,17 +13505,17 @@
     </row>
     <row r="27" spans="2:69" x14ac:dyDescent="0.35">
       <c r="B27" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="2:69" x14ac:dyDescent="0.35">
       <c r="B28" s="28" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="2:69" x14ac:dyDescent="0.35">
       <c r="B29" s="28" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -9206,85 +13530,85 @@
     <mergeCell ref="C6:C7"/>
   </mergeCells>
   <conditionalFormatting sqref="J9:BQ24">
-    <cfRule type="expression" dxfId="434" priority="58">
+    <cfRule type="expression" dxfId="738" priority="58">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="433" priority="59">
+    <cfRule type="expression" dxfId="737" priority="59">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="432" priority="60">
+    <cfRule type="expression" dxfId="736" priority="60">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="431" priority="61">
+    <cfRule type="expression" dxfId="735" priority="61">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="430" priority="62">
+    <cfRule type="expression" dxfId="734" priority="62">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="429" priority="63">
+    <cfRule type="expression" dxfId="733" priority="63">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="428" priority="65">
+    <cfRule type="expression" dxfId="732" priority="65">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="427" priority="66">
+    <cfRule type="expression" dxfId="731" priority="66">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:BQ8">
-    <cfRule type="expression" dxfId="426" priority="64">
+    <cfRule type="expression" dxfId="730" priority="64">
       <formula>J$8=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J24:BQ24">
-    <cfRule type="expression" dxfId="425" priority="26">
+    <cfRule type="expression" dxfId="729" priority="26">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="424" priority="27">
+    <cfRule type="expression" dxfId="728" priority="27">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="423" priority="28">
+    <cfRule type="expression" dxfId="727" priority="28">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="422" priority="29">
+    <cfRule type="expression" dxfId="726" priority="29">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="421" priority="30">
+    <cfRule type="expression" dxfId="725" priority="30">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="420" priority="31">
+    <cfRule type="expression" dxfId="724" priority="31">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="419" priority="32">
+    <cfRule type="expression" dxfId="723" priority="32">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="418" priority="33">
+    <cfRule type="expression" dxfId="722" priority="33">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25:BQ25">
-    <cfRule type="expression" dxfId="417" priority="1">
+    <cfRule type="expression" dxfId="721" priority="1">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="416" priority="2">
+    <cfRule type="expression" dxfId="720" priority="2">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="415" priority="3">
+    <cfRule type="expression" dxfId="719" priority="3">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="414" priority="4">
+    <cfRule type="expression" dxfId="718" priority="4">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="413" priority="5">
+    <cfRule type="expression" dxfId="717" priority="5">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="412" priority="6">
+    <cfRule type="expression" dxfId="716" priority="6">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="411" priority="7">
+    <cfRule type="expression" dxfId="715" priority="7">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="410" priority="8">
+    <cfRule type="expression" dxfId="714" priority="8">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9342,8 +13666,8 @@
   </sheetPr>
   <dimension ref="B2:BR42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.35"/>
@@ -9362,7 +13686,7 @@
   <sheetData>
     <row r="2" spans="2:70" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B2" s="38" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C2" s="38"/>
       <c r="D2" s="38"/>
@@ -9380,7 +13704,7 @@
       <c r="G3" s="38"/>
       <c r="H3" s="38"/>
       <c r="I3" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
@@ -9388,21 +13712,21 @@
       <c r="M3" s="6"/>
       <c r="N3" s="35">
         <f ca="1">TODAY()-DATE(2020, 7, 5)-7</f>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O3" s="35"/>
       <c r="P3" s="6"/>
       <c r="R3" s="7"/>
       <c r="S3" s="16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U3" s="9"/>
       <c r="V3" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AB3" s="11"/>
       <c r="AC3" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI3" s="1"/>
       <c r="AJ3" s="1"/>
@@ -9419,11 +13743,11 @@
       <c r="H4" s="38"/>
       <c r="R4" s="8"/>
       <c r="S4" s="16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U4" s="10"/>
       <c r="V4" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU4" s="1"/>
       <c r="AV4" s="1"/>
@@ -9438,29 +13762,29 @@
     </row>
     <row r="6" spans="2:70" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B6" s="37" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D6" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="39" t="s">
+      <c r="F6" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="39" t="s">
+      <c r="G6" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="39" t="s">
+      <c r="H6" s="39" t="s">
         <v>4</v>
-      </c>
-      <c r="H6" s="39" t="s">
-        <v>5</v>
       </c>
       <c r="I6" s="17"/>
       <c r="J6" s="19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K6" s="17"/>
       <c r="L6" s="18"/>
@@ -9680,10 +14004,10 @@
     </row>
     <row r="9" spans="2:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D9" s="13">
         <v>1</v>
@@ -9704,10 +14028,10 @@
     </row>
     <row r="10" spans="2:70" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D10" s="13">
         <v>1</v>
@@ -9768,10 +14092,10 @@
     </row>
     <row r="11" spans="2:70" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D11" s="13">
         <v>21</v>
@@ -9832,10 +14156,10 @@
     </row>
     <row r="12" spans="2:70" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="12" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D12" s="13">
         <v>7</v>
@@ -9896,10 +14220,10 @@
     </row>
     <row r="13" spans="2:70" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="12" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D13" s="13">
         <v>28</v>
@@ -9960,10 +14284,10 @@
     </row>
     <row r="14" spans="2:70" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="12" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D14" s="13">
         <v>35</v>
@@ -10024,10 +14348,10 @@
     </row>
     <row r="15" spans="2:70" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="12" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D15" s="13">
         <v>21</v>
@@ -10047,10 +14371,10 @@
     </row>
     <row r="16" spans="2:70" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="21" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D16" s="22">
         <v>28</v>
@@ -10131,10 +14455,10 @@
     </row>
     <row r="17" spans="2:69" x14ac:dyDescent="0.35">
       <c r="B17" s="21" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D17" s="22">
         <v>35</v>
@@ -10215,10 +14539,10 @@
     </row>
     <row r="18" spans="2:69" x14ac:dyDescent="0.35">
       <c r="B18" s="21" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D18" s="22">
         <v>35</v>
@@ -10299,10 +14623,10 @@
     </row>
     <row r="19" spans="2:69" x14ac:dyDescent="0.35">
       <c r="B19" s="21" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D19" s="22">
         <v>42</v>
@@ -10383,10 +14707,10 @@
     </row>
     <row r="20" spans="2:69" x14ac:dyDescent="0.35">
       <c r="B20" s="21" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D20" s="22">
         <v>42</v>
@@ -10467,10 +14791,10 @@
     </row>
     <row r="21" spans="2:69" x14ac:dyDescent="0.35">
       <c r="B21" s="21" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D21" s="22">
         <v>49</v>
@@ -10551,10 +14875,10 @@
     </row>
     <row r="22" spans="2:69" x14ac:dyDescent="0.35">
       <c r="B22" s="12" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D22" s="13">
         <v>49</v>
@@ -10574,10 +14898,10 @@
     </row>
     <row r="23" spans="2:69" x14ac:dyDescent="0.35">
       <c r="B23" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D23" s="13">
         <v>49</v>
@@ -10597,10 +14921,10 @@
     </row>
     <row r="24" spans="2:69" x14ac:dyDescent="0.35">
       <c r="B24" s="21" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D24" s="22">
         <v>21</v>
@@ -10681,10 +15005,10 @@
     </row>
     <row r="25" spans="2:69" x14ac:dyDescent="0.35">
       <c r="B25" s="12" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D25" s="13">
         <v>21</v>
@@ -10704,10 +15028,10 @@
     </row>
     <row r="26" spans="2:69" x14ac:dyDescent="0.35">
       <c r="B26" s="12" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D26" s="13">
         <v>28</v>
@@ -10727,10 +15051,10 @@
     </row>
     <row r="27" spans="2:69" x14ac:dyDescent="0.35">
       <c r="B27" s="21" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D27" s="22">
         <v>35</v>
@@ -10811,10 +15135,10 @@
     </row>
     <row r="28" spans="2:69" x14ac:dyDescent="0.35">
       <c r="B28" s="21" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C28" s="32" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D28" s="22">
         <v>42</v>
@@ -10895,10 +15219,10 @@
     </row>
     <row r="29" spans="2:69" x14ac:dyDescent="0.35">
       <c r="B29" s="12" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D29" s="13">
         <v>49</v>
@@ -10918,10 +15242,10 @@
     </row>
     <row r="30" spans="2:69" x14ac:dyDescent="0.35">
       <c r="B30" s="12" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D30" s="13">
         <v>47</v>
@@ -10941,10 +15265,10 @@
     </row>
     <row r="31" spans="2:69" x14ac:dyDescent="0.35">
       <c r="B31" s="21" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D31" s="22">
         <v>54</v>
@@ -11025,10 +15349,10 @@
     </row>
     <row r="32" spans="2:69" x14ac:dyDescent="0.35">
       <c r="B32" s="21" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C32" s="32" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D32" s="22">
         <v>28</v>
@@ -11109,10 +15433,10 @@
     </row>
     <row r="33" spans="2:69" x14ac:dyDescent="0.35">
       <c r="B33" s="34" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C33" s="32" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D33" s="22">
         <v>1</v>
@@ -11193,10 +15517,10 @@
     </row>
     <row r="34" spans="2:69" x14ac:dyDescent="0.35">
       <c r="B34" s="34" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C34" s="32" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D34" s="22">
         <v>7</v>
@@ -11277,10 +15601,10 @@
     </row>
     <row r="35" spans="2:69" x14ac:dyDescent="0.35">
       <c r="B35" s="34" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C35" s="32" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D35" s="22">
         <v>21</v>
@@ -11361,10 +15685,10 @@
     </row>
     <row r="36" spans="2:69" x14ac:dyDescent="0.35">
       <c r="B36" s="34" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C36" s="32" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D36" s="22">
         <v>1</v>
@@ -11445,10 +15769,10 @@
     </row>
     <row r="37" spans="2:69" x14ac:dyDescent="0.35">
       <c r="B37" s="34" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C37" s="32" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D37" s="22">
         <v>14</v>
@@ -11529,10 +15853,10 @@
     </row>
     <row r="38" spans="2:69" x14ac:dyDescent="0.35">
       <c r="B38" s="34" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C38" s="32" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D38" s="22">
         <v>42</v>
@@ -11613,17 +15937,17 @@
     </row>
     <row r="40" spans="2:69" x14ac:dyDescent="0.35">
       <c r="B40" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="2:69" x14ac:dyDescent="0.35">
       <c r="B41" s="28" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="2:69" x14ac:dyDescent="0.35">
       <c r="B42" s="28" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -11639,1151 +15963,1151 @@
     <mergeCell ref="B6:B7"/>
   </mergeCells>
   <conditionalFormatting sqref="J10:BQ11 J13:BQ16">
-    <cfRule type="expression" dxfId="409" priority="417">
+    <cfRule type="expression" dxfId="713" priority="417">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="408" priority="418">
+    <cfRule type="expression" dxfId="712" priority="418">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="407" priority="419">
+    <cfRule type="expression" dxfId="711" priority="419">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="406" priority="420">
+    <cfRule type="expression" dxfId="710" priority="420">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="405" priority="421">
+    <cfRule type="expression" dxfId="709" priority="421">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="404" priority="422">
+    <cfRule type="expression" dxfId="708" priority="422">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="403" priority="424">
+    <cfRule type="expression" dxfId="707" priority="424">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="402" priority="425">
+    <cfRule type="expression" dxfId="706" priority="425">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:BQ9">
-    <cfRule type="expression" dxfId="401" priority="423">
+    <cfRule type="expression" dxfId="705" priority="423">
       <formula>J$8=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9:BQ9">
-    <cfRule type="expression" dxfId="400" priority="385">
+    <cfRule type="expression" dxfId="704" priority="385">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="399" priority="386">
+    <cfRule type="expression" dxfId="703" priority="386">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="398" priority="387">
+    <cfRule type="expression" dxfId="702" priority="387">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="397" priority="388">
+    <cfRule type="expression" dxfId="701" priority="388">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="396" priority="389">
+    <cfRule type="expression" dxfId="700" priority="389">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="395" priority="390">
+    <cfRule type="expression" dxfId="699" priority="390">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="394" priority="391">
+    <cfRule type="expression" dxfId="698" priority="391">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="393" priority="392">
+    <cfRule type="expression" dxfId="697" priority="392">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12:BQ12">
-    <cfRule type="expression" dxfId="392" priority="377">
+    <cfRule type="expression" dxfId="696" priority="377">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="391" priority="378">
+    <cfRule type="expression" dxfId="695" priority="378">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="390" priority="379">
+    <cfRule type="expression" dxfId="694" priority="379">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="389" priority="380">
+    <cfRule type="expression" dxfId="693" priority="380">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="388" priority="381">
+    <cfRule type="expression" dxfId="692" priority="381">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="387" priority="382">
+    <cfRule type="expression" dxfId="691" priority="382">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="386" priority="383">
+    <cfRule type="expression" dxfId="690" priority="383">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="385" priority="384">
+    <cfRule type="expression" dxfId="689" priority="384">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J24:BQ27">
-    <cfRule type="expression" dxfId="384" priority="369">
+    <cfRule type="expression" dxfId="688" priority="369">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="383" priority="370">
+    <cfRule type="expression" dxfId="687" priority="370">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="382" priority="371">
+    <cfRule type="expression" dxfId="686" priority="371">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="381" priority="372">
+    <cfRule type="expression" dxfId="685" priority="372">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="380" priority="373">
+    <cfRule type="expression" dxfId="684" priority="373">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="379" priority="374">
+    <cfRule type="expression" dxfId="683" priority="374">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="378" priority="375">
+    <cfRule type="expression" dxfId="682" priority="375">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="377" priority="376">
+    <cfRule type="expression" dxfId="681" priority="376">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16:BQ16">
-    <cfRule type="expression" dxfId="376" priority="361">
+    <cfRule type="expression" dxfId="680" priority="361">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="375" priority="362">
+    <cfRule type="expression" dxfId="679" priority="362">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="374" priority="363">
+    <cfRule type="expression" dxfId="678" priority="363">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="373" priority="364">
+    <cfRule type="expression" dxfId="677" priority="364">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="372" priority="365">
+    <cfRule type="expression" dxfId="676" priority="365">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="371" priority="366">
+    <cfRule type="expression" dxfId="675" priority="366">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="370" priority="367">
+    <cfRule type="expression" dxfId="674" priority="367">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="369" priority="368">
+    <cfRule type="expression" dxfId="673" priority="368">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18:BQ18">
-    <cfRule type="expression" dxfId="368" priority="353">
+    <cfRule type="expression" dxfId="672" priority="353">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="367" priority="354">
+    <cfRule type="expression" dxfId="671" priority="354">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="366" priority="355">
+    <cfRule type="expression" dxfId="670" priority="355">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="365" priority="356">
+    <cfRule type="expression" dxfId="669" priority="356">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="364" priority="357">
+    <cfRule type="expression" dxfId="668" priority="357">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="363" priority="358">
+    <cfRule type="expression" dxfId="667" priority="358">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="362" priority="359">
+    <cfRule type="expression" dxfId="666" priority="359">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="361" priority="360">
+    <cfRule type="expression" dxfId="665" priority="360">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17:BQ17">
-    <cfRule type="expression" dxfId="360" priority="345">
+    <cfRule type="expression" dxfId="664" priority="345">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="359" priority="346">
+    <cfRule type="expression" dxfId="663" priority="346">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="358" priority="347">
+    <cfRule type="expression" dxfId="662" priority="347">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="357" priority="348">
+    <cfRule type="expression" dxfId="661" priority="348">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="356" priority="349">
+    <cfRule type="expression" dxfId="660" priority="349">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="355" priority="350">
+    <cfRule type="expression" dxfId="659" priority="350">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="354" priority="351">
+    <cfRule type="expression" dxfId="658" priority="351">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="353" priority="352">
+    <cfRule type="expression" dxfId="657" priority="352">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27:BQ27">
-    <cfRule type="expression" dxfId="352" priority="321">
+    <cfRule type="expression" dxfId="656" priority="321">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="351" priority="322">
+    <cfRule type="expression" dxfId="655" priority="322">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="350" priority="323">
+    <cfRule type="expression" dxfId="654" priority="323">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="349" priority="324">
+    <cfRule type="expression" dxfId="653" priority="324">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="348" priority="325">
+    <cfRule type="expression" dxfId="652" priority="325">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="347" priority="326">
+    <cfRule type="expression" dxfId="651" priority="326">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="346" priority="327">
+    <cfRule type="expression" dxfId="650" priority="327">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="345" priority="328">
+    <cfRule type="expression" dxfId="649" priority="328">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28:BQ28">
-    <cfRule type="expression" dxfId="344" priority="313">
+    <cfRule type="expression" dxfId="648" priority="313">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="343" priority="314">
+    <cfRule type="expression" dxfId="647" priority="314">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="342" priority="315">
+    <cfRule type="expression" dxfId="646" priority="315">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="341" priority="316">
+    <cfRule type="expression" dxfId="645" priority="316">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="340" priority="317">
+    <cfRule type="expression" dxfId="644" priority="317">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="339" priority="318">
+    <cfRule type="expression" dxfId="643" priority="318">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="338" priority="319">
+    <cfRule type="expression" dxfId="642" priority="319">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="337" priority="320">
+    <cfRule type="expression" dxfId="641" priority="320">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29:BQ29">
-    <cfRule type="expression" dxfId="336" priority="305">
+    <cfRule type="expression" dxfId="640" priority="305">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="335" priority="306">
+    <cfRule type="expression" dxfId="639" priority="306">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="334" priority="307">
+    <cfRule type="expression" dxfId="638" priority="307">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="333" priority="308">
+    <cfRule type="expression" dxfId="637" priority="308">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="332" priority="309">
+    <cfRule type="expression" dxfId="636" priority="309">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="331" priority="310">
+    <cfRule type="expression" dxfId="635" priority="310">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="330" priority="311">
+    <cfRule type="expression" dxfId="634" priority="311">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="329" priority="312">
+    <cfRule type="expression" dxfId="633" priority="312">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30:BQ30">
-    <cfRule type="expression" dxfId="328" priority="297">
+    <cfRule type="expression" dxfId="632" priority="297">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="327" priority="298">
+    <cfRule type="expression" dxfId="631" priority="298">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="326" priority="299">
+    <cfRule type="expression" dxfId="630" priority="299">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="325" priority="300">
+    <cfRule type="expression" dxfId="629" priority="300">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="324" priority="301">
+    <cfRule type="expression" dxfId="628" priority="301">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="323" priority="302">
+    <cfRule type="expression" dxfId="627" priority="302">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="322" priority="303">
+    <cfRule type="expression" dxfId="626" priority="303">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="321" priority="304">
+    <cfRule type="expression" dxfId="625" priority="304">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J31:BQ31">
-    <cfRule type="expression" dxfId="320" priority="289">
+    <cfRule type="expression" dxfId="624" priority="289">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="319" priority="290">
+    <cfRule type="expression" dxfId="623" priority="290">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="318" priority="291">
+    <cfRule type="expression" dxfId="622" priority="291">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="317" priority="292">
+    <cfRule type="expression" dxfId="621" priority="292">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="316" priority="293">
+    <cfRule type="expression" dxfId="620" priority="293">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="315" priority="294">
+    <cfRule type="expression" dxfId="619" priority="294">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="314" priority="295">
+    <cfRule type="expression" dxfId="618" priority="295">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="313" priority="296">
+    <cfRule type="expression" dxfId="617" priority="296">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32:BQ32">
-    <cfRule type="expression" dxfId="312" priority="281">
+    <cfRule type="expression" dxfId="616" priority="281">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="311" priority="282">
+    <cfRule type="expression" dxfId="615" priority="282">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="310" priority="283">
+    <cfRule type="expression" dxfId="614" priority="283">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="309" priority="284">
+    <cfRule type="expression" dxfId="613" priority="284">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="308" priority="285">
+    <cfRule type="expression" dxfId="612" priority="285">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="307" priority="286">
+    <cfRule type="expression" dxfId="611" priority="286">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="306" priority="287">
+    <cfRule type="expression" dxfId="610" priority="287">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="305" priority="288">
+    <cfRule type="expression" dxfId="609" priority="288">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21:BQ23">
-    <cfRule type="expression" dxfId="304" priority="257">
+    <cfRule type="expression" dxfId="608" priority="257">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="303" priority="258">
+    <cfRule type="expression" dxfId="607" priority="258">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="302" priority="259">
+    <cfRule type="expression" dxfId="606" priority="259">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="301" priority="260">
+    <cfRule type="expression" dxfId="605" priority="260">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="300" priority="261">
+    <cfRule type="expression" dxfId="604" priority="261">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="299" priority="262">
+    <cfRule type="expression" dxfId="603" priority="262">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="298" priority="263">
+    <cfRule type="expression" dxfId="602" priority="263">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="297" priority="264">
+    <cfRule type="expression" dxfId="601" priority="264">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20:BQ20">
-    <cfRule type="expression" dxfId="296" priority="249">
+    <cfRule type="expression" dxfId="600" priority="249">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="295" priority="250">
+    <cfRule type="expression" dxfId="599" priority="250">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="294" priority="251">
+    <cfRule type="expression" dxfId="598" priority="251">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="293" priority="252">
+    <cfRule type="expression" dxfId="597" priority="252">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="292" priority="253">
+    <cfRule type="expression" dxfId="596" priority="253">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="291" priority="254">
+    <cfRule type="expression" dxfId="595" priority="254">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="290" priority="255">
+    <cfRule type="expression" dxfId="594" priority="255">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="289" priority="256">
+    <cfRule type="expression" dxfId="593" priority="256">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19:BQ19">
-    <cfRule type="expression" dxfId="288" priority="233">
+    <cfRule type="expression" dxfId="592" priority="233">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="287" priority="234">
+    <cfRule type="expression" dxfId="591" priority="234">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="286" priority="235">
+    <cfRule type="expression" dxfId="590" priority="235">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="285" priority="236">
+    <cfRule type="expression" dxfId="589" priority="236">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="284" priority="237">
+    <cfRule type="expression" dxfId="588" priority="237">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="283" priority="238">
+    <cfRule type="expression" dxfId="587" priority="238">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="282" priority="239">
+    <cfRule type="expression" dxfId="586" priority="239">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="281" priority="240">
+    <cfRule type="expression" dxfId="585" priority="240">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28:BQ31">
-    <cfRule type="expression" dxfId="280" priority="225">
+    <cfRule type="expression" dxfId="584" priority="225">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="279" priority="226">
+    <cfRule type="expression" dxfId="583" priority="226">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="278" priority="227">
+    <cfRule type="expression" dxfId="582" priority="227">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="277" priority="228">
+    <cfRule type="expression" dxfId="581" priority="228">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="276" priority="229">
+    <cfRule type="expression" dxfId="580" priority="229">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="275" priority="230">
+    <cfRule type="expression" dxfId="579" priority="230">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="274" priority="231">
+    <cfRule type="expression" dxfId="578" priority="231">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="273" priority="232">
+    <cfRule type="expression" dxfId="577" priority="232">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27:BQ27">
-    <cfRule type="expression" dxfId="272" priority="217">
+    <cfRule type="expression" dxfId="576" priority="217">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="271" priority="218">
+    <cfRule type="expression" dxfId="575" priority="218">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="270" priority="219">
+    <cfRule type="expression" dxfId="574" priority="219">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="269" priority="220">
+    <cfRule type="expression" dxfId="573" priority="220">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="268" priority="221">
+    <cfRule type="expression" dxfId="572" priority="221">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="267" priority="222">
+    <cfRule type="expression" dxfId="571" priority="222">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="266" priority="223">
+    <cfRule type="expression" dxfId="570" priority="223">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="265" priority="224">
+    <cfRule type="expression" dxfId="569" priority="224">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J31:BQ31">
-    <cfRule type="expression" dxfId="264" priority="209">
+    <cfRule type="expression" dxfId="568" priority="209">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="263" priority="210">
+    <cfRule type="expression" dxfId="567" priority="210">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="262" priority="211">
+    <cfRule type="expression" dxfId="566" priority="211">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="261" priority="212">
+    <cfRule type="expression" dxfId="565" priority="212">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="260" priority="213">
+    <cfRule type="expression" dxfId="564" priority="213">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="259" priority="214">
+    <cfRule type="expression" dxfId="563" priority="214">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="258" priority="215">
+    <cfRule type="expression" dxfId="562" priority="215">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="257" priority="216">
+    <cfRule type="expression" dxfId="561" priority="216">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32:BQ32">
-    <cfRule type="expression" dxfId="256" priority="201">
+    <cfRule type="expression" dxfId="560" priority="201">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="255" priority="202">
+    <cfRule type="expression" dxfId="559" priority="202">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="254" priority="203">
+    <cfRule type="expression" dxfId="558" priority="203">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="253" priority="204">
+    <cfRule type="expression" dxfId="557" priority="204">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="252" priority="205">
+    <cfRule type="expression" dxfId="556" priority="205">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="251" priority="206">
+    <cfRule type="expression" dxfId="555" priority="206">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="250" priority="207">
+    <cfRule type="expression" dxfId="554" priority="207">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="249" priority="208">
+    <cfRule type="expression" dxfId="553" priority="208">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:BQ33">
-    <cfRule type="expression" dxfId="248" priority="193">
+    <cfRule type="expression" dxfId="552" priority="193">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="247" priority="194">
+    <cfRule type="expression" dxfId="551" priority="194">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="246" priority="195">
+    <cfRule type="expression" dxfId="550" priority="195">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="245" priority="196">
+    <cfRule type="expression" dxfId="549" priority="196">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="244" priority="197">
+    <cfRule type="expression" dxfId="548" priority="197">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="243" priority="198">
+    <cfRule type="expression" dxfId="547" priority="198">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="242" priority="199">
+    <cfRule type="expression" dxfId="546" priority="199">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="241" priority="200">
+    <cfRule type="expression" dxfId="545" priority="200">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34:BQ34">
-    <cfRule type="expression" dxfId="240" priority="185">
+    <cfRule type="expression" dxfId="544" priority="185">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="239" priority="186">
+    <cfRule type="expression" dxfId="543" priority="186">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="238" priority="187">
+    <cfRule type="expression" dxfId="542" priority="187">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="237" priority="188">
+    <cfRule type="expression" dxfId="541" priority="188">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="236" priority="189">
+    <cfRule type="expression" dxfId="540" priority="189">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="235" priority="190">
+    <cfRule type="expression" dxfId="539" priority="190">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="234" priority="191">
+    <cfRule type="expression" dxfId="538" priority="191">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="233" priority="192">
+    <cfRule type="expression" dxfId="537" priority="192">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J35:BQ35">
-    <cfRule type="expression" dxfId="232" priority="177">
+    <cfRule type="expression" dxfId="536" priority="177">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="231" priority="178">
+    <cfRule type="expression" dxfId="535" priority="178">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="230" priority="179">
+    <cfRule type="expression" dxfId="534" priority="179">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="229" priority="180">
+    <cfRule type="expression" dxfId="533" priority="180">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="228" priority="181">
+    <cfRule type="expression" dxfId="532" priority="181">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="227" priority="182">
+    <cfRule type="expression" dxfId="531" priority="182">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="226" priority="183">
+    <cfRule type="expression" dxfId="530" priority="183">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="225" priority="184">
+    <cfRule type="expression" dxfId="529" priority="184">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J36:BQ36">
-    <cfRule type="expression" dxfId="224" priority="169">
+    <cfRule type="expression" dxfId="528" priority="169">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="223" priority="170">
+    <cfRule type="expression" dxfId="527" priority="170">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="222" priority="171">
+    <cfRule type="expression" dxfId="526" priority="171">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="221" priority="172">
+    <cfRule type="expression" dxfId="525" priority="172">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="220" priority="173">
+    <cfRule type="expression" dxfId="524" priority="173">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="219" priority="174">
+    <cfRule type="expression" dxfId="523" priority="174">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="218" priority="175">
+    <cfRule type="expression" dxfId="522" priority="175">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="217" priority="176">
+    <cfRule type="expression" dxfId="521" priority="176">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17:BQ17">
-    <cfRule type="expression" dxfId="216" priority="161">
+    <cfRule type="expression" dxfId="520" priority="161">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="215" priority="162">
+    <cfRule type="expression" dxfId="519" priority="162">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="214" priority="163">
+    <cfRule type="expression" dxfId="518" priority="163">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="213" priority="164">
+    <cfRule type="expression" dxfId="517" priority="164">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="212" priority="165">
+    <cfRule type="expression" dxfId="516" priority="165">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="211" priority="166">
+    <cfRule type="expression" dxfId="515" priority="166">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="210" priority="167">
+    <cfRule type="expression" dxfId="514" priority="167">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="209" priority="168">
+    <cfRule type="expression" dxfId="513" priority="168">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19:BQ19">
-    <cfRule type="expression" dxfId="208" priority="153">
+    <cfRule type="expression" dxfId="512" priority="153">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="207" priority="154">
+    <cfRule type="expression" dxfId="511" priority="154">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="206" priority="155">
+    <cfRule type="expression" dxfId="510" priority="155">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="205" priority="156">
+    <cfRule type="expression" dxfId="509" priority="156">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="204" priority="157">
+    <cfRule type="expression" dxfId="508" priority="157">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="203" priority="158">
+    <cfRule type="expression" dxfId="507" priority="158">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="202" priority="159">
+    <cfRule type="expression" dxfId="506" priority="159">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="201" priority="160">
+    <cfRule type="expression" dxfId="505" priority="160">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18:BQ18">
-    <cfRule type="expression" dxfId="200" priority="145">
+    <cfRule type="expression" dxfId="504" priority="145">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="199" priority="146">
+    <cfRule type="expression" dxfId="503" priority="146">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="198" priority="147">
+    <cfRule type="expression" dxfId="502" priority="147">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="197" priority="148">
+    <cfRule type="expression" dxfId="501" priority="148">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="196" priority="149">
+    <cfRule type="expression" dxfId="500" priority="149">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="195" priority="150">
+    <cfRule type="expression" dxfId="499" priority="150">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="194" priority="151">
+    <cfRule type="expression" dxfId="498" priority="151">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="193" priority="152">
+    <cfRule type="expression" dxfId="497" priority="152">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J24:BQ24">
-    <cfRule type="expression" dxfId="192" priority="129">
+    <cfRule type="expression" dxfId="496" priority="129">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="191" priority="130">
+    <cfRule type="expression" dxfId="495" priority="130">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="190" priority="131">
+    <cfRule type="expression" dxfId="494" priority="131">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="189" priority="132">
+    <cfRule type="expression" dxfId="493" priority="132">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="188" priority="133">
+    <cfRule type="expression" dxfId="492" priority="133">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="187" priority="134">
+    <cfRule type="expression" dxfId="491" priority="134">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="186" priority="135">
+    <cfRule type="expression" dxfId="490" priority="135">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="185" priority="136">
+    <cfRule type="expression" dxfId="489" priority="136">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28:BQ28">
-    <cfRule type="expression" dxfId="184" priority="121">
+    <cfRule type="expression" dxfId="488" priority="121">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="183" priority="122">
+    <cfRule type="expression" dxfId="487" priority="122">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="182" priority="123">
+    <cfRule type="expression" dxfId="486" priority="123">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="181" priority="124">
+    <cfRule type="expression" dxfId="485" priority="124">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="180" priority="125">
+    <cfRule type="expression" dxfId="484" priority="125">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="179" priority="126">
+    <cfRule type="expression" dxfId="483" priority="126">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="127">
+    <cfRule type="expression" dxfId="482" priority="127">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="177" priority="128">
+    <cfRule type="expression" dxfId="481" priority="128">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29:BQ29">
-    <cfRule type="expression" dxfId="176" priority="113">
+    <cfRule type="expression" dxfId="480" priority="113">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="175" priority="114">
+    <cfRule type="expression" dxfId="479" priority="114">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="115">
+    <cfRule type="expression" dxfId="478" priority="115">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="173" priority="116">
+    <cfRule type="expression" dxfId="477" priority="116">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="117">
+    <cfRule type="expression" dxfId="476" priority="117">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="118">
+    <cfRule type="expression" dxfId="475" priority="118">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="170" priority="119">
+    <cfRule type="expression" dxfId="474" priority="119">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="169" priority="120">
+    <cfRule type="expression" dxfId="473" priority="120">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30:BQ30">
-    <cfRule type="expression" dxfId="168" priority="105">
+    <cfRule type="expression" dxfId="472" priority="105">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="167" priority="106">
+    <cfRule type="expression" dxfId="471" priority="106">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="107">
+    <cfRule type="expression" dxfId="470" priority="107">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="108">
+    <cfRule type="expression" dxfId="469" priority="108">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="164" priority="109">
+    <cfRule type="expression" dxfId="468" priority="109">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="110">
+    <cfRule type="expression" dxfId="467" priority="110">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="111">
+    <cfRule type="expression" dxfId="466" priority="111">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="161" priority="112">
+    <cfRule type="expression" dxfId="465" priority="112">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J31:BQ31">
-    <cfRule type="expression" dxfId="160" priority="97">
+    <cfRule type="expression" dxfId="464" priority="97">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="159" priority="98">
+    <cfRule type="expression" dxfId="463" priority="98">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="99">
+    <cfRule type="expression" dxfId="462" priority="99">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="100">
+    <cfRule type="expression" dxfId="461" priority="100">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="101">
+    <cfRule type="expression" dxfId="460" priority="101">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="155" priority="102">
+    <cfRule type="expression" dxfId="459" priority="102">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="103">
+    <cfRule type="expression" dxfId="458" priority="103">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="104">
+    <cfRule type="expression" dxfId="457" priority="104">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32:BQ32">
-    <cfRule type="expression" dxfId="152" priority="89">
+    <cfRule type="expression" dxfId="456" priority="89">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="151" priority="90">
+    <cfRule type="expression" dxfId="455" priority="90">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="91">
+    <cfRule type="expression" dxfId="454" priority="91">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="149" priority="92">
+    <cfRule type="expression" dxfId="453" priority="92">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="93">
+    <cfRule type="expression" dxfId="452" priority="93">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="94">
+    <cfRule type="expression" dxfId="451" priority="94">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="95">
+    <cfRule type="expression" dxfId="450" priority="95">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="96">
+    <cfRule type="expression" dxfId="449" priority="96">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:BQ33">
-    <cfRule type="expression" dxfId="144" priority="81">
+    <cfRule type="expression" dxfId="448" priority="81">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="143" priority="82">
+    <cfRule type="expression" dxfId="447" priority="82">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="83">
+    <cfRule type="expression" dxfId="446" priority="83">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="84">
+    <cfRule type="expression" dxfId="445" priority="84">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="140" priority="85">
+    <cfRule type="expression" dxfId="444" priority="85">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="86">
+    <cfRule type="expression" dxfId="443" priority="86">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="87">
+    <cfRule type="expression" dxfId="442" priority="87">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="137" priority="88">
+    <cfRule type="expression" dxfId="441" priority="88">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21:BQ21">
-    <cfRule type="expression" dxfId="136" priority="73">
+    <cfRule type="expression" dxfId="440" priority="73">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="74">
+    <cfRule type="expression" dxfId="439" priority="74">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="75">
+    <cfRule type="expression" dxfId="438" priority="75">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="76">
+    <cfRule type="expression" dxfId="437" priority="76">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="77">
+    <cfRule type="expression" dxfId="436" priority="77">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="131" priority="78">
+    <cfRule type="expression" dxfId="435" priority="78">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="79">
+    <cfRule type="expression" dxfId="434" priority="79">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="80">
+    <cfRule type="expression" dxfId="433" priority="80">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20:BQ20">
-    <cfRule type="expression" dxfId="128" priority="65">
+    <cfRule type="expression" dxfId="432" priority="65">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="66">
+    <cfRule type="expression" dxfId="431" priority="66">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="67">
+    <cfRule type="expression" dxfId="430" priority="67">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="68">
+    <cfRule type="expression" dxfId="429" priority="68">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="69">
+    <cfRule type="expression" dxfId="428" priority="69">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="70">
+    <cfRule type="expression" dxfId="427" priority="70">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="71">
+    <cfRule type="expression" dxfId="426" priority="71">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="72">
+    <cfRule type="expression" dxfId="425" priority="72">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28:BQ28">
-    <cfRule type="expression" dxfId="120" priority="57">
+    <cfRule type="expression" dxfId="424" priority="57">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="119" priority="58">
+    <cfRule type="expression" dxfId="423" priority="58">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="59">
+    <cfRule type="expression" dxfId="422" priority="59">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="60">
+    <cfRule type="expression" dxfId="421" priority="60">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="61">
+    <cfRule type="expression" dxfId="420" priority="61">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="62">
+    <cfRule type="expression" dxfId="419" priority="62">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="63">
+    <cfRule type="expression" dxfId="418" priority="63">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="64">
+    <cfRule type="expression" dxfId="417" priority="64">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32:BQ32">
-    <cfRule type="expression" dxfId="112" priority="49">
+    <cfRule type="expression" dxfId="416" priority="49">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="50">
+    <cfRule type="expression" dxfId="415" priority="50">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="51">
+    <cfRule type="expression" dxfId="414" priority="51">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="52">
+    <cfRule type="expression" dxfId="413" priority="52">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="53">
+    <cfRule type="expression" dxfId="412" priority="53">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="54">
+    <cfRule type="expression" dxfId="411" priority="54">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="55">
+    <cfRule type="expression" dxfId="410" priority="55">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="56">
+    <cfRule type="expression" dxfId="409" priority="56">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:BQ33">
-    <cfRule type="expression" dxfId="104" priority="41">
+    <cfRule type="expression" dxfId="408" priority="41">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="42">
+    <cfRule type="expression" dxfId="407" priority="42">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="43">
+    <cfRule type="expression" dxfId="406" priority="43">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="44">
+    <cfRule type="expression" dxfId="405" priority="44">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="45">
+    <cfRule type="expression" dxfId="404" priority="45">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="46">
+    <cfRule type="expression" dxfId="403" priority="46">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="47">
+    <cfRule type="expression" dxfId="402" priority="47">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="48">
+    <cfRule type="expression" dxfId="401" priority="48">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34:BQ34">
-    <cfRule type="expression" dxfId="96" priority="33">
+    <cfRule type="expression" dxfId="400" priority="33">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="34">
+    <cfRule type="expression" dxfId="399" priority="34">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="35">
+    <cfRule type="expression" dxfId="398" priority="35">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="36">
+    <cfRule type="expression" dxfId="397" priority="36">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="37">
+    <cfRule type="expression" dxfId="396" priority="37">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="38">
+    <cfRule type="expression" dxfId="395" priority="38">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="39">
+    <cfRule type="expression" dxfId="394" priority="39">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="40">
+    <cfRule type="expression" dxfId="393" priority="40">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J35:BQ35">
-    <cfRule type="expression" dxfId="88" priority="25">
+    <cfRule type="expression" dxfId="392" priority="25">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="26">
+    <cfRule type="expression" dxfId="391" priority="26">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="27">
+    <cfRule type="expression" dxfId="390" priority="27">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="28">
+    <cfRule type="expression" dxfId="389" priority="28">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="29">
+    <cfRule type="expression" dxfId="388" priority="29">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="30">
+    <cfRule type="expression" dxfId="387" priority="30">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="31">
+    <cfRule type="expression" dxfId="386" priority="31">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="32">
+    <cfRule type="expression" dxfId="385" priority="32">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J36:BQ36">
-    <cfRule type="expression" dxfId="80" priority="17">
+    <cfRule type="expression" dxfId="384" priority="17">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="18">
+    <cfRule type="expression" dxfId="383" priority="18">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="19">
+    <cfRule type="expression" dxfId="382" priority="19">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="20">
+    <cfRule type="expression" dxfId="381" priority="20">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="21">
+    <cfRule type="expression" dxfId="380" priority="21">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="22">
+    <cfRule type="expression" dxfId="379" priority="22">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="23">
+    <cfRule type="expression" dxfId="378" priority="23">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="24">
+    <cfRule type="expression" dxfId="377" priority="24">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37:BQ37">
-    <cfRule type="expression" dxfId="72" priority="9">
+    <cfRule type="expression" dxfId="376" priority="9">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="10">
+    <cfRule type="expression" dxfId="375" priority="10">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="11">
+    <cfRule type="expression" dxfId="374" priority="11">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="12">
+    <cfRule type="expression" dxfId="373" priority="12">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="13">
+    <cfRule type="expression" dxfId="372" priority="13">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="14">
+    <cfRule type="expression" dxfId="371" priority="14">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="15">
+    <cfRule type="expression" dxfId="370" priority="15">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="16">
+    <cfRule type="expression" dxfId="369" priority="16">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J38:BQ38">
-    <cfRule type="expression" dxfId="64" priority="1">
+    <cfRule type="expression" dxfId="368" priority="1">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="2">
+    <cfRule type="expression" dxfId="367" priority="2">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="3">
+    <cfRule type="expression" dxfId="366" priority="3">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="4">
+    <cfRule type="expression" dxfId="365" priority="4">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="5">
+    <cfRule type="expression" dxfId="364" priority="5">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="6">
+    <cfRule type="expression" dxfId="363" priority="6">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="7">
+    <cfRule type="expression" dxfId="362" priority="7">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="8">
+    <cfRule type="expression" dxfId="361" priority="8">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12835,150 +17159,158 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40A61225-B12D-4BAE-9D75-D1D3D756E302}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A14934-0F81-4C6F-A804-ADC8952501E6}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:BQ20"/>
+  <dimension ref="B2:BR36"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="33.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="4.21875" style="1" customWidth="1"/>
-    <col min="9" max="28" width="3.5546875" style="1" customWidth="1"/>
-    <col min="29" max="68" width="3.5546875" customWidth="1"/>
+    <col min="2" max="2" width="41.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.21875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.44140625" style="5" customWidth="1"/>
+    <col min="9" max="29" width="3.5546875" style="1" customWidth="1"/>
+    <col min="30" max="69" width="3.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:69" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:70" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B2" s="38" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C2" s="38"/>
       <c r="D2" s="38"/>
       <c r="E2" s="38"/>
       <c r="F2" s="38"/>
       <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
     </row>
-    <row r="3" spans="2:69" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:70" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
       <c r="D3" s="38"/>
       <c r="E3" s="38"/>
       <c r="F3" s="38"/>
       <c r="G3" s="38"/>
-      <c r="H3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="6"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
-      <c r="M3" s="35">
+      <c r="M3" s="6"/>
+      <c r="N3" s="35">
+        <f ca="1">TODAY()-DATE(2020, 9, 13)</f>
         <v>0</v>
       </c>
-      <c r="N3" s="35"/>
-      <c r="O3" s="6"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="16" t="s">
-        <v>7</v>
+      <c r="O3" s="35"/>
+      <c r="P3" s="6"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="16" t="s">
+        <v>6</v>
       </c>
       <c r="U3" s="9"/>
       <c r="V3" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AB3" s="11"/>
       <c r="AC3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="AH3" s="1"/>
+        <v>10</v>
+      </c>
       <c r="AI3" s="1"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
     </row>
-    <row r="4" spans="2:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:70" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="38"/>
       <c r="C4" s="38"/>
       <c r="D4" s="38"/>
       <c r="E4" s="38"/>
       <c r="F4" s="38"/>
       <c r="G4" s="38"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="16" t="s">
-        <v>8</v>
+      <c r="H4" s="38"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="16" t="s">
+        <v>7</v>
       </c>
       <c r="U4" s="10"/>
       <c r="V4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="AT4" s="1"/>
+        <v>9</v>
+      </c>
       <c r="AU4" s="1"/>
       <c r="AV4" s="1"/>
       <c r="AW4" s="1"/>
       <c r="AX4" s="1"/>
+      <c r="AY4" s="1"/>
     </row>
-    <row r="5" spans="2:69" x14ac:dyDescent="0.35">
-      <c r="AT5" s="1"/>
+    <row r="5" spans="2:70" x14ac:dyDescent="0.35">
       <c r="AU5" s="1"/>
       <c r="AV5" s="1"/>
+      <c r="AW5" s="1"/>
     </row>
-    <row r="6" spans="2:69" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B6" s="17"/>
-      <c r="C6" s="36" t="s">
+    <row r="6" spans="2:70" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B6" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="F6" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="G6" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="36" t="s">
+      <c r="H6" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="36" t="s">
+      <c r="I6" s="17"/>
+      <c r="J6" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="17"/>
-      <c r="I6" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="18"/>
       <c r="M6" s="18"/>
-      <c r="AT6" s="1"/>
+      <c r="N6" s="18"/>
       <c r="AU6" s="1"/>
       <c r="AV6" s="1"/>
+      <c r="AW6" s="1"/>
     </row>
-    <row r="7" spans="2:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
+    <row r="7" spans="2:70" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="37"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="18"/>
       <c r="M7" s="18"/>
-      <c r="AC7" s="26"/>
+      <c r="N7" s="18"/>
       <c r="AD7" s="26"/>
+      <c r="AE7" s="26"/>
     </row>
-    <row r="8" spans="2:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -12986,812 +17318,1765 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="3">
+      <c r="I8" s="3"/>
+      <c r="J8" s="3">
         <v>1</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>8</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>9</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>10</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>11</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>12</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>13</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>14</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>15</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>16</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>17</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>18</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>19</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>20</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>21</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>22</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>23</v>
       </c>
-      <c r="AF8" s="3">
+      <c r="AG8" s="3">
         <v>24</v>
       </c>
-      <c r="AG8" s="3">
+      <c r="AH8" s="3">
         <v>25</v>
       </c>
-      <c r="AH8" s="3">
+      <c r="AI8" s="3">
         <v>26</v>
       </c>
-      <c r="AI8" s="3">
+      <c r="AJ8" s="3">
         <v>27</v>
       </c>
-      <c r="AJ8" s="3">
+      <c r="AK8" s="3">
         <v>28</v>
       </c>
-      <c r="AK8" s="3">
+      <c r="AL8" s="3">
         <v>29</v>
       </c>
-      <c r="AL8" s="3">
+      <c r="AM8" s="3">
         <v>30</v>
       </c>
-      <c r="AM8" s="3">
+      <c r="AN8" s="3">
         <v>31</v>
       </c>
-      <c r="AN8" s="3">
+      <c r="AO8" s="3">
         <v>32</v>
       </c>
-      <c r="AO8" s="3">
+      <c r="AP8" s="3">
         <v>33</v>
       </c>
-      <c r="AP8" s="3">
+      <c r="AQ8" s="3">
         <v>34</v>
       </c>
-      <c r="AQ8" s="3">
+      <c r="AR8" s="3">
         <v>35</v>
       </c>
-      <c r="AR8" s="3">
+      <c r="AS8" s="3">
         <v>36</v>
       </c>
-      <c r="AS8" s="3">
+      <c r="AT8" s="3">
         <v>37</v>
       </c>
-      <c r="AT8" s="3">
+      <c r="AU8" s="3">
         <v>38</v>
       </c>
-      <c r="AU8" s="3">
+      <c r="AV8" s="3">
         <v>39</v>
       </c>
-      <c r="AV8" s="3">
+      <c r="AW8" s="3">
         <v>40</v>
       </c>
-      <c r="AW8" s="3">
+      <c r="AX8" s="3">
         <v>41</v>
       </c>
-      <c r="AX8" s="3">
+      <c r="AY8" s="3">
         <v>42</v>
       </c>
-      <c r="AY8" s="3">
+      <c r="AZ8" s="3">
         <v>43</v>
       </c>
-      <c r="AZ8" s="3">
+      <c r="BA8" s="3">
         <v>44</v>
       </c>
-      <c r="BA8" s="3">
+      <c r="BB8" s="3">
         <v>45</v>
       </c>
-      <c r="BB8" s="3">
+      <c r="BC8" s="3">
         <v>46</v>
       </c>
-      <c r="BC8" s="3">
+      <c r="BD8" s="3">
         <v>47</v>
       </c>
-      <c r="BD8" s="3">
+      <c r="BE8" s="3">
         <v>48</v>
       </c>
-      <c r="BE8" s="3">
+      <c r="BF8" s="3">
         <v>49</v>
       </c>
-      <c r="BF8" s="3">
+      <c r="BG8" s="3">
         <v>50</v>
       </c>
-      <c r="BG8" s="3">
+      <c r="BH8" s="3">
         <v>51</v>
       </c>
-      <c r="BH8" s="3">
+      <c r="BI8" s="3">
         <v>52</v>
       </c>
-      <c r="BI8" s="3">
+      <c r="BJ8" s="3">
         <v>53</v>
       </c>
-      <c r="BJ8" s="3">
+      <c r="BK8" s="3">
         <v>54</v>
       </c>
-      <c r="BK8" s="3">
+      <c r="BL8" s="3">
         <v>55</v>
       </c>
-      <c r="BL8" s="3">
+      <c r="BM8" s="3">
         <v>56</v>
       </c>
-      <c r="BM8" s="3">
+      <c r="BN8" s="3">
         <v>57</v>
       </c>
-      <c r="BN8" s="3">
+      <c r="BO8" s="3">
         <v>58</v>
       </c>
-      <c r="BO8" s="3">
+      <c r="BP8" s="3">
         <v>59</v>
       </c>
-      <c r="BP8" s="3">
+      <c r="BQ8" s="3">
         <v>60</v>
       </c>
-      <c r="BQ8" s="1"/>
+      <c r="BR8" s="1"/>
     </row>
-    <row r="9" spans="2:69" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="22">
+    <row r="9" spans="2:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="13">
         <v>1</v>
       </c>
-      <c r="D9" s="22">
+      <c r="E9" s="13">
+        <v>7</v>
+      </c>
+      <c r="F9" s="13">
+        <v>1</v>
+      </c>
+      <c r="G9" s="13">
+        <v>7</v>
+      </c>
+      <c r="H9" s="14">
+        <v>0</v>
+      </c>
+      <c r="BR9" s="1"/>
+    </row>
+    <row r="10" spans="2:70" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="13">
+        <v>1</v>
+      </c>
+      <c r="E10" s="13">
+        <v>7</v>
+      </c>
+      <c r="F10" s="13">
+        <v>1</v>
+      </c>
+      <c r="G10" s="13">
+        <v>7</v>
+      </c>
+      <c r="H10" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD10"/>
+      <c r="AE10"/>
+      <c r="AF10"/>
+      <c r="AG10"/>
+      <c r="AH10"/>
+      <c r="AI10"/>
+      <c r="AJ10"/>
+      <c r="AK10"/>
+      <c r="AL10"/>
+      <c r="AM10"/>
+      <c r="AN10"/>
+      <c r="AO10"/>
+      <c r="AP10"/>
+      <c r="AQ10"/>
+      <c r="AR10"/>
+      <c r="AS10"/>
+      <c r="AT10"/>
+      <c r="AU10"/>
+      <c r="AV10"/>
+      <c r="AW10"/>
+      <c r="AX10"/>
+      <c r="AY10"/>
+      <c r="AZ10"/>
+      <c r="BA10"/>
+      <c r="BB10"/>
+      <c r="BC10"/>
+      <c r="BD10"/>
+      <c r="BE10"/>
+      <c r="BF10"/>
+      <c r="BG10"/>
+      <c r="BH10"/>
+      <c r="BI10"/>
+      <c r="BJ10"/>
+      <c r="BK10"/>
+      <c r="BL10"/>
+      <c r="BM10"/>
+      <c r="BN10"/>
+      <c r="BO10"/>
+      <c r="BP10"/>
+      <c r="BQ10"/>
+      <c r="BR10"/>
+    </row>
+    <row r="11" spans="2:70" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="13">
         <v>15</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E11" s="13">
+        <v>7</v>
+      </c>
+      <c r="F11" s="13">
+        <v>15</v>
+      </c>
+      <c r="G11" s="13">
+        <v>7</v>
+      </c>
+      <c r="H11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD11"/>
+      <c r="AE11"/>
+      <c r="AF11"/>
+      <c r="AG11"/>
+      <c r="AH11"/>
+      <c r="AI11"/>
+      <c r="AJ11"/>
+      <c r="AK11"/>
+      <c r="AL11"/>
+      <c r="AM11"/>
+      <c r="AN11"/>
+      <c r="AO11"/>
+      <c r="AP11"/>
+      <c r="AQ11"/>
+      <c r="AR11"/>
+      <c r="AS11"/>
+      <c r="AT11"/>
+      <c r="AU11"/>
+      <c r="AV11"/>
+      <c r="AW11"/>
+      <c r="AX11"/>
+      <c r="AY11"/>
+      <c r="AZ11"/>
+      <c r="BA11"/>
+      <c r="BB11"/>
+      <c r="BC11"/>
+      <c r="BD11"/>
+      <c r="BE11"/>
+      <c r="BF11"/>
+      <c r="BG11"/>
+      <c r="BH11"/>
+      <c r="BI11"/>
+      <c r="BJ11"/>
+      <c r="BK11"/>
+      <c r="BL11"/>
+      <c r="BM11"/>
+      <c r="BN11"/>
+      <c r="BO11"/>
+      <c r="BP11"/>
+      <c r="BQ11"/>
+      <c r="BR11"/>
+    </row>
+    <row r="12" spans="2:70" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="13">
+        <v>15</v>
+      </c>
+      <c r="E12" s="13">
+        <v>7</v>
+      </c>
+      <c r="F12" s="13">
+        <v>15</v>
+      </c>
+      <c r="G12" s="13">
+        <v>7</v>
+      </c>
+      <c r="H12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD12"/>
+      <c r="AE12"/>
+      <c r="AF12"/>
+      <c r="AG12"/>
+      <c r="AH12"/>
+      <c r="AI12"/>
+      <c r="AJ12"/>
+      <c r="AK12"/>
+      <c r="AL12"/>
+      <c r="AM12"/>
+      <c r="AN12"/>
+      <c r="AO12"/>
+      <c r="AP12"/>
+      <c r="AQ12"/>
+      <c r="AR12"/>
+      <c r="AS12"/>
+      <c r="AT12"/>
+      <c r="AU12"/>
+      <c r="AV12"/>
+      <c r="AW12"/>
+      <c r="AX12"/>
+      <c r="AY12"/>
+      <c r="AZ12"/>
+      <c r="BA12"/>
+      <c r="BB12"/>
+      <c r="BC12"/>
+      <c r="BD12"/>
+      <c r="BE12"/>
+      <c r="BF12"/>
+      <c r="BG12"/>
+      <c r="BH12"/>
+      <c r="BI12"/>
+      <c r="BJ12"/>
+      <c r="BK12"/>
+      <c r="BL12"/>
+      <c r="BM12"/>
+      <c r="BN12"/>
+      <c r="BO12"/>
+      <c r="BP12"/>
+      <c r="BQ12"/>
+      <c r="BR12"/>
+    </row>
+    <row r="13" spans="2:70" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="13">
+        <v>22</v>
+      </c>
+      <c r="E13" s="13">
+        <v>7</v>
+      </c>
+      <c r="F13" s="13">
+        <v>22</v>
+      </c>
+      <c r="G13" s="13">
+        <v>7</v>
+      </c>
+      <c r="H13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD13"/>
+      <c r="AE13"/>
+      <c r="AF13"/>
+      <c r="AG13"/>
+      <c r="AH13"/>
+      <c r="AI13"/>
+      <c r="AJ13"/>
+      <c r="AK13"/>
+      <c r="AL13"/>
+      <c r="AM13"/>
+      <c r="AN13"/>
+      <c r="AO13"/>
+      <c r="AP13"/>
+      <c r="AQ13"/>
+      <c r="AR13"/>
+      <c r="AS13"/>
+      <c r="AT13"/>
+      <c r="AU13"/>
+      <c r="AV13"/>
+      <c r="AW13"/>
+      <c r="AX13"/>
+      <c r="AY13"/>
+      <c r="AZ13"/>
+      <c r="BA13"/>
+      <c r="BB13"/>
+      <c r="BC13"/>
+      <c r="BD13"/>
+      <c r="BE13"/>
+      <c r="BF13"/>
+      <c r="BG13"/>
+      <c r="BH13"/>
+      <c r="BI13"/>
+      <c r="BJ13"/>
+      <c r="BK13"/>
+      <c r="BL13"/>
+      <c r="BM13"/>
+      <c r="BN13"/>
+      <c r="BO13"/>
+      <c r="BP13"/>
+      <c r="BQ13"/>
+      <c r="BR13"/>
+    </row>
+    <row r="14" spans="2:70" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="13">
         <v>1</v>
       </c>
-      <c r="F9" s="22">
+      <c r="E14" s="13">
+        <v>7</v>
+      </c>
+      <c r="F14" s="13">
+        <v>1</v>
+      </c>
+      <c r="G14" s="13">
+        <v>7</v>
+      </c>
+      <c r="H14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD14"/>
+      <c r="AE14"/>
+      <c r="AF14"/>
+      <c r="AG14"/>
+      <c r="AH14"/>
+      <c r="AI14"/>
+      <c r="AJ14"/>
+      <c r="AK14"/>
+      <c r="AL14"/>
+      <c r="AM14"/>
+      <c r="AN14"/>
+      <c r="AO14"/>
+      <c r="AP14"/>
+      <c r="AQ14"/>
+      <c r="AR14"/>
+      <c r="AS14"/>
+      <c r="AT14"/>
+      <c r="AU14"/>
+      <c r="AV14"/>
+      <c r="AW14"/>
+      <c r="AX14"/>
+      <c r="AY14"/>
+      <c r="AZ14"/>
+      <c r="BA14"/>
+      <c r="BB14"/>
+      <c r="BC14"/>
+      <c r="BD14"/>
+      <c r="BE14"/>
+      <c r="BF14"/>
+      <c r="BG14"/>
+      <c r="BH14"/>
+      <c r="BI14"/>
+      <c r="BJ14"/>
+      <c r="BK14"/>
+      <c r="BL14"/>
+      <c r="BM14"/>
+      <c r="BN14"/>
+      <c r="BO14"/>
+      <c r="BP14"/>
+      <c r="BQ14"/>
+      <c r="BR14"/>
+    </row>
+    <row r="15" spans="2:70" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="13">
+        <v>8</v>
+      </c>
+      <c r="E15" s="13">
+        <v>7</v>
+      </c>
+      <c r="F15" s="13">
+        <v>8</v>
+      </c>
+      <c r="G15" s="13">
+        <v>7</v>
+      </c>
+      <c r="H15" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:70" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="22">
+        <v>8</v>
+      </c>
+      <c r="E16" s="22">
+        <v>7</v>
+      </c>
+      <c r="F16" s="22">
+        <v>8</v>
+      </c>
+      <c r="G16" s="22">
+        <v>7</v>
+      </c>
+      <c r="H16" s="23">
+        <v>0</v>
+      </c>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="24"/>
+      <c r="U16" s="24"/>
+      <c r="V16" s="24"/>
+      <c r="W16" s="24"/>
+      <c r="X16" s="24"/>
+      <c r="Y16" s="24"/>
+      <c r="Z16" s="24"/>
+      <c r="AA16" s="24"/>
+      <c r="AB16" s="24"/>
+      <c r="AC16" s="24"/>
+      <c r="AD16" s="25"/>
+      <c r="AE16" s="25"/>
+      <c r="AF16" s="25"/>
+      <c r="AG16" s="25"/>
+      <c r="AH16" s="25"/>
+      <c r="AI16" s="25"/>
+      <c r="AJ16" s="25"/>
+      <c r="AK16" s="25"/>
+      <c r="AL16" s="25"/>
+      <c r="AM16" s="25"/>
+      <c r="AN16" s="25"/>
+      <c r="AO16" s="25"/>
+      <c r="AP16" s="25"/>
+      <c r="AQ16" s="25"/>
+      <c r="AR16" s="25"/>
+      <c r="AS16" s="25"/>
+      <c r="AT16" s="25"/>
+      <c r="AU16" s="25"/>
+      <c r="AV16" s="25"/>
+      <c r="AW16" s="25"/>
+      <c r="AX16" s="25"/>
+      <c r="AY16" s="25"/>
+      <c r="AZ16" s="25"/>
+      <c r="BA16" s="25"/>
+      <c r="BB16" s="25"/>
+      <c r="BC16" s="25"/>
+      <c r="BD16" s="25"/>
+      <c r="BE16" s="25"/>
+      <c r="BF16" s="25"/>
+      <c r="BG16" s="25"/>
+      <c r="BH16" s="25"/>
+      <c r="BI16" s="25"/>
+      <c r="BJ16" s="25"/>
+      <c r="BK16" s="25"/>
+      <c r="BL16" s="25"/>
+      <c r="BM16" s="25"/>
+      <c r="BN16" s="25"/>
+      <c r="BO16" s="25"/>
+      <c r="BP16" s="25"/>
+      <c r="BQ16" s="25"/>
+    </row>
+    <row r="17" spans="2:69" x14ac:dyDescent="0.35">
+      <c r="B17" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="22">
         <v>15</v>
       </c>
-      <c r="G9" s="23">
+      <c r="E17" s="22">
+        <v>7</v>
+      </c>
+      <c r="F17" s="22">
+        <v>15</v>
+      </c>
+      <c r="G17" s="22">
+        <v>7</v>
+      </c>
+      <c r="H17" s="23">
         <v>0</v>
       </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="24"/>
-      <c r="U9" s="24"/>
-      <c r="V9" s="24"/>
-      <c r="W9" s="24"/>
-      <c r="X9" s="24"/>
-      <c r="Y9" s="24"/>
-      <c r="Z9" s="24"/>
-      <c r="AA9" s="24"/>
-      <c r="AB9" s="24"/>
-      <c r="AC9" s="25"/>
-      <c r="AD9" s="25"/>
-      <c r="AE9" s="25"/>
-      <c r="AF9" s="25"/>
-      <c r="AG9" s="25"/>
-      <c r="AH9" s="25"/>
-      <c r="AI9" s="25"/>
-      <c r="AJ9" s="25"/>
-      <c r="AK9" s="25"/>
-      <c r="AL9" s="25"/>
-      <c r="AM9" s="25"/>
-      <c r="AN9" s="25"/>
-      <c r="AO9" s="25"/>
-      <c r="AP9" s="25"/>
-      <c r="AQ9" s="25"/>
-      <c r="AR9" s="25"/>
-      <c r="AS9" s="25"/>
-      <c r="AT9" s="25"/>
-      <c r="AU9" s="25"/>
-      <c r="AV9" s="25"/>
-      <c r="AW9" s="25"/>
-      <c r="AX9" s="25"/>
-      <c r="AY9" s="25"/>
-      <c r="AZ9" s="25"/>
-      <c r="BA9" s="25"/>
-      <c r="BB9" s="25"/>
-      <c r="BC9" s="25"/>
-      <c r="BD9" s="25"/>
-      <c r="BE9" s="25"/>
-      <c r="BF9" s="25"/>
-      <c r="BG9" s="25"/>
-      <c r="BH9" s="25"/>
-      <c r="BI9" s="25"/>
-      <c r="BJ9" s="25"/>
-      <c r="BK9" s="25"/>
-      <c r="BL9" s="25"/>
-      <c r="BM9" s="25"/>
-      <c r="BN9" s="25"/>
-      <c r="BO9" s="25"/>
-      <c r="BP9" s="25"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="24"/>
+      <c r="U17" s="24"/>
+      <c r="V17" s="24"/>
+      <c r="W17" s="24"/>
+      <c r="X17" s="24"/>
+      <c r="Y17" s="24"/>
+      <c r="Z17" s="24"/>
+      <c r="AA17" s="24"/>
+      <c r="AB17" s="24"/>
+      <c r="AC17" s="24"/>
+      <c r="AD17" s="25"/>
+      <c r="AE17" s="25"/>
+      <c r="AF17" s="25"/>
+      <c r="AG17" s="25"/>
+      <c r="AH17" s="25"/>
+      <c r="AI17" s="25"/>
+      <c r="AJ17" s="25"/>
+      <c r="AK17" s="25"/>
+      <c r="AL17" s="25"/>
+      <c r="AM17" s="25"/>
+      <c r="AN17" s="25"/>
+      <c r="AO17" s="25"/>
+      <c r="AP17" s="25"/>
+      <c r="AQ17" s="25"/>
+      <c r="AR17" s="25"/>
+      <c r="AS17" s="25"/>
+      <c r="AT17" s="25"/>
+      <c r="AU17" s="25"/>
+      <c r="AV17" s="25"/>
+      <c r="AW17" s="25"/>
+      <c r="AX17" s="25"/>
+      <c r="AY17" s="25"/>
+      <c r="AZ17" s="25"/>
+      <c r="BA17" s="25"/>
+      <c r="BB17" s="25"/>
+      <c r="BC17" s="25"/>
+      <c r="BD17" s="25"/>
+      <c r="BE17" s="25"/>
+      <c r="BF17" s="25"/>
+      <c r="BG17" s="25"/>
+      <c r="BH17" s="25"/>
+      <c r="BI17" s="25"/>
+      <c r="BJ17" s="25"/>
+      <c r="BK17" s="25"/>
+      <c r="BL17" s="25"/>
+      <c r="BM17" s="25"/>
+      <c r="BN17" s="25"/>
+      <c r="BO17" s="25"/>
+      <c r="BP17" s="25"/>
+      <c r="BQ17" s="25"/>
     </row>
-    <row r="10" spans="2:69" x14ac:dyDescent="0.35">
-      <c r="B10" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="22">
-        <v>1</v>
-      </c>
-      <c r="D10" s="22">
-        <v>15</v>
-      </c>
-      <c r="E10" s="22">
-        <v>1</v>
-      </c>
-      <c r="F10" s="22">
-        <v>15</v>
-      </c>
-      <c r="G10" s="23">
+    <row r="18" spans="2:69" x14ac:dyDescent="0.35">
+      <c r="B18" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="22">
+        <v>22</v>
+      </c>
+      <c r="E18" s="22">
+        <v>7</v>
+      </c>
+      <c r="F18" s="22">
+        <v>22</v>
+      </c>
+      <c r="G18" s="22">
+        <v>7</v>
+      </c>
+      <c r="H18" s="23">
         <v>0</v>
       </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="24"/>
-      <c r="T10" s="24"/>
-      <c r="U10" s="24"/>
-      <c r="V10" s="24"/>
-      <c r="W10" s="24"/>
-      <c r="X10" s="24"/>
-      <c r="Y10" s="24"/>
-      <c r="Z10" s="24"/>
-      <c r="AA10" s="24"/>
-      <c r="AB10" s="24"/>
-      <c r="AC10" s="25"/>
-      <c r="AD10" s="25"/>
-      <c r="AE10" s="25"/>
-      <c r="AF10" s="25"/>
-      <c r="AG10" s="25"/>
-      <c r="AH10" s="25"/>
-      <c r="AI10" s="25"/>
-      <c r="AJ10" s="25"/>
-      <c r="AK10" s="25"/>
-      <c r="AL10" s="25"/>
-      <c r="AM10" s="25"/>
-      <c r="AN10" s="25"/>
-      <c r="AO10" s="25"/>
-      <c r="AP10" s="25"/>
-      <c r="AQ10" s="25"/>
-      <c r="AR10" s="25"/>
-      <c r="AS10" s="25"/>
-      <c r="AT10" s="25"/>
-      <c r="AU10" s="25"/>
-      <c r="AV10" s="25"/>
-      <c r="AW10" s="25"/>
-      <c r="AX10" s="25"/>
-      <c r="AY10" s="25"/>
-      <c r="AZ10" s="25"/>
-      <c r="BA10" s="25"/>
-      <c r="BB10" s="25"/>
-      <c r="BC10" s="25"/>
-      <c r="BD10" s="25"/>
-      <c r="BE10" s="25"/>
-      <c r="BF10" s="25"/>
-      <c r="BG10" s="25"/>
-      <c r="BH10" s="25"/>
-      <c r="BI10" s="25"/>
-      <c r="BJ10" s="25"/>
-      <c r="BK10" s="25"/>
-      <c r="BL10" s="25"/>
-      <c r="BM10" s="25"/>
-      <c r="BN10" s="25"/>
-      <c r="BO10" s="25"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="24"/>
+      <c r="U18" s="24"/>
+      <c r="V18" s="24"/>
+      <c r="W18" s="24"/>
+      <c r="X18" s="24"/>
+      <c r="Y18" s="24"/>
+      <c r="Z18" s="24"/>
+      <c r="AA18" s="24"/>
+      <c r="AB18" s="24"/>
+      <c r="AC18" s="24"/>
+      <c r="AD18" s="25"/>
+      <c r="AE18" s="25"/>
+      <c r="AF18" s="25"/>
+      <c r="AG18" s="25"/>
+      <c r="AH18" s="25"/>
+      <c r="AI18" s="25"/>
+      <c r="AJ18" s="25"/>
+      <c r="AK18" s="25"/>
+      <c r="AL18" s="25"/>
+      <c r="AM18" s="25"/>
+      <c r="AN18" s="25"/>
+      <c r="AO18" s="25"/>
+      <c r="AP18" s="25"/>
+      <c r="AQ18" s="25"/>
+      <c r="AR18" s="25"/>
+      <c r="AS18" s="25"/>
+      <c r="AT18" s="25"/>
+      <c r="AU18" s="25"/>
+      <c r="AV18" s="25"/>
+      <c r="AW18" s="25"/>
+      <c r="AX18" s="25"/>
+      <c r="AY18" s="25"/>
+      <c r="AZ18" s="25"/>
+      <c r="BA18" s="25"/>
+      <c r="BB18" s="25"/>
+      <c r="BC18" s="25"/>
+      <c r="BD18" s="25"/>
+      <c r="BE18" s="25"/>
+      <c r="BF18" s="25"/>
+      <c r="BG18" s="25"/>
+      <c r="BH18" s="25"/>
+      <c r="BI18" s="25"/>
+      <c r="BJ18" s="25"/>
+      <c r="BK18" s="25"/>
+      <c r="BL18" s="25"/>
+      <c r="BM18" s="25"/>
+      <c r="BN18" s="25"/>
+      <c r="BO18" s="25"/>
+      <c r="BP18" s="25"/>
+      <c r="BQ18" s="25"/>
     </row>
-    <row r="11" spans="2:69" x14ac:dyDescent="0.35">
-      <c r="B11" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="22">
-        <v>15</v>
-      </c>
-      <c r="D11" s="22">
+    <row r="19" spans="2:69" x14ac:dyDescent="0.35">
+      <c r="B19" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="22">
+        <v>22</v>
+      </c>
+      <c r="E19" s="22">
         <v>7</v>
       </c>
-      <c r="E11" s="22">
-        <v>15</v>
-      </c>
-      <c r="F11" s="22">
+      <c r="F19" s="22">
+        <v>22</v>
+      </c>
+      <c r="G19" s="22">
         <v>7</v>
       </c>
-      <c r="G11" s="23">
+      <c r="H19" s="23">
         <v>0</v>
       </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="24"/>
-      <c r="U11" s="24"/>
-      <c r="V11" s="24"/>
-      <c r="W11" s="24"/>
-      <c r="X11" s="24"/>
-      <c r="Y11" s="24"/>
-      <c r="Z11" s="24"/>
-      <c r="AA11" s="24"/>
-      <c r="AB11" s="24"/>
-      <c r="AC11" s="25"/>
-      <c r="AD11" s="25"/>
-      <c r="AE11" s="25"/>
-      <c r="AF11" s="25"/>
-      <c r="AG11" s="25"/>
-      <c r="AH11" s="25"/>
-      <c r="AI11" s="25"/>
-      <c r="AJ11" s="25"/>
-      <c r="AK11" s="25"/>
-      <c r="AL11" s="25"/>
-      <c r="AM11" s="25"/>
-      <c r="AN11" s="25"/>
-      <c r="AO11" s="25"/>
-      <c r="AP11" s="25"/>
-      <c r="AQ11" s="25"/>
-      <c r="AR11" s="25"/>
-      <c r="AS11" s="25"/>
-      <c r="AT11" s="25"/>
-      <c r="AU11" s="25"/>
-      <c r="AV11" s="25"/>
-      <c r="AW11" s="25"/>
-      <c r="AX11" s="25"/>
-      <c r="AY11" s="25"/>
-      <c r="AZ11" s="25"/>
-      <c r="BA11" s="25"/>
-      <c r="BB11" s="25"/>
-      <c r="BC11" s="25"/>
-      <c r="BD11" s="25"/>
-      <c r="BE11" s="25"/>
-      <c r="BF11" s="25"/>
-      <c r="BG11" s="25"/>
-      <c r="BH11" s="25"/>
-      <c r="BI11" s="25"/>
-      <c r="BJ11" s="25"/>
-      <c r="BK11" s="25"/>
-      <c r="BL11" s="25"/>
-      <c r="BM11" s="25"/>
-      <c r="BN11" s="25"/>
-      <c r="BO11" s="25"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="24"/>
+      <c r="T19" s="24"/>
+      <c r="U19" s="24"/>
+      <c r="V19" s="24"/>
+      <c r="W19" s="24"/>
+      <c r="X19" s="24"/>
+      <c r="Y19" s="24"/>
+      <c r="Z19" s="24"/>
+      <c r="AA19" s="24"/>
+      <c r="AB19" s="24"/>
+      <c r="AC19" s="24"/>
+      <c r="AD19" s="25"/>
+      <c r="AE19" s="25"/>
+      <c r="AF19" s="25"/>
+      <c r="AG19" s="25"/>
+      <c r="AH19" s="25"/>
+      <c r="AI19" s="25"/>
+      <c r="AJ19" s="25"/>
+      <c r="AK19" s="25"/>
+      <c r="AL19" s="25"/>
+      <c r="AM19" s="25"/>
+      <c r="AN19" s="25"/>
+      <c r="AO19" s="25"/>
+      <c r="AP19" s="25"/>
+      <c r="AQ19" s="25"/>
+      <c r="AR19" s="25"/>
+      <c r="AS19" s="25"/>
+      <c r="AT19" s="25"/>
+      <c r="AU19" s="25"/>
+      <c r="AV19" s="25"/>
+      <c r="AW19" s="25"/>
+      <c r="AX19" s="25"/>
+      <c r="AY19" s="25"/>
+      <c r="AZ19" s="25"/>
+      <c r="BA19" s="25"/>
+      <c r="BB19" s="25"/>
+      <c r="BC19" s="25"/>
+      <c r="BD19" s="25"/>
+      <c r="BE19" s="25"/>
+      <c r="BF19" s="25"/>
+      <c r="BG19" s="25"/>
+      <c r="BH19" s="25"/>
+      <c r="BI19" s="25"/>
+      <c r="BJ19" s="25"/>
+      <c r="BK19" s="25"/>
+      <c r="BL19" s="25"/>
+      <c r="BM19" s="25"/>
+      <c r="BN19" s="25"/>
+      <c r="BO19" s="25"/>
+      <c r="BP19" s="25"/>
+      <c r="BQ19" s="25"/>
     </row>
-    <row r="12" spans="2:69" x14ac:dyDescent="0.35">
-      <c r="B12" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="22">
-        <v>56</v>
-      </c>
-      <c r="E12" s="22">
+    <row r="20" spans="2:69" x14ac:dyDescent="0.35">
+      <c r="B20" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="22">
+        <v>8</v>
+      </c>
+      <c r="E20" s="22">
+        <v>14</v>
+      </c>
+      <c r="F20" s="22">
+        <v>8</v>
+      </c>
+      <c r="G20" s="22">
+        <v>14</v>
+      </c>
+      <c r="H20" s="23">
+        <v>0</v>
+      </c>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="24"/>
+      <c r="T20" s="24"/>
+      <c r="U20" s="24"/>
+      <c r="V20" s="24"/>
+      <c r="W20" s="24"/>
+      <c r="X20" s="24"/>
+      <c r="Y20" s="24"/>
+      <c r="Z20" s="24"/>
+      <c r="AA20" s="24"/>
+      <c r="AB20" s="24"/>
+      <c r="AC20" s="24"/>
+      <c r="AD20" s="25"/>
+      <c r="AE20" s="25"/>
+      <c r="AF20" s="25"/>
+      <c r="AG20" s="25"/>
+      <c r="AH20" s="25"/>
+      <c r="AI20" s="25"/>
+      <c r="AJ20" s="25"/>
+      <c r="AK20" s="25"/>
+      <c r="AL20" s="25"/>
+      <c r="AM20" s="25"/>
+      <c r="AN20" s="25"/>
+      <c r="AO20" s="25"/>
+      <c r="AP20" s="25"/>
+      <c r="AQ20" s="25"/>
+      <c r="AR20" s="25"/>
+      <c r="AS20" s="25"/>
+      <c r="AT20" s="25"/>
+      <c r="AU20" s="25"/>
+      <c r="AV20" s="25"/>
+      <c r="AW20" s="25"/>
+      <c r="AX20" s="25"/>
+      <c r="AY20" s="25"/>
+      <c r="AZ20" s="25"/>
+      <c r="BA20" s="25"/>
+      <c r="BB20" s="25"/>
+      <c r="BC20" s="25"/>
+      <c r="BD20" s="25"/>
+      <c r="BE20" s="25"/>
+      <c r="BF20" s="25"/>
+      <c r="BG20" s="25"/>
+      <c r="BH20" s="25"/>
+      <c r="BI20" s="25"/>
+      <c r="BJ20" s="25"/>
+      <c r="BK20" s="25"/>
+      <c r="BL20" s="25"/>
+      <c r="BM20" s="25"/>
+      <c r="BN20" s="25"/>
+      <c r="BO20" s="25"/>
+      <c r="BP20" s="25"/>
+      <c r="BQ20" s="25"/>
+    </row>
+    <row r="21" spans="2:69" x14ac:dyDescent="0.35">
+      <c r="B21" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="22">
+        <v>22</v>
+      </c>
+      <c r="E21" s="22">
         <v>7</v>
       </c>
-      <c r="F12" s="22">
-        <v>56</v>
-      </c>
-      <c r="G12" s="22">
+      <c r="F21" s="22">
+        <v>22</v>
+      </c>
+      <c r="G21" s="22">
         <v>7</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H21" s="23">
         <v>0</v>
       </c>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="24"/>
-      <c r="T12" s="24"/>
-      <c r="U12" s="24"/>
-      <c r="V12" s="24"/>
-      <c r="W12" s="24"/>
-      <c r="X12" s="24"/>
-      <c r="Y12" s="24"/>
-      <c r="Z12" s="24"/>
-      <c r="AA12" s="24"/>
-      <c r="AB12" s="24"/>
-      <c r="AC12" s="24"/>
-      <c r="AD12" s="25"/>
-      <c r="AE12" s="25"/>
-      <c r="AF12" s="25"/>
-      <c r="AG12" s="25"/>
-      <c r="AH12" s="25"/>
-      <c r="AI12" s="25"/>
-      <c r="AJ12" s="25"/>
-      <c r="AK12" s="25"/>
-      <c r="AL12" s="25"/>
-      <c r="AM12" s="25"/>
-      <c r="AN12" s="25"/>
-      <c r="AO12" s="25"/>
-      <c r="AP12" s="25"/>
-      <c r="AQ12" s="25"/>
-      <c r="AR12" s="25"/>
-      <c r="AS12" s="25"/>
-      <c r="AT12" s="25"/>
-      <c r="AU12" s="25"/>
-      <c r="AV12" s="25"/>
-      <c r="AW12" s="25"/>
-      <c r="AX12" s="25"/>
-      <c r="AY12" s="25"/>
-      <c r="AZ12" s="25"/>
-      <c r="BA12" s="25"/>
-      <c r="BB12" s="25"/>
-      <c r="BC12" s="25"/>
-      <c r="BD12" s="25"/>
-      <c r="BE12" s="25"/>
-      <c r="BF12" s="25"/>
-      <c r="BG12" s="25"/>
-      <c r="BH12" s="25"/>
-      <c r="BI12" s="25"/>
-      <c r="BJ12" s="25"/>
-      <c r="BK12" s="25"/>
-      <c r="BL12" s="25"/>
-      <c r="BM12" s="25"/>
-      <c r="BN12" s="25"/>
-      <c r="BO12" s="25"/>
-      <c r="BP12" s="25"/>
-      <c r="BQ12" s="25"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="24"/>
+      <c r="U21" s="24"/>
+      <c r="V21" s="24"/>
+      <c r="W21" s="24"/>
+      <c r="X21" s="24"/>
+      <c r="Y21" s="24"/>
+      <c r="Z21" s="24"/>
+      <c r="AA21" s="24"/>
+      <c r="AB21" s="24"/>
+      <c r="AC21" s="24"/>
+      <c r="AD21" s="25"/>
+      <c r="AE21" s="25"/>
+      <c r="AF21" s="25"/>
+      <c r="AG21" s="25"/>
+      <c r="AH21" s="25"/>
+      <c r="AI21" s="25"/>
+      <c r="AJ21" s="25"/>
+      <c r="AK21" s="25"/>
+      <c r="AL21" s="25"/>
+      <c r="AM21" s="25"/>
+      <c r="AN21" s="25"/>
+      <c r="AO21" s="25"/>
+      <c r="AP21" s="25"/>
+      <c r="AQ21" s="25"/>
+      <c r="AR21" s="25"/>
+      <c r="AS21" s="25"/>
+      <c r="AT21" s="25"/>
+      <c r="AU21" s="25"/>
+      <c r="AV21" s="25"/>
+      <c r="AW21" s="25"/>
+      <c r="AX21" s="25"/>
+      <c r="AY21" s="25"/>
+      <c r="AZ21" s="25"/>
+      <c r="BA21" s="25"/>
+      <c r="BB21" s="25"/>
+      <c r="BC21" s="25"/>
+      <c r="BD21" s="25"/>
+      <c r="BE21" s="25"/>
+      <c r="BF21" s="25"/>
+      <c r="BG21" s="25"/>
+      <c r="BH21" s="25"/>
+      <c r="BI21" s="25"/>
+      <c r="BJ21" s="25"/>
+      <c r="BK21" s="25"/>
+      <c r="BL21" s="25"/>
+      <c r="BM21" s="25"/>
+      <c r="BN21" s="25"/>
+      <c r="BO21" s="25"/>
+      <c r="BP21" s="25"/>
+      <c r="BQ21" s="25"/>
     </row>
-    <row r="13" spans="2:69" x14ac:dyDescent="0.35">
-      <c r="B13" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="22">
-        <v>56</v>
-      </c>
-      <c r="E13" s="22">
+    <row r="22" spans="2:69" x14ac:dyDescent="0.35">
+      <c r="B22" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="13">
+        <v>29</v>
+      </c>
+      <c r="E22" s="13">
         <v>7</v>
       </c>
-      <c r="F13" s="22">
-        <v>56</v>
-      </c>
-      <c r="G13" s="22">
+      <c r="F22" s="13">
+        <v>29</v>
+      </c>
+      <c r="G22" s="13">
         <v>7</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H22" s="14">
         <v>0</v>
       </c>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="24"/>
-      <c r="U13" s="24"/>
-      <c r="V13" s="24"/>
-      <c r="W13" s="24"/>
-      <c r="X13" s="24"/>
-      <c r="Y13" s="24"/>
-      <c r="Z13" s="24"/>
-      <c r="AA13" s="24"/>
-      <c r="AB13" s="24"/>
-      <c r="AC13" s="24"/>
-      <c r="AD13" s="25"/>
-      <c r="AE13" s="25"/>
-      <c r="AF13" s="25"/>
-      <c r="AG13" s="25"/>
-      <c r="AH13" s="25"/>
-      <c r="AI13" s="25"/>
-      <c r="AJ13" s="25"/>
-      <c r="AK13" s="25"/>
-      <c r="AL13" s="25"/>
-      <c r="AM13" s="25"/>
-      <c r="AN13" s="25"/>
-      <c r="AO13" s="25"/>
-      <c r="AP13" s="25"/>
-      <c r="AQ13" s="25"/>
-      <c r="AR13" s="25"/>
-      <c r="AS13" s="25"/>
-      <c r="AT13" s="25"/>
-      <c r="AU13" s="25"/>
-      <c r="AV13" s="25"/>
-      <c r="AW13" s="25"/>
-      <c r="AX13" s="25"/>
-      <c r="AY13" s="25"/>
-      <c r="AZ13" s="25"/>
-      <c r="BA13" s="25"/>
-      <c r="BB13" s="25"/>
-      <c r="BC13" s="25"/>
-      <c r="BD13" s="25"/>
-      <c r="BE13" s="25"/>
-      <c r="BF13" s="25"/>
-      <c r="BG13" s="25"/>
-      <c r="BH13" s="25"/>
-      <c r="BI13" s="25"/>
-      <c r="BJ13" s="25"/>
-      <c r="BK13" s="25"/>
-      <c r="BL13" s="25"/>
-      <c r="BM13" s="25"/>
-      <c r="BN13" s="25"/>
-      <c r="BO13" s="25"/>
-      <c r="BP13" s="25"/>
-      <c r="BQ13" s="25"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B18" s="2" t="s">
+    <row r="23" spans="2:69" x14ac:dyDescent="0.35">
+      <c r="B23" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="13">
+        <v>29</v>
+      </c>
+      <c r="E23" s="13">
+        <v>14</v>
+      </c>
+      <c r="F23" s="13">
+        <v>29</v>
+      </c>
+      <c r="G23" s="13">
+        <v>14</v>
+      </c>
+      <c r="H23" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:69" x14ac:dyDescent="0.35">
+      <c r="B24" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="32" t="s">
         <v>44</v>
       </c>
+      <c r="D24" s="22">
+        <v>29</v>
+      </c>
+      <c r="E24" s="22">
+        <v>7</v>
+      </c>
+      <c r="F24" s="22">
+        <v>29</v>
+      </c>
+      <c r="G24" s="22">
+        <v>7</v>
+      </c>
+      <c r="H24" s="23">
+        <v>0</v>
+      </c>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="24"/>
+      <c r="T24" s="24"/>
+      <c r="U24" s="24"/>
+      <c r="V24" s="24"/>
+      <c r="W24" s="24"/>
+      <c r="X24" s="24"/>
+      <c r="Y24" s="24"/>
+      <c r="Z24" s="24"/>
+      <c r="AA24" s="24"/>
+      <c r="AB24" s="24"/>
+      <c r="AC24" s="24"/>
+      <c r="AD24" s="25"/>
+      <c r="AE24" s="25"/>
+      <c r="AF24" s="25"/>
+      <c r="AG24" s="25"/>
+      <c r="AH24" s="25"/>
+      <c r="AI24" s="25"/>
+      <c r="AJ24" s="25"/>
+      <c r="AK24" s="25"/>
+      <c r="AL24" s="25"/>
+      <c r="AM24" s="25"/>
+      <c r="AN24" s="25"/>
+      <c r="AO24" s="25"/>
+      <c r="AP24" s="25"/>
+      <c r="AQ24" s="25"/>
+      <c r="AR24" s="25"/>
+      <c r="AS24" s="25"/>
+      <c r="AT24" s="25"/>
+      <c r="AU24" s="25"/>
+      <c r="AV24" s="25"/>
+      <c r="AW24" s="25"/>
+      <c r="AX24" s="25"/>
+      <c r="AY24" s="25"/>
+      <c r="AZ24" s="25"/>
+      <c r="BA24" s="25"/>
+      <c r="BB24" s="25"/>
+      <c r="BC24" s="25"/>
+      <c r="BD24" s="25"/>
+      <c r="BE24" s="25"/>
+      <c r="BF24" s="25"/>
+      <c r="BG24" s="25"/>
+      <c r="BH24" s="25"/>
+      <c r="BI24" s="25"/>
+      <c r="BJ24" s="25"/>
+      <c r="BK24" s="25"/>
+      <c r="BL24" s="25"/>
+      <c r="BM24" s="25"/>
+      <c r="BN24" s="25"/>
+      <c r="BO24" s="25"/>
+      <c r="BP24" s="25"/>
+      <c r="BQ24" s="25"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="28" t="s">
-        <v>59</v>
-      </c>
+    <row r="25" spans="2:69" x14ac:dyDescent="0.35">
+      <c r="B25" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="22">
+        <v>36</v>
+      </c>
+      <c r="E25" s="22">
+        <v>21</v>
+      </c>
+      <c r="F25" s="22">
+        <v>36</v>
+      </c>
+      <c r="G25" s="22">
+        <v>21</v>
+      </c>
+      <c r="H25" s="23">
+        <v>0</v>
+      </c>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
+      <c r="S25" s="24"/>
+      <c r="T25" s="24"/>
+      <c r="U25" s="24"/>
+      <c r="V25" s="24"/>
+      <c r="W25" s="24"/>
+      <c r="X25" s="24"/>
+      <c r="Y25" s="24"/>
+      <c r="Z25" s="24"/>
+      <c r="AA25" s="24"/>
+      <c r="AB25" s="24"/>
+      <c r="AC25" s="24"/>
+      <c r="AD25" s="25"/>
+      <c r="AE25" s="25"/>
+      <c r="AF25" s="25"/>
+      <c r="AG25" s="25"/>
+      <c r="AH25" s="25"/>
+      <c r="AI25" s="25"/>
+      <c r="AJ25" s="25"/>
+      <c r="AK25" s="25"/>
+      <c r="AL25" s="25"/>
+      <c r="AM25" s="25"/>
+      <c r="AN25" s="25"/>
+      <c r="AO25" s="25"/>
+      <c r="AP25" s="25"/>
+      <c r="AQ25" s="25"/>
+      <c r="AR25" s="25"/>
+      <c r="AS25" s="25"/>
+      <c r="AT25" s="25"/>
+      <c r="AU25" s="25"/>
+      <c r="AV25" s="25"/>
+      <c r="AW25" s="25"/>
+      <c r="AX25" s="25"/>
+      <c r="AY25" s="25"/>
+      <c r="AZ25" s="25"/>
+      <c r="BA25" s="25"/>
+      <c r="BB25" s="25"/>
+      <c r="BC25" s="25"/>
+      <c r="BD25" s="25"/>
+      <c r="BE25" s="25"/>
+      <c r="BF25" s="25"/>
+      <c r="BG25" s="25"/>
+      <c r="BH25" s="25"/>
+      <c r="BI25" s="25"/>
+      <c r="BJ25" s="25"/>
+      <c r="BK25" s="25"/>
+      <c r="BL25" s="25"/>
+      <c r="BM25" s="25"/>
+      <c r="BN25" s="25"/>
+      <c r="BO25" s="25"/>
+      <c r="BP25" s="25"/>
+      <c r="BQ25" s="25"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="28" t="s">
-        <v>58</v>
-      </c>
+    <row r="27" spans="2:69" x14ac:dyDescent="0.35">
+      <c r="B27" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="2:69" x14ac:dyDescent="0.35">
+      <c r="B28" s="28" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="2:69" x14ac:dyDescent="0.35">
+      <c r="B29" s="28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="2:69" x14ac:dyDescent="0.35">
+      <c r="AE32" s="21"/>
+    </row>
+    <row r="33" spans="31:31" x14ac:dyDescent="0.35">
+      <c r="AE33" s="21"/>
+    </row>
+    <row r="34" spans="31:31" x14ac:dyDescent="0.35">
+      <c r="AE34" s="21"/>
+    </row>
+    <row r="35" spans="31:31" x14ac:dyDescent="0.35">
+      <c r="AE35" s="21"/>
+    </row>
+    <row r="36" spans="31:31" x14ac:dyDescent="0.35">
+      <c r="AE36" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="I6:L7"/>
-    <mergeCell ref="B2:G4"/>
+  <mergeCells count="9">
+    <mergeCell ref="B2:H4"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
   </mergeCells>
-  <conditionalFormatting sqref="I8:BP8">
-    <cfRule type="expression" dxfId="56" priority="63">
-      <formula>I$8=period_selected</formula>
+  <conditionalFormatting sqref="J10:BQ11 J13:BQ16 J24:BQ24">
+    <cfRule type="expression" dxfId="360" priority="361">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="359" priority="362">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="358" priority="363">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="357" priority="364">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="356" priority="365">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="355" priority="366">
+      <formula>J$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="354" priority="368">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="353" priority="369">
+      <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I9:BP9">
-    <cfRule type="expression" dxfId="55" priority="49">
+  <conditionalFormatting sqref="J8:BQ9">
+    <cfRule type="expression" dxfId="352" priority="367">
+      <formula>J$8=period_selected</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9:BQ9">
+    <cfRule type="expression" dxfId="351" priority="353">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="50">
+    <cfRule type="expression" dxfId="350" priority="354">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="51">
+    <cfRule type="expression" dxfId="349" priority="355">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="52">
+    <cfRule type="expression" dxfId="348" priority="356">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="53">
+    <cfRule type="expression" dxfId="347" priority="357">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="54">
-      <formula>I$8=period_selected</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="49" priority="55">
+    <cfRule type="expression" dxfId="346" priority="358">
+      <formula>J$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="345" priority="359">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="56">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I10:BO10">
-    <cfRule type="expression" dxfId="47" priority="41">
-      <formula>PercentComplete</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="46" priority="42">
-      <formula>PercentCompleteBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="45" priority="43">
-      <formula>Actual</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="44" priority="44">
-      <formula>ActualBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="43" priority="45">
-      <formula>Plan</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="46">
-      <formula>I$8=period_selected</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="41" priority="47">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="48">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11:BO11">
-    <cfRule type="expression" dxfId="39" priority="33">
-      <formula>PercentComplete</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="38" priority="34">
-      <formula>PercentCompleteBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="37" priority="35">
-      <formula>Actual</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="36">
-      <formula>ActualBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="35" priority="37">
-      <formula>Plan</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="38">
-      <formula>I$8=period_selected</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="39">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="32" priority="40">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J13:BQ13">
-    <cfRule type="expression" dxfId="31" priority="1">
-      <formula>PercentComplete</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="2">
-      <formula>PercentCompleteBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="29" priority="3">
-      <formula>Actual</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="4">
-      <formula>ActualBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="27" priority="5">
-      <formula>Plan</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="6">
-      <formula>J$8=period_selected</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="7">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="8">
+    <cfRule type="expression" dxfId="344" priority="360">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12:BQ12">
-    <cfRule type="expression" dxfId="23" priority="25">
+    <cfRule type="expression" dxfId="343" priority="345">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="26">
+    <cfRule type="expression" dxfId="342" priority="346">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="27">
+    <cfRule type="expression" dxfId="341" priority="347">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="28">
+    <cfRule type="expression" dxfId="340" priority="348">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="29">
+    <cfRule type="expression" dxfId="339" priority="349">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="30">
+    <cfRule type="expression" dxfId="338" priority="350">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="31">
+    <cfRule type="expression" dxfId="337" priority="351">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="32">
+    <cfRule type="expression" dxfId="336" priority="352">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J13:BQ13">
-    <cfRule type="expression" dxfId="15" priority="17">
+  <conditionalFormatting sqref="J16:BQ16">
+    <cfRule type="expression" dxfId="335" priority="329">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="18">
+    <cfRule type="expression" dxfId="334" priority="330">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="19">
+    <cfRule type="expression" dxfId="333" priority="331">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="20">
+    <cfRule type="expression" dxfId="332" priority="332">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="21">
+    <cfRule type="expression" dxfId="331" priority="333">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="22">
+    <cfRule type="expression" dxfId="330" priority="334">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="23">
+    <cfRule type="expression" dxfId="329" priority="335">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="24">
+    <cfRule type="expression" dxfId="328" priority="336">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J12:BQ12">
-    <cfRule type="expression" dxfId="7" priority="9">
+  <conditionalFormatting sqref="J18:BQ18">
+    <cfRule type="expression" dxfId="327" priority="321">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="10">
+    <cfRule type="expression" dxfId="326" priority="322">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="11">
+    <cfRule type="expression" dxfId="325" priority="323">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="12">
+    <cfRule type="expression" dxfId="324" priority="324">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="13">
+    <cfRule type="expression" dxfId="323" priority="325">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="14">
+    <cfRule type="expression" dxfId="322" priority="326">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="15">
+    <cfRule type="expression" dxfId="321" priority="327">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="16">
+    <cfRule type="expression" dxfId="320" priority="328">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17:BQ17">
+    <cfRule type="expression" dxfId="319" priority="313">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="318" priority="314">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="317" priority="315">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="316" priority="316">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="315" priority="317">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="314" priority="318">
+      <formula>J$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="313" priority="319">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="312" priority="320">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J21:BQ23">
+    <cfRule type="expression" dxfId="263" priority="257">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="262" priority="258">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="261" priority="259">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="260" priority="260">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="259" priority="261">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="258" priority="262">
+      <formula>J$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="257" priority="263">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="256" priority="264">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20:BQ20">
+    <cfRule type="expression" dxfId="255" priority="249">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="254" priority="250">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="253" priority="251">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="252" priority="252">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="251" priority="253">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="250" priority="254">
+      <formula>J$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="249" priority="255">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="248" priority="256">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19:BQ19">
+    <cfRule type="expression" dxfId="247" priority="241">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="246" priority="242">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="245" priority="243">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="244" priority="244">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="243" priority="245">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="242" priority="246">
+      <formula>J$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="241" priority="247">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="240" priority="248">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17:BQ17">
+    <cfRule type="expression" dxfId="175" priority="169">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="174" priority="170">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="173" priority="171">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="172" priority="172">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="171" priority="173">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="170" priority="174">
+      <formula>J$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="169" priority="175">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="168" priority="176">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19:BQ19">
+    <cfRule type="expression" dxfId="167" priority="161">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="166" priority="162">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="165" priority="163">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="164" priority="164">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="163" priority="165">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="162" priority="166">
+      <formula>J$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="161" priority="167">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="160" priority="168">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18:BQ18">
+    <cfRule type="expression" dxfId="159" priority="153">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="158" priority="154">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="157" priority="155">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="156" priority="156">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="155" priority="157">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="154" priority="158">
+      <formula>J$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="153" priority="159">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="152" priority="160">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J24:BQ24">
+    <cfRule type="expression" dxfId="151" priority="145">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="150" priority="146">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="149" priority="147">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="148" priority="148">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="147" priority="149">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="146" priority="150">
+      <formula>J$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="145" priority="151">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="144" priority="152">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J21:BQ21">
+    <cfRule type="expression" dxfId="95" priority="89">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="94" priority="90">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="93" priority="91">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="92" priority="92">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="91" priority="93">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="90" priority="94">
+      <formula>J$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="89" priority="95">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="88" priority="96">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20:BQ20">
+    <cfRule type="expression" dxfId="87" priority="81">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="86" priority="82">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="85" priority="83">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="84" priority="84">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="83" priority="85">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="82" priority="86">
+      <formula>J$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="81" priority="87">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="80" priority="88">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J25:BQ25">
+    <cfRule type="expression" dxfId="15" priority="9">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="10">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="11">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="12">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="13">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="14">
+      <formula>J$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="15">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="16">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J25:BQ25">
+    <cfRule type="expression" dxfId="7" priority="1">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="2">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="3">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="4">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="5">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="6">
+      <formula>J$8=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="7">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="8">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup scale="42" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="40" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -13799,17 +19084,17 @@
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="4097" r:id="rId4" name="Spinner 1">
+            <control shapeId="5121" r:id="rId4" name="Spinner 1">
               <controlPr defaultSize="0" print="0" autoPict="0" altText="Period Highlight Spin Control">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>14</xdr:col>
+                    <xdr:col>15</xdr:col>
                     <xdr:colOff>68580</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>14</xdr:col>
+                    <xdr:col>15</xdr:col>
                     <xdr:colOff>190500</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>259080</xdr:rowOff>
@@ -13825,11 +19110,11 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{43E150ED-EEE9-4DDC-8B42-86DD0828ADB0}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F3DEC937-F0BC-436E-AE4D-C0FEE5C1A3D0}">
           <x14:formula1>
             <xm:f>Integrantes!$A$2:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>C12:C13</xm:sqref>
+          <xm:sqref>C9:C25</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -13849,42 +19134,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/wiki/CronogramaKlass.xlsx
+++ b/wiki/CronogramaKlass.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B1613A7-A94F-492C-896A-657B37148A23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF8B5BE-CE32-4DBD-B9A7-E2B52FF80291}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -840,3171 +840,7 @@
     <cellStyle name="Project Headers" xfId="4" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Título 1" xfId="1" builtinId="16" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="748">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="524">
     <dxf>
       <fill>
         <patternFill>
@@ -11465,7 +8301,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="period_selected" max="60" min="1" page="10"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="period_selected" max="60" min="1" page="10" val="3"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11658,7 +8494,7 @@
                   <a14:compatExt spid="_x0000_s5121"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FC15CD7-AE0D-4A90-A11E-AAE1A951A281}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000001140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -12301,33 +9137,33 @@
     <mergeCell ref="H6:H7"/>
   </mergeCells>
   <conditionalFormatting sqref="J9:AD14">
-    <cfRule type="expression" dxfId="747" priority="25">
+    <cfRule type="expression" dxfId="523" priority="25">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="746" priority="27">
+    <cfRule type="expression" dxfId="522" priority="27">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="745" priority="28">
+    <cfRule type="expression" dxfId="521" priority="28">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="744" priority="29">
+    <cfRule type="expression" dxfId="520" priority="29">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="743" priority="30">
+    <cfRule type="expression" dxfId="519" priority="30">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="742" priority="31">
+    <cfRule type="expression" dxfId="518" priority="31">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="741" priority="35">
+    <cfRule type="expression" dxfId="517" priority="35">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="740" priority="36">
+    <cfRule type="expression" dxfId="516" priority="36">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:AD8">
-    <cfRule type="expression" dxfId="739" priority="32">
+    <cfRule type="expression" dxfId="515" priority="32">
       <formula>J$8=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13530,85 +10366,85 @@
     <mergeCell ref="C6:C7"/>
   </mergeCells>
   <conditionalFormatting sqref="J9:BQ24">
-    <cfRule type="expression" dxfId="738" priority="58">
+    <cfRule type="expression" dxfId="514" priority="58">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="737" priority="59">
+    <cfRule type="expression" dxfId="513" priority="59">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="736" priority="60">
+    <cfRule type="expression" dxfId="512" priority="60">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="735" priority="61">
+    <cfRule type="expression" dxfId="511" priority="61">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="734" priority="62">
+    <cfRule type="expression" dxfId="510" priority="62">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="733" priority="63">
+    <cfRule type="expression" dxfId="509" priority="63">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="732" priority="65">
+    <cfRule type="expression" dxfId="508" priority="65">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="731" priority="66">
+    <cfRule type="expression" dxfId="507" priority="66">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:BQ8">
-    <cfRule type="expression" dxfId="730" priority="64">
+    <cfRule type="expression" dxfId="506" priority="64">
       <formula>J$8=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J24:BQ24">
-    <cfRule type="expression" dxfId="729" priority="26">
+    <cfRule type="expression" dxfId="505" priority="26">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="728" priority="27">
+    <cfRule type="expression" dxfId="504" priority="27">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="727" priority="28">
+    <cfRule type="expression" dxfId="503" priority="28">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="726" priority="29">
+    <cfRule type="expression" dxfId="502" priority="29">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="725" priority="30">
+    <cfRule type="expression" dxfId="501" priority="30">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="724" priority="31">
+    <cfRule type="expression" dxfId="500" priority="31">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="723" priority="32">
+    <cfRule type="expression" dxfId="499" priority="32">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="722" priority="33">
+    <cfRule type="expression" dxfId="498" priority="33">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25:BQ25">
-    <cfRule type="expression" dxfId="721" priority="1">
+    <cfRule type="expression" dxfId="497" priority="1">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="720" priority="2">
+    <cfRule type="expression" dxfId="496" priority="2">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="719" priority="3">
+    <cfRule type="expression" dxfId="495" priority="3">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="718" priority="4">
+    <cfRule type="expression" dxfId="494" priority="4">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="717" priority="5">
+    <cfRule type="expression" dxfId="493" priority="5">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="716" priority="6">
+    <cfRule type="expression" dxfId="492" priority="6">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="715" priority="7">
+    <cfRule type="expression" dxfId="491" priority="7">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="714" priority="8">
+    <cfRule type="expression" dxfId="490" priority="8">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13712,7 +10548,7 @@
       <c r="M3" s="6"/>
       <c r="N3" s="35">
         <f ca="1">TODAY()-DATE(2020, 7, 5)-7</f>
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O3" s="35"/>
       <c r="P3" s="6"/>
@@ -15963,1151 +12799,1151 @@
     <mergeCell ref="B6:B7"/>
   </mergeCells>
   <conditionalFormatting sqref="J10:BQ11 J13:BQ16">
-    <cfRule type="expression" dxfId="713" priority="417">
+    <cfRule type="expression" dxfId="489" priority="417">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="712" priority="418">
+    <cfRule type="expression" dxfId="488" priority="418">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="711" priority="419">
+    <cfRule type="expression" dxfId="487" priority="419">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="710" priority="420">
+    <cfRule type="expression" dxfId="486" priority="420">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="709" priority="421">
+    <cfRule type="expression" dxfId="485" priority="421">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="708" priority="422">
+    <cfRule type="expression" dxfId="484" priority="422">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="707" priority="424">
+    <cfRule type="expression" dxfId="483" priority="424">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="706" priority="425">
+    <cfRule type="expression" dxfId="482" priority="425">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:BQ9">
-    <cfRule type="expression" dxfId="705" priority="423">
+    <cfRule type="expression" dxfId="481" priority="423">
       <formula>J$8=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9:BQ9">
-    <cfRule type="expression" dxfId="704" priority="385">
+    <cfRule type="expression" dxfId="480" priority="385">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="703" priority="386">
+    <cfRule type="expression" dxfId="479" priority="386">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="702" priority="387">
+    <cfRule type="expression" dxfId="478" priority="387">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="701" priority="388">
+    <cfRule type="expression" dxfId="477" priority="388">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="700" priority="389">
+    <cfRule type="expression" dxfId="476" priority="389">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="699" priority="390">
+    <cfRule type="expression" dxfId="475" priority="390">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="698" priority="391">
+    <cfRule type="expression" dxfId="474" priority="391">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="697" priority="392">
+    <cfRule type="expression" dxfId="473" priority="392">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12:BQ12">
-    <cfRule type="expression" dxfId="696" priority="377">
+    <cfRule type="expression" dxfId="472" priority="377">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="695" priority="378">
+    <cfRule type="expression" dxfId="471" priority="378">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="694" priority="379">
+    <cfRule type="expression" dxfId="470" priority="379">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="693" priority="380">
+    <cfRule type="expression" dxfId="469" priority="380">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="692" priority="381">
+    <cfRule type="expression" dxfId="468" priority="381">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="691" priority="382">
+    <cfRule type="expression" dxfId="467" priority="382">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="690" priority="383">
+    <cfRule type="expression" dxfId="466" priority="383">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="689" priority="384">
+    <cfRule type="expression" dxfId="465" priority="384">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J24:BQ27">
-    <cfRule type="expression" dxfId="688" priority="369">
+    <cfRule type="expression" dxfId="464" priority="369">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="687" priority="370">
+    <cfRule type="expression" dxfId="463" priority="370">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="686" priority="371">
+    <cfRule type="expression" dxfId="462" priority="371">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="685" priority="372">
+    <cfRule type="expression" dxfId="461" priority="372">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="684" priority="373">
+    <cfRule type="expression" dxfId="460" priority="373">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="683" priority="374">
+    <cfRule type="expression" dxfId="459" priority="374">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="682" priority="375">
+    <cfRule type="expression" dxfId="458" priority="375">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="681" priority="376">
+    <cfRule type="expression" dxfId="457" priority="376">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16:BQ16">
-    <cfRule type="expression" dxfId="680" priority="361">
+    <cfRule type="expression" dxfId="456" priority="361">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="679" priority="362">
+    <cfRule type="expression" dxfId="455" priority="362">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="678" priority="363">
+    <cfRule type="expression" dxfId="454" priority="363">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="677" priority="364">
+    <cfRule type="expression" dxfId="453" priority="364">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="676" priority="365">
+    <cfRule type="expression" dxfId="452" priority="365">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="675" priority="366">
+    <cfRule type="expression" dxfId="451" priority="366">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="674" priority="367">
+    <cfRule type="expression" dxfId="450" priority="367">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="673" priority="368">
+    <cfRule type="expression" dxfId="449" priority="368">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18:BQ18">
-    <cfRule type="expression" dxfId="672" priority="353">
+    <cfRule type="expression" dxfId="448" priority="353">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="671" priority="354">
+    <cfRule type="expression" dxfId="447" priority="354">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="670" priority="355">
+    <cfRule type="expression" dxfId="446" priority="355">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="669" priority="356">
+    <cfRule type="expression" dxfId="445" priority="356">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="668" priority="357">
+    <cfRule type="expression" dxfId="444" priority="357">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="667" priority="358">
+    <cfRule type="expression" dxfId="443" priority="358">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="666" priority="359">
+    <cfRule type="expression" dxfId="442" priority="359">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="665" priority="360">
+    <cfRule type="expression" dxfId="441" priority="360">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17:BQ17">
-    <cfRule type="expression" dxfId="664" priority="345">
+    <cfRule type="expression" dxfId="440" priority="345">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="663" priority="346">
+    <cfRule type="expression" dxfId="439" priority="346">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="662" priority="347">
+    <cfRule type="expression" dxfId="438" priority="347">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="661" priority="348">
+    <cfRule type="expression" dxfId="437" priority="348">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="660" priority="349">
+    <cfRule type="expression" dxfId="436" priority="349">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="659" priority="350">
+    <cfRule type="expression" dxfId="435" priority="350">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="658" priority="351">
+    <cfRule type="expression" dxfId="434" priority="351">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="657" priority="352">
+    <cfRule type="expression" dxfId="433" priority="352">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27:BQ27">
-    <cfRule type="expression" dxfId="656" priority="321">
+    <cfRule type="expression" dxfId="432" priority="321">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="655" priority="322">
+    <cfRule type="expression" dxfId="431" priority="322">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="654" priority="323">
+    <cfRule type="expression" dxfId="430" priority="323">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="653" priority="324">
+    <cfRule type="expression" dxfId="429" priority="324">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="652" priority="325">
+    <cfRule type="expression" dxfId="428" priority="325">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="651" priority="326">
+    <cfRule type="expression" dxfId="427" priority="326">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="650" priority="327">
+    <cfRule type="expression" dxfId="426" priority="327">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="649" priority="328">
+    <cfRule type="expression" dxfId="425" priority="328">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28:BQ28">
-    <cfRule type="expression" dxfId="648" priority="313">
+    <cfRule type="expression" dxfId="424" priority="313">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="647" priority="314">
+    <cfRule type="expression" dxfId="423" priority="314">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="646" priority="315">
+    <cfRule type="expression" dxfId="422" priority="315">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="645" priority="316">
+    <cfRule type="expression" dxfId="421" priority="316">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="644" priority="317">
+    <cfRule type="expression" dxfId="420" priority="317">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="643" priority="318">
+    <cfRule type="expression" dxfId="419" priority="318">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="642" priority="319">
+    <cfRule type="expression" dxfId="418" priority="319">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="641" priority="320">
+    <cfRule type="expression" dxfId="417" priority="320">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29:BQ29">
-    <cfRule type="expression" dxfId="640" priority="305">
+    <cfRule type="expression" dxfId="416" priority="305">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="639" priority="306">
+    <cfRule type="expression" dxfId="415" priority="306">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="638" priority="307">
+    <cfRule type="expression" dxfId="414" priority="307">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="637" priority="308">
+    <cfRule type="expression" dxfId="413" priority="308">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="636" priority="309">
+    <cfRule type="expression" dxfId="412" priority="309">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="635" priority="310">
+    <cfRule type="expression" dxfId="411" priority="310">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="634" priority="311">
+    <cfRule type="expression" dxfId="410" priority="311">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="633" priority="312">
+    <cfRule type="expression" dxfId="409" priority="312">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30:BQ30">
-    <cfRule type="expression" dxfId="632" priority="297">
+    <cfRule type="expression" dxfId="408" priority="297">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="631" priority="298">
+    <cfRule type="expression" dxfId="407" priority="298">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="630" priority="299">
+    <cfRule type="expression" dxfId="406" priority="299">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="629" priority="300">
+    <cfRule type="expression" dxfId="405" priority="300">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="628" priority="301">
+    <cfRule type="expression" dxfId="404" priority="301">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="627" priority="302">
+    <cfRule type="expression" dxfId="403" priority="302">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="626" priority="303">
+    <cfRule type="expression" dxfId="402" priority="303">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="625" priority="304">
+    <cfRule type="expression" dxfId="401" priority="304">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J31:BQ31">
-    <cfRule type="expression" dxfId="624" priority="289">
+    <cfRule type="expression" dxfId="400" priority="289">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="623" priority="290">
+    <cfRule type="expression" dxfId="399" priority="290">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="622" priority="291">
+    <cfRule type="expression" dxfId="398" priority="291">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="621" priority="292">
+    <cfRule type="expression" dxfId="397" priority="292">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="620" priority="293">
+    <cfRule type="expression" dxfId="396" priority="293">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="619" priority="294">
+    <cfRule type="expression" dxfId="395" priority="294">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="618" priority="295">
+    <cfRule type="expression" dxfId="394" priority="295">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="617" priority="296">
+    <cfRule type="expression" dxfId="393" priority="296">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32:BQ32">
-    <cfRule type="expression" dxfId="616" priority="281">
+    <cfRule type="expression" dxfId="392" priority="281">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="615" priority="282">
+    <cfRule type="expression" dxfId="391" priority="282">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="614" priority="283">
+    <cfRule type="expression" dxfId="390" priority="283">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="613" priority="284">
+    <cfRule type="expression" dxfId="389" priority="284">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="612" priority="285">
+    <cfRule type="expression" dxfId="388" priority="285">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="611" priority="286">
+    <cfRule type="expression" dxfId="387" priority="286">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="610" priority="287">
+    <cfRule type="expression" dxfId="386" priority="287">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="609" priority="288">
+    <cfRule type="expression" dxfId="385" priority="288">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21:BQ23">
-    <cfRule type="expression" dxfId="608" priority="257">
+    <cfRule type="expression" dxfId="384" priority="257">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="607" priority="258">
+    <cfRule type="expression" dxfId="383" priority="258">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="606" priority="259">
+    <cfRule type="expression" dxfId="382" priority="259">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="605" priority="260">
+    <cfRule type="expression" dxfId="381" priority="260">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="604" priority="261">
+    <cfRule type="expression" dxfId="380" priority="261">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="603" priority="262">
+    <cfRule type="expression" dxfId="379" priority="262">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="602" priority="263">
+    <cfRule type="expression" dxfId="378" priority="263">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="601" priority="264">
+    <cfRule type="expression" dxfId="377" priority="264">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20:BQ20">
-    <cfRule type="expression" dxfId="600" priority="249">
+    <cfRule type="expression" dxfId="376" priority="249">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="599" priority="250">
+    <cfRule type="expression" dxfId="375" priority="250">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="598" priority="251">
+    <cfRule type="expression" dxfId="374" priority="251">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="597" priority="252">
+    <cfRule type="expression" dxfId="373" priority="252">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="596" priority="253">
+    <cfRule type="expression" dxfId="372" priority="253">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="595" priority="254">
+    <cfRule type="expression" dxfId="371" priority="254">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="594" priority="255">
+    <cfRule type="expression" dxfId="370" priority="255">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="593" priority="256">
+    <cfRule type="expression" dxfId="369" priority="256">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19:BQ19">
-    <cfRule type="expression" dxfId="592" priority="233">
+    <cfRule type="expression" dxfId="368" priority="233">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="591" priority="234">
+    <cfRule type="expression" dxfId="367" priority="234">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="590" priority="235">
+    <cfRule type="expression" dxfId="366" priority="235">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="589" priority="236">
+    <cfRule type="expression" dxfId="365" priority="236">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="588" priority="237">
+    <cfRule type="expression" dxfId="364" priority="237">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="587" priority="238">
+    <cfRule type="expression" dxfId="363" priority="238">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="586" priority="239">
+    <cfRule type="expression" dxfId="362" priority="239">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="585" priority="240">
+    <cfRule type="expression" dxfId="361" priority="240">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28:BQ31">
-    <cfRule type="expression" dxfId="584" priority="225">
+    <cfRule type="expression" dxfId="360" priority="225">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="583" priority="226">
+    <cfRule type="expression" dxfId="359" priority="226">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="582" priority="227">
+    <cfRule type="expression" dxfId="358" priority="227">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="581" priority="228">
+    <cfRule type="expression" dxfId="357" priority="228">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="580" priority="229">
+    <cfRule type="expression" dxfId="356" priority="229">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="579" priority="230">
+    <cfRule type="expression" dxfId="355" priority="230">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="578" priority="231">
+    <cfRule type="expression" dxfId="354" priority="231">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="577" priority="232">
+    <cfRule type="expression" dxfId="353" priority="232">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27:BQ27">
-    <cfRule type="expression" dxfId="576" priority="217">
+    <cfRule type="expression" dxfId="352" priority="217">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="575" priority="218">
+    <cfRule type="expression" dxfId="351" priority="218">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="574" priority="219">
+    <cfRule type="expression" dxfId="350" priority="219">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="573" priority="220">
+    <cfRule type="expression" dxfId="349" priority="220">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="572" priority="221">
+    <cfRule type="expression" dxfId="348" priority="221">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="571" priority="222">
+    <cfRule type="expression" dxfId="347" priority="222">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="570" priority="223">
+    <cfRule type="expression" dxfId="346" priority="223">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="569" priority="224">
+    <cfRule type="expression" dxfId="345" priority="224">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J31:BQ31">
-    <cfRule type="expression" dxfId="568" priority="209">
+    <cfRule type="expression" dxfId="344" priority="209">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="567" priority="210">
+    <cfRule type="expression" dxfId="343" priority="210">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="566" priority="211">
+    <cfRule type="expression" dxfId="342" priority="211">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="565" priority="212">
+    <cfRule type="expression" dxfId="341" priority="212">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="564" priority="213">
+    <cfRule type="expression" dxfId="340" priority="213">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="563" priority="214">
+    <cfRule type="expression" dxfId="339" priority="214">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="562" priority="215">
+    <cfRule type="expression" dxfId="338" priority="215">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="561" priority="216">
+    <cfRule type="expression" dxfId="337" priority="216">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32:BQ32">
-    <cfRule type="expression" dxfId="560" priority="201">
+    <cfRule type="expression" dxfId="336" priority="201">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="559" priority="202">
+    <cfRule type="expression" dxfId="335" priority="202">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="558" priority="203">
+    <cfRule type="expression" dxfId="334" priority="203">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="557" priority="204">
+    <cfRule type="expression" dxfId="333" priority="204">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="556" priority="205">
+    <cfRule type="expression" dxfId="332" priority="205">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="555" priority="206">
+    <cfRule type="expression" dxfId="331" priority="206">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="554" priority="207">
+    <cfRule type="expression" dxfId="330" priority="207">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="553" priority="208">
+    <cfRule type="expression" dxfId="329" priority="208">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:BQ33">
-    <cfRule type="expression" dxfId="552" priority="193">
+    <cfRule type="expression" dxfId="328" priority="193">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="551" priority="194">
+    <cfRule type="expression" dxfId="327" priority="194">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="550" priority="195">
+    <cfRule type="expression" dxfId="326" priority="195">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="549" priority="196">
+    <cfRule type="expression" dxfId="325" priority="196">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="548" priority="197">
+    <cfRule type="expression" dxfId="324" priority="197">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="547" priority="198">
+    <cfRule type="expression" dxfId="323" priority="198">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="546" priority="199">
+    <cfRule type="expression" dxfId="322" priority="199">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="545" priority="200">
+    <cfRule type="expression" dxfId="321" priority="200">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34:BQ34">
-    <cfRule type="expression" dxfId="544" priority="185">
+    <cfRule type="expression" dxfId="320" priority="185">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="543" priority="186">
+    <cfRule type="expression" dxfId="319" priority="186">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="542" priority="187">
+    <cfRule type="expression" dxfId="318" priority="187">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="541" priority="188">
+    <cfRule type="expression" dxfId="317" priority="188">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="540" priority="189">
+    <cfRule type="expression" dxfId="316" priority="189">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="539" priority="190">
+    <cfRule type="expression" dxfId="315" priority="190">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="538" priority="191">
+    <cfRule type="expression" dxfId="314" priority="191">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="537" priority="192">
+    <cfRule type="expression" dxfId="313" priority="192">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J35:BQ35">
-    <cfRule type="expression" dxfId="536" priority="177">
+    <cfRule type="expression" dxfId="312" priority="177">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="535" priority="178">
+    <cfRule type="expression" dxfId="311" priority="178">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="534" priority="179">
+    <cfRule type="expression" dxfId="310" priority="179">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="533" priority="180">
+    <cfRule type="expression" dxfId="309" priority="180">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="532" priority="181">
+    <cfRule type="expression" dxfId="308" priority="181">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="531" priority="182">
+    <cfRule type="expression" dxfId="307" priority="182">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="530" priority="183">
+    <cfRule type="expression" dxfId="306" priority="183">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="529" priority="184">
+    <cfRule type="expression" dxfId="305" priority="184">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J36:BQ36">
-    <cfRule type="expression" dxfId="528" priority="169">
+    <cfRule type="expression" dxfId="304" priority="169">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="527" priority="170">
+    <cfRule type="expression" dxfId="303" priority="170">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="526" priority="171">
+    <cfRule type="expression" dxfId="302" priority="171">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="525" priority="172">
+    <cfRule type="expression" dxfId="301" priority="172">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="524" priority="173">
+    <cfRule type="expression" dxfId="300" priority="173">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="523" priority="174">
+    <cfRule type="expression" dxfId="299" priority="174">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="522" priority="175">
+    <cfRule type="expression" dxfId="298" priority="175">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="521" priority="176">
+    <cfRule type="expression" dxfId="297" priority="176">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17:BQ17">
-    <cfRule type="expression" dxfId="520" priority="161">
+    <cfRule type="expression" dxfId="296" priority="161">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="519" priority="162">
+    <cfRule type="expression" dxfId="295" priority="162">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="518" priority="163">
+    <cfRule type="expression" dxfId="294" priority="163">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="517" priority="164">
+    <cfRule type="expression" dxfId="293" priority="164">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="516" priority="165">
+    <cfRule type="expression" dxfId="292" priority="165">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="515" priority="166">
+    <cfRule type="expression" dxfId="291" priority="166">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="514" priority="167">
+    <cfRule type="expression" dxfId="290" priority="167">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="513" priority="168">
+    <cfRule type="expression" dxfId="289" priority="168">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19:BQ19">
-    <cfRule type="expression" dxfId="512" priority="153">
+    <cfRule type="expression" dxfId="288" priority="153">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="511" priority="154">
+    <cfRule type="expression" dxfId="287" priority="154">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="510" priority="155">
+    <cfRule type="expression" dxfId="286" priority="155">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="509" priority="156">
+    <cfRule type="expression" dxfId="285" priority="156">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="508" priority="157">
+    <cfRule type="expression" dxfId="284" priority="157">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="507" priority="158">
+    <cfRule type="expression" dxfId="283" priority="158">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="506" priority="159">
+    <cfRule type="expression" dxfId="282" priority="159">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="505" priority="160">
+    <cfRule type="expression" dxfId="281" priority="160">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18:BQ18">
-    <cfRule type="expression" dxfId="504" priority="145">
+    <cfRule type="expression" dxfId="280" priority="145">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="503" priority="146">
+    <cfRule type="expression" dxfId="279" priority="146">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="502" priority="147">
+    <cfRule type="expression" dxfId="278" priority="147">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="501" priority="148">
+    <cfRule type="expression" dxfId="277" priority="148">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="500" priority="149">
+    <cfRule type="expression" dxfId="276" priority="149">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="499" priority="150">
+    <cfRule type="expression" dxfId="275" priority="150">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="498" priority="151">
+    <cfRule type="expression" dxfId="274" priority="151">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="497" priority="152">
+    <cfRule type="expression" dxfId="273" priority="152">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J24:BQ24">
-    <cfRule type="expression" dxfId="496" priority="129">
+    <cfRule type="expression" dxfId="272" priority="129">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="495" priority="130">
+    <cfRule type="expression" dxfId="271" priority="130">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="494" priority="131">
+    <cfRule type="expression" dxfId="270" priority="131">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="493" priority="132">
+    <cfRule type="expression" dxfId="269" priority="132">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="492" priority="133">
+    <cfRule type="expression" dxfId="268" priority="133">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="491" priority="134">
+    <cfRule type="expression" dxfId="267" priority="134">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="490" priority="135">
+    <cfRule type="expression" dxfId="266" priority="135">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="489" priority="136">
+    <cfRule type="expression" dxfId="265" priority="136">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28:BQ28">
-    <cfRule type="expression" dxfId="488" priority="121">
+    <cfRule type="expression" dxfId="264" priority="121">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="487" priority="122">
+    <cfRule type="expression" dxfId="263" priority="122">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="486" priority="123">
+    <cfRule type="expression" dxfId="262" priority="123">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="485" priority="124">
+    <cfRule type="expression" dxfId="261" priority="124">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="484" priority="125">
+    <cfRule type="expression" dxfId="260" priority="125">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="483" priority="126">
+    <cfRule type="expression" dxfId="259" priority="126">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="482" priority="127">
+    <cfRule type="expression" dxfId="258" priority="127">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="481" priority="128">
+    <cfRule type="expression" dxfId="257" priority="128">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29:BQ29">
-    <cfRule type="expression" dxfId="480" priority="113">
+    <cfRule type="expression" dxfId="256" priority="113">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="479" priority="114">
+    <cfRule type="expression" dxfId="255" priority="114">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="478" priority="115">
+    <cfRule type="expression" dxfId="254" priority="115">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="477" priority="116">
+    <cfRule type="expression" dxfId="253" priority="116">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="476" priority="117">
+    <cfRule type="expression" dxfId="252" priority="117">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="475" priority="118">
+    <cfRule type="expression" dxfId="251" priority="118">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="474" priority="119">
+    <cfRule type="expression" dxfId="250" priority="119">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="473" priority="120">
+    <cfRule type="expression" dxfId="249" priority="120">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30:BQ30">
-    <cfRule type="expression" dxfId="472" priority="105">
+    <cfRule type="expression" dxfId="248" priority="105">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="471" priority="106">
+    <cfRule type="expression" dxfId="247" priority="106">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="470" priority="107">
+    <cfRule type="expression" dxfId="246" priority="107">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="469" priority="108">
+    <cfRule type="expression" dxfId="245" priority="108">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="468" priority="109">
+    <cfRule type="expression" dxfId="244" priority="109">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="467" priority="110">
+    <cfRule type="expression" dxfId="243" priority="110">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="466" priority="111">
+    <cfRule type="expression" dxfId="242" priority="111">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="465" priority="112">
+    <cfRule type="expression" dxfId="241" priority="112">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J31:BQ31">
-    <cfRule type="expression" dxfId="464" priority="97">
+    <cfRule type="expression" dxfId="240" priority="97">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="463" priority="98">
+    <cfRule type="expression" dxfId="239" priority="98">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="462" priority="99">
+    <cfRule type="expression" dxfId="238" priority="99">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="461" priority="100">
+    <cfRule type="expression" dxfId="237" priority="100">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="460" priority="101">
+    <cfRule type="expression" dxfId="236" priority="101">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="459" priority="102">
+    <cfRule type="expression" dxfId="235" priority="102">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="458" priority="103">
+    <cfRule type="expression" dxfId="234" priority="103">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="457" priority="104">
+    <cfRule type="expression" dxfId="233" priority="104">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32:BQ32">
-    <cfRule type="expression" dxfId="456" priority="89">
+    <cfRule type="expression" dxfId="232" priority="89">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="455" priority="90">
+    <cfRule type="expression" dxfId="231" priority="90">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="454" priority="91">
+    <cfRule type="expression" dxfId="230" priority="91">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="453" priority="92">
+    <cfRule type="expression" dxfId="229" priority="92">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="452" priority="93">
+    <cfRule type="expression" dxfId="228" priority="93">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="451" priority="94">
+    <cfRule type="expression" dxfId="227" priority="94">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="450" priority="95">
+    <cfRule type="expression" dxfId="226" priority="95">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="449" priority="96">
+    <cfRule type="expression" dxfId="225" priority="96">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:BQ33">
-    <cfRule type="expression" dxfId="448" priority="81">
+    <cfRule type="expression" dxfId="224" priority="81">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="447" priority="82">
+    <cfRule type="expression" dxfId="223" priority="82">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="446" priority="83">
+    <cfRule type="expression" dxfId="222" priority="83">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="445" priority="84">
+    <cfRule type="expression" dxfId="221" priority="84">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="444" priority="85">
+    <cfRule type="expression" dxfId="220" priority="85">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="443" priority="86">
+    <cfRule type="expression" dxfId="219" priority="86">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="442" priority="87">
+    <cfRule type="expression" dxfId="218" priority="87">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="441" priority="88">
+    <cfRule type="expression" dxfId="217" priority="88">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21:BQ21">
-    <cfRule type="expression" dxfId="440" priority="73">
+    <cfRule type="expression" dxfId="216" priority="73">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="439" priority="74">
+    <cfRule type="expression" dxfId="215" priority="74">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="438" priority="75">
+    <cfRule type="expression" dxfId="214" priority="75">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="437" priority="76">
+    <cfRule type="expression" dxfId="213" priority="76">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="436" priority="77">
+    <cfRule type="expression" dxfId="212" priority="77">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="435" priority="78">
+    <cfRule type="expression" dxfId="211" priority="78">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="434" priority="79">
+    <cfRule type="expression" dxfId="210" priority="79">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="433" priority="80">
+    <cfRule type="expression" dxfId="209" priority="80">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20:BQ20">
-    <cfRule type="expression" dxfId="432" priority="65">
+    <cfRule type="expression" dxfId="208" priority="65">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="431" priority="66">
+    <cfRule type="expression" dxfId="207" priority="66">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="430" priority="67">
+    <cfRule type="expression" dxfId="206" priority="67">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="429" priority="68">
+    <cfRule type="expression" dxfId="205" priority="68">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="428" priority="69">
+    <cfRule type="expression" dxfId="204" priority="69">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="427" priority="70">
+    <cfRule type="expression" dxfId="203" priority="70">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="426" priority="71">
+    <cfRule type="expression" dxfId="202" priority="71">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="425" priority="72">
+    <cfRule type="expression" dxfId="201" priority="72">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28:BQ28">
-    <cfRule type="expression" dxfId="424" priority="57">
+    <cfRule type="expression" dxfId="200" priority="57">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="423" priority="58">
+    <cfRule type="expression" dxfId="199" priority="58">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="422" priority="59">
+    <cfRule type="expression" dxfId="198" priority="59">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="421" priority="60">
+    <cfRule type="expression" dxfId="197" priority="60">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="420" priority="61">
+    <cfRule type="expression" dxfId="196" priority="61">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="419" priority="62">
+    <cfRule type="expression" dxfId="195" priority="62">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="418" priority="63">
+    <cfRule type="expression" dxfId="194" priority="63">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="417" priority="64">
+    <cfRule type="expression" dxfId="193" priority="64">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32:BQ32">
-    <cfRule type="expression" dxfId="416" priority="49">
+    <cfRule type="expression" dxfId="192" priority="49">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="415" priority="50">
+    <cfRule type="expression" dxfId="191" priority="50">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="414" priority="51">
+    <cfRule type="expression" dxfId="190" priority="51">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="413" priority="52">
+    <cfRule type="expression" dxfId="189" priority="52">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="412" priority="53">
+    <cfRule type="expression" dxfId="188" priority="53">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="411" priority="54">
+    <cfRule type="expression" dxfId="187" priority="54">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="410" priority="55">
+    <cfRule type="expression" dxfId="186" priority="55">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="409" priority="56">
+    <cfRule type="expression" dxfId="185" priority="56">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:BQ33">
-    <cfRule type="expression" dxfId="408" priority="41">
+    <cfRule type="expression" dxfId="184" priority="41">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="407" priority="42">
+    <cfRule type="expression" dxfId="183" priority="42">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="406" priority="43">
+    <cfRule type="expression" dxfId="182" priority="43">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="405" priority="44">
+    <cfRule type="expression" dxfId="181" priority="44">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="404" priority="45">
+    <cfRule type="expression" dxfId="180" priority="45">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="403" priority="46">
+    <cfRule type="expression" dxfId="179" priority="46">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="402" priority="47">
+    <cfRule type="expression" dxfId="178" priority="47">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="401" priority="48">
+    <cfRule type="expression" dxfId="177" priority="48">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34:BQ34">
-    <cfRule type="expression" dxfId="400" priority="33">
+    <cfRule type="expression" dxfId="176" priority="33">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="399" priority="34">
+    <cfRule type="expression" dxfId="175" priority="34">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="398" priority="35">
+    <cfRule type="expression" dxfId="174" priority="35">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="397" priority="36">
+    <cfRule type="expression" dxfId="173" priority="36">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="396" priority="37">
+    <cfRule type="expression" dxfId="172" priority="37">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="395" priority="38">
+    <cfRule type="expression" dxfId="171" priority="38">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="394" priority="39">
+    <cfRule type="expression" dxfId="170" priority="39">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="393" priority="40">
+    <cfRule type="expression" dxfId="169" priority="40">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J35:BQ35">
-    <cfRule type="expression" dxfId="392" priority="25">
+    <cfRule type="expression" dxfId="168" priority="25">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="391" priority="26">
+    <cfRule type="expression" dxfId="167" priority="26">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="390" priority="27">
+    <cfRule type="expression" dxfId="166" priority="27">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="389" priority="28">
+    <cfRule type="expression" dxfId="165" priority="28">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="388" priority="29">
+    <cfRule type="expression" dxfId="164" priority="29">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="387" priority="30">
+    <cfRule type="expression" dxfId="163" priority="30">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="386" priority="31">
+    <cfRule type="expression" dxfId="162" priority="31">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="385" priority="32">
+    <cfRule type="expression" dxfId="161" priority="32">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J36:BQ36">
-    <cfRule type="expression" dxfId="384" priority="17">
+    <cfRule type="expression" dxfId="160" priority="17">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="383" priority="18">
+    <cfRule type="expression" dxfId="159" priority="18">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="382" priority="19">
+    <cfRule type="expression" dxfId="158" priority="19">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="381" priority="20">
+    <cfRule type="expression" dxfId="157" priority="20">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="380" priority="21">
+    <cfRule type="expression" dxfId="156" priority="21">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="379" priority="22">
+    <cfRule type="expression" dxfId="155" priority="22">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="378" priority="23">
+    <cfRule type="expression" dxfId="154" priority="23">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="377" priority="24">
+    <cfRule type="expression" dxfId="153" priority="24">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37:BQ37">
-    <cfRule type="expression" dxfId="376" priority="9">
+    <cfRule type="expression" dxfId="152" priority="9">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="375" priority="10">
+    <cfRule type="expression" dxfId="151" priority="10">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="374" priority="11">
+    <cfRule type="expression" dxfId="150" priority="11">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="373" priority="12">
+    <cfRule type="expression" dxfId="149" priority="12">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="372" priority="13">
+    <cfRule type="expression" dxfId="148" priority="13">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="371" priority="14">
+    <cfRule type="expression" dxfId="147" priority="14">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="370" priority="15">
+    <cfRule type="expression" dxfId="146" priority="15">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="369" priority="16">
+    <cfRule type="expression" dxfId="145" priority="16">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J38:BQ38">
-    <cfRule type="expression" dxfId="368" priority="1">
+    <cfRule type="expression" dxfId="144" priority="1">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="367" priority="2">
+    <cfRule type="expression" dxfId="143" priority="2">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="366" priority="3">
+    <cfRule type="expression" dxfId="142" priority="3">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="365" priority="4">
+    <cfRule type="expression" dxfId="141" priority="4">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="364" priority="5">
+    <cfRule type="expression" dxfId="140" priority="5">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="363" priority="6">
+    <cfRule type="expression" dxfId="139" priority="6">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="362" priority="7">
+    <cfRule type="expression" dxfId="138" priority="7">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="361" priority="8">
+    <cfRule type="expression" dxfId="137" priority="8">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17166,7 +14002,7 @@
   <dimension ref="B2:BR36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.35"/>
@@ -17211,7 +14047,7 @@
       <c r="M3" s="6"/>
       <c r="N3" s="35">
         <f ca="1">TODAY()-DATE(2020, 9, 13)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O3" s="35"/>
       <c r="P3" s="6"/>
@@ -17536,13 +14372,13 @@
         <v>1</v>
       </c>
       <c r="E10" s="13">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F10" s="13">
         <v>1</v>
       </c>
       <c r="G10" s="13">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H10" s="14">
         <v>0</v>
@@ -17853,13 +14689,13 @@
         <v>49</v>
       </c>
       <c r="D15" s="13">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E15" s="13">
         <v>7</v>
       </c>
       <c r="F15" s="13">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G15" s="13">
         <v>7</v>
@@ -18629,397 +15465,397 @@
     <mergeCell ref="H6:H7"/>
   </mergeCells>
   <conditionalFormatting sqref="J10:BQ11 J13:BQ16 J24:BQ24">
-    <cfRule type="expression" dxfId="360" priority="361">
+    <cfRule type="expression" dxfId="136" priority="361">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="359" priority="362">
+    <cfRule type="expression" dxfId="135" priority="362">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="358" priority="363">
+    <cfRule type="expression" dxfId="134" priority="363">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="357" priority="364">
+    <cfRule type="expression" dxfId="133" priority="364">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="356" priority="365">
+    <cfRule type="expression" dxfId="132" priority="365">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="355" priority="366">
+    <cfRule type="expression" dxfId="131" priority="366">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="354" priority="368">
+    <cfRule type="expression" dxfId="130" priority="368">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="353" priority="369">
+    <cfRule type="expression" dxfId="129" priority="369">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:BQ9">
-    <cfRule type="expression" dxfId="352" priority="367">
+    <cfRule type="expression" dxfId="128" priority="367">
       <formula>J$8=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9:BQ9">
-    <cfRule type="expression" dxfId="351" priority="353">
+    <cfRule type="expression" dxfId="127" priority="353">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="350" priority="354">
+    <cfRule type="expression" dxfId="126" priority="354">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="349" priority="355">
+    <cfRule type="expression" dxfId="125" priority="355">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="348" priority="356">
+    <cfRule type="expression" dxfId="124" priority="356">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="347" priority="357">
+    <cfRule type="expression" dxfId="123" priority="357">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="346" priority="358">
+    <cfRule type="expression" dxfId="122" priority="358">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="345" priority="359">
+    <cfRule type="expression" dxfId="121" priority="359">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="344" priority="360">
+    <cfRule type="expression" dxfId="120" priority="360">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12:BQ12">
-    <cfRule type="expression" dxfId="343" priority="345">
+    <cfRule type="expression" dxfId="119" priority="345">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="342" priority="346">
+    <cfRule type="expression" dxfId="118" priority="346">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="341" priority="347">
+    <cfRule type="expression" dxfId="117" priority="347">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="340" priority="348">
+    <cfRule type="expression" dxfId="116" priority="348">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="339" priority="349">
+    <cfRule type="expression" dxfId="115" priority="349">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="338" priority="350">
+    <cfRule type="expression" dxfId="114" priority="350">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="337" priority="351">
+    <cfRule type="expression" dxfId="113" priority="351">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="336" priority="352">
+    <cfRule type="expression" dxfId="112" priority="352">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16:BQ16">
-    <cfRule type="expression" dxfId="335" priority="329">
+    <cfRule type="expression" dxfId="111" priority="329">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="334" priority="330">
+    <cfRule type="expression" dxfId="110" priority="330">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="333" priority="331">
+    <cfRule type="expression" dxfId="109" priority="331">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="332" priority="332">
+    <cfRule type="expression" dxfId="108" priority="332">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="331" priority="333">
+    <cfRule type="expression" dxfId="107" priority="333">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="330" priority="334">
+    <cfRule type="expression" dxfId="106" priority="334">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="329" priority="335">
+    <cfRule type="expression" dxfId="105" priority="335">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="328" priority="336">
+    <cfRule type="expression" dxfId="104" priority="336">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18:BQ18">
-    <cfRule type="expression" dxfId="327" priority="321">
+    <cfRule type="expression" dxfId="103" priority="321">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="326" priority="322">
+    <cfRule type="expression" dxfId="102" priority="322">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="325" priority="323">
+    <cfRule type="expression" dxfId="101" priority="323">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="324" priority="324">
+    <cfRule type="expression" dxfId="100" priority="324">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="323" priority="325">
+    <cfRule type="expression" dxfId="99" priority="325">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="322" priority="326">
+    <cfRule type="expression" dxfId="98" priority="326">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="321" priority="327">
+    <cfRule type="expression" dxfId="97" priority="327">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="320" priority="328">
+    <cfRule type="expression" dxfId="96" priority="328">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17:BQ17">
-    <cfRule type="expression" dxfId="319" priority="313">
+    <cfRule type="expression" dxfId="95" priority="313">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="318" priority="314">
+    <cfRule type="expression" dxfId="94" priority="314">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="317" priority="315">
+    <cfRule type="expression" dxfId="93" priority="315">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="316" priority="316">
+    <cfRule type="expression" dxfId="92" priority="316">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="315" priority="317">
+    <cfRule type="expression" dxfId="91" priority="317">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="314" priority="318">
+    <cfRule type="expression" dxfId="90" priority="318">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="313" priority="319">
+    <cfRule type="expression" dxfId="89" priority="319">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="312" priority="320">
+    <cfRule type="expression" dxfId="88" priority="320">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21:BQ23">
-    <cfRule type="expression" dxfId="263" priority="257">
+    <cfRule type="expression" dxfId="87" priority="257">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="262" priority="258">
+    <cfRule type="expression" dxfId="86" priority="258">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="261" priority="259">
+    <cfRule type="expression" dxfId="85" priority="259">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="260" priority="260">
+    <cfRule type="expression" dxfId="84" priority="260">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="259" priority="261">
+    <cfRule type="expression" dxfId="83" priority="261">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="258" priority="262">
+    <cfRule type="expression" dxfId="82" priority="262">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="257" priority="263">
+    <cfRule type="expression" dxfId="81" priority="263">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="256" priority="264">
+    <cfRule type="expression" dxfId="80" priority="264">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20:BQ20">
-    <cfRule type="expression" dxfId="255" priority="249">
+    <cfRule type="expression" dxfId="79" priority="249">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="254" priority="250">
+    <cfRule type="expression" dxfId="78" priority="250">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="253" priority="251">
+    <cfRule type="expression" dxfId="77" priority="251">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="252" priority="252">
+    <cfRule type="expression" dxfId="76" priority="252">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="251" priority="253">
+    <cfRule type="expression" dxfId="75" priority="253">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="250" priority="254">
+    <cfRule type="expression" dxfId="74" priority="254">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="249" priority="255">
+    <cfRule type="expression" dxfId="73" priority="255">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="248" priority="256">
+    <cfRule type="expression" dxfId="72" priority="256">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19:BQ19">
-    <cfRule type="expression" dxfId="247" priority="241">
+    <cfRule type="expression" dxfId="71" priority="241">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="246" priority="242">
+    <cfRule type="expression" dxfId="70" priority="242">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="245" priority="243">
+    <cfRule type="expression" dxfId="69" priority="243">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="244" priority="244">
+    <cfRule type="expression" dxfId="68" priority="244">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="243" priority="245">
+    <cfRule type="expression" dxfId="67" priority="245">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="242" priority="246">
+    <cfRule type="expression" dxfId="66" priority="246">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="241" priority="247">
+    <cfRule type="expression" dxfId="65" priority="247">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="240" priority="248">
+    <cfRule type="expression" dxfId="64" priority="248">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17:BQ17">
-    <cfRule type="expression" dxfId="175" priority="169">
+    <cfRule type="expression" dxfId="63" priority="169">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="170">
+    <cfRule type="expression" dxfId="62" priority="170">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="173" priority="171">
+    <cfRule type="expression" dxfId="61" priority="171">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="172">
+    <cfRule type="expression" dxfId="60" priority="172">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="173">
+    <cfRule type="expression" dxfId="59" priority="173">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="170" priority="174">
+    <cfRule type="expression" dxfId="58" priority="174">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="169" priority="175">
+    <cfRule type="expression" dxfId="57" priority="175">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="176">
+    <cfRule type="expression" dxfId="56" priority="176">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19:BQ19">
-    <cfRule type="expression" dxfId="167" priority="161">
+    <cfRule type="expression" dxfId="55" priority="161">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="162">
+    <cfRule type="expression" dxfId="54" priority="162">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="163">
+    <cfRule type="expression" dxfId="53" priority="163">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="164" priority="164">
+    <cfRule type="expression" dxfId="52" priority="164">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="165">
+    <cfRule type="expression" dxfId="51" priority="165">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="166">
+    <cfRule type="expression" dxfId="50" priority="166">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="161" priority="167">
+    <cfRule type="expression" dxfId="49" priority="167">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="168">
+    <cfRule type="expression" dxfId="48" priority="168">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18:BQ18">
-    <cfRule type="expression" dxfId="159" priority="153">
+    <cfRule type="expression" dxfId="47" priority="153">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="154">
+    <cfRule type="expression" dxfId="46" priority="154">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="155">
+    <cfRule type="expression" dxfId="45" priority="155">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="156">
+    <cfRule type="expression" dxfId="44" priority="156">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="155" priority="157">
+    <cfRule type="expression" dxfId="43" priority="157">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="158">
+    <cfRule type="expression" dxfId="42" priority="158">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="159">
+    <cfRule type="expression" dxfId="41" priority="159">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="152" priority="160">
+    <cfRule type="expression" dxfId="40" priority="160">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J24:BQ24">
-    <cfRule type="expression" dxfId="151" priority="145">
+    <cfRule type="expression" dxfId="39" priority="145">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="146">
+    <cfRule type="expression" dxfId="38" priority="146">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="149" priority="147">
+    <cfRule type="expression" dxfId="37" priority="147">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="148">
+    <cfRule type="expression" dxfId="36" priority="148">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="149">
+    <cfRule type="expression" dxfId="35" priority="149">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="150">
+    <cfRule type="expression" dxfId="34" priority="150">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="151">
+    <cfRule type="expression" dxfId="33" priority="151">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="152">
+    <cfRule type="expression" dxfId="32" priority="152">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21:BQ21">
-    <cfRule type="expression" dxfId="95" priority="89">
+    <cfRule type="expression" dxfId="31" priority="89">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="90">
+    <cfRule type="expression" dxfId="30" priority="90">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="91">
+    <cfRule type="expression" dxfId="29" priority="91">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="92">
+    <cfRule type="expression" dxfId="28" priority="92">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="93">
+    <cfRule type="expression" dxfId="27" priority="93">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="94">
+    <cfRule type="expression" dxfId="26" priority="94">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="95">
+    <cfRule type="expression" dxfId="25" priority="95">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="96">
+    <cfRule type="expression" dxfId="24" priority="96">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20:BQ20">
-    <cfRule type="expression" dxfId="87" priority="81">
+    <cfRule type="expression" dxfId="23" priority="81">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="82">
+    <cfRule type="expression" dxfId="22" priority="82">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="83">
+    <cfRule type="expression" dxfId="21" priority="83">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="84">
+    <cfRule type="expression" dxfId="20" priority="84">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="85">
+    <cfRule type="expression" dxfId="19" priority="85">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="86">
+    <cfRule type="expression" dxfId="18" priority="86">
       <formula>J$8=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="87">
+    <cfRule type="expression" dxfId="17" priority="87">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="88">
+    <cfRule type="expression" dxfId="16" priority="88">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/wiki/CronogramaKlass.xlsx
+++ b/wiki/CronogramaKlass.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF8B5BE-CE32-4DBD-B9A7-E2B52FF80291}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072907B4-678C-4476-9851-3E5C5C19EA3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8301,7 +8301,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="period_selected" max="60" min="1" page="10" val="3"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="period_selected" max="60" min="1" page="10" val="6"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10548,7 +10548,7 @@
       <c r="M3" s="6"/>
       <c r="N3" s="35">
         <f ca="1">TODAY()-DATE(2020, 7, 5)-7</f>
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O3" s="35"/>
       <c r="P3" s="6"/>
@@ -14002,7 +14002,7 @@
   <dimension ref="B2:BR36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.35"/>
@@ -14047,7 +14047,7 @@
       <c r="M3" s="6"/>
       <c r="N3" s="35">
         <f ca="1">TODAY()-DATE(2020, 9, 13)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O3" s="35"/>
       <c r="P3" s="6"/>
@@ -14357,7 +14357,7 @@
         <v>7</v>
       </c>
       <c r="H9" s="14">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="BR9" s="1"/>
     </row>
@@ -14628,13 +14628,13 @@
         <v>1</v>
       </c>
       <c r="E14" s="13">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F14" s="13">
         <v>1</v>
       </c>
       <c r="G14" s="13">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H14" s="14">
         <v>0</v>
@@ -14701,7 +14701,7 @@
         <v>7</v>
       </c>
       <c r="H15" s="14">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="16" spans="2:70" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">

--- a/wiki/CronogramaKlass.xlsx
+++ b/wiki/CronogramaKlass.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072907B4-678C-4476-9851-3E5C5C19EA3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E83CB738-7D5C-4DED-B98D-AA5BB585FBCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8301,7 +8301,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="period_selected" max="60" min="1" page="10" val="6"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="period_selected" max="60" min="1" page="10" val="26"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10548,7 +10548,7 @@
       <c r="M3" s="6"/>
       <c r="N3" s="35">
         <f ca="1">TODAY()-DATE(2020, 7, 5)-7</f>
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="O3" s="35"/>
       <c r="P3" s="6"/>
@@ -14002,7 +14002,7 @@
   <dimension ref="B2:BR36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.35"/>
@@ -14047,7 +14047,7 @@
       <c r="M3" s="6"/>
       <c r="N3" s="35">
         <f ca="1">TODAY()-DATE(2020, 9, 13)</f>
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="O3" s="35"/>
       <c r="P3" s="6"/>
@@ -14357,7 +14357,7 @@
         <v>7</v>
       </c>
       <c r="H9" s="14">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="BR9" s="1"/>
     </row>
@@ -14381,7 +14381,7 @@
         <v>14</v>
       </c>
       <c r="H10" s="14">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AD10"/>
       <c r="AE10"/>
@@ -14445,7 +14445,7 @@
         <v>7</v>
       </c>
       <c r="H11" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD11"/>
       <c r="AE11"/>
@@ -14509,7 +14509,7 @@
         <v>7</v>
       </c>
       <c r="H12" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD12"/>
       <c r="AE12"/>
@@ -14558,7 +14558,7 @@
         <v>92</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13" s="13">
         <v>22</v>
@@ -14637,7 +14637,7 @@
         <v>14</v>
       </c>
       <c r="H14" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD14"/>
       <c r="AE14"/>
@@ -14701,7 +14701,7 @@
         <v>7</v>
       </c>
       <c r="H15" s="14">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="2:70" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -14724,7 +14724,7 @@
         <v>7</v>
       </c>
       <c r="H16" s="23">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I16" s="24"/>
       <c r="J16" s="24"/>
@@ -14793,7 +14793,7 @@
         <v>96</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D17" s="22">
         <v>15</v>
@@ -14808,7 +14808,7 @@
         <v>7</v>
       </c>
       <c r="H17" s="23">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="I17" s="24"/>
       <c r="J17" s="24"/>
@@ -14961,7 +14961,7 @@
         <v>97</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D19" s="22">
         <v>22</v>
@@ -15060,7 +15060,7 @@
         <v>14</v>
       </c>
       <c r="H20" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="24"/>
       <c r="J20" s="24"/>
@@ -15144,7 +15144,7 @@
         <v>7</v>
       </c>
       <c r="H21" s="23">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I21" s="24"/>
       <c r="J21" s="24"/>
@@ -15228,7 +15228,7 @@
         <v>7</v>
       </c>
       <c r="H22" s="14">
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="23" spans="2:69" x14ac:dyDescent="0.35">
@@ -15236,7 +15236,7 @@
         <v>100</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D23" s="13">
         <v>29</v>
@@ -15251,7 +15251,7 @@
         <v>14</v>
       </c>
       <c r="H23" s="14">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="24" spans="2:69" x14ac:dyDescent="0.35">
